--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>限定条件</t>
     <rPh sb="0" eb="2">
@@ -234,35 +234,6 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1. 全てのポスターのリストを画面遷移なしで見ることができる（スクロールはしても良い）
-2. 各ポスターについて，ID, タイトル，発表者が表示されている</t>
-    <rPh sb="3" eb="4">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="66" eb="69">
-      <t>ハッピョウシャ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -973,6 +944,75 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">(備考3)常時表示にするか，タップして引き出す形式にするか（もしくは他の表示形式にするか）は今回の結果から再度検討する。現段階（ペーパープロトタイプ検証後）では、常時表示が適切と判断している。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（備考４）表示方法を提案し、合意をとること。</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>ゲンダンカイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ジョウジ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ゴウイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
       <t>1. メニューバーは画面下に常に表示されている</t>
     </r>
     <r>
@@ -1000,86 +1040,7 @@
 3. 既に実装されている機能のアイコンをタップした場合にはその画面に遷移する
 4. 未実装である機能のアイコンは，そうであることが分かるように表示されている
 5. 未実装である機能のアイコンはタップしても動作しない
-6. 現在表示されているメニューが何かが分かるようになっている（備考４）</t>
-    </r>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="119" eb="122">
-      <t>ミジッソウ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="159" eb="162">
-      <t>ミジッソウ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="188" eb="190">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="190" eb="192">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="202" eb="203">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="205" eb="206">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="217" eb="219">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(備考3)常時表示にするか，タップして引き出す形式にするか（もしくは他の表示形式にするか）は今回の結果から再度検討する。現段階（ペーパープロトタイプ検証後）では、常時表示が適切と判断している。
-</t>
+6. 現在表示されているメニューが何かが分かるようになっている</t>
     </r>
     <r>
       <rPr>
@@ -1090,58 +1051,166 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（備考４）表示方法を提案し、合意をとること。</t>
+      <t>（備考４）</t>
     </r>
-    <rPh sb="1" eb="3">
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
       <t>ビコウ</t>
     </rPh>
-    <rPh sb="34" eb="35">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="60" eb="63">
-      <t>ゲンダンカイ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ジョウジ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>テキセツ</t>
+    <rPh sb="70" eb="71">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ジッソウ</t>
     </rPh>
     <rPh sb="89" eb="91">
-      <t>ハンダン</t>
-    </rPh>
-    <rPh sb="98" eb="100">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="119" eb="122">
+      <t>ミジッソウ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="159" eb="162">
+      <t>ミジッソウ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="217" eb="219">
       <t>ビコウ</t>
     </rPh>
-    <rPh sb="102" eb="104">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Show poster list</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トップページのリストアイコンをタップすると，ポスター一覧表示画面が表示される。表示方法はビジネスルールに従う。</t>
+    <rPh sb="26" eb="28">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
       <t>ホウホウ</t>
     </rPh>
-    <rPh sb="107" eb="109">
-      <t>テイアン</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>ゴウイ</t>
+    <rPh sb="52" eb="53">
+      <t>シタガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スクロールして1画面で全部のリストを閲覧することができる。</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. 全てのポスターのリストを画面遷移なしで見ることができる（スクロールはしても良い）
+2. 各ポスターについて，ID, タイトル，発表者が表示されている
+3. 1画面で全てのポスターを表示できない場合はスクロールバーが出現し，スクロールできる。</t>
+    <rPh sb="3" eb="4">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>ハッピョウシャ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>シュツゲン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1628,18 +1697,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.625" customWidth="1"/>
     <col min="5" max="5" width="70.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.625" customWidth="1"/>
+    <col min="6" max="6" width="42.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1657,13 +1726,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="162">
@@ -1674,17 +1743,17 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5">
@@ -1695,20 +1764,20 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40.5">
+    <row r="5" spans="1:7" ht="54">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1722,7 +1791,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>16</v>
@@ -1737,17 +1806,17 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1759,85 +1828,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D7"/>
+  <dimension ref="A3:E7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="38.25" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="3" max="4" width="38.25" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40.5">
+    <row r="4" spans="1:5" ht="40.5">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40.5">
+    <row r="5" spans="1:5" ht="40.5">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27">
+    <row r="6" spans="1:5" ht="27">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27">
+    <row r="7" spans="1:5" ht="27">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
-        <v>37</v>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="-105" windowWidth="17235" windowHeight="9405"/>
+    <workbookView xWindow="4920" yWindow="-105" windowWidth="17235" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Userstories" sheetId="6" r:id="rId1"/>
-    <sheet name="Business flow" sheetId="4" r:id="rId2"/>
+    <sheet name="Business Rules" sheetId="6" r:id="rId1"/>
+    <sheet name="Business flows" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -1697,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1830,7 +1830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furuya-NPC\say-document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="-105" windowWidth="17235" windowHeight="9405" activeTab="1"/>
+    <workbookView xWindow="4920" yWindow="-105" windowWidth="17235" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Business Rules" sheetId="6" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>限定条件</t>
     <rPh sb="0" eb="2">
@@ -409,76 +414,6 @@
     </rPh>
     <rPh sb="78" eb="79">
       <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>1. アプリのアイコンが作成したロゴになっている</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（検討事項２）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2. トップページには会議名，マップへのアイコン，リストへのアイコン，Bookmarkリストへのアイコンが表示されている
-3. 未実装である機能のアイコンは、そうであることが分かるように表示されている
-4. 未実装である機能のアイコンはタップしても動作しない</t>
-    </r>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケントウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジコウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="96" eb="99">
-      <t>ミジッソウ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="136" eb="139">
-      <t>ミジッソウ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>ドウサ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -887,45 +822,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>起動するとメニューバーが表示され，ビジネスルールに記載したようにアイコンが表示されている。</t>
-    <rPh sb="0" eb="2">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>これまで実装したすべての機能を実行し，
-どの画面でも必ずメニューバーが表示されている</t>
-    <rPh sb="4" eb="6">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>起動するとトップページが表示され，
 ビジネスルールに記載したようにアイコンが表示されている</t>
     <rPh sb="0" eb="2">
@@ -1012,8 +908,229 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>Show poster list</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トップページのリストアイコンをタップすると，ポスター一覧表示画面が表示される。表示方法はビジネスルールに従う。</t>
+    <rPh sb="26" eb="28">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>シタガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スクロールして1画面で全部のリストを閲覧することができる。</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. 全てのポスターのリストを画面遷移なしで見ることができる（スクロールはしても良い）
+2. 各ポスターについて，ID, セッションID、タイトル，発表者が表示されている
+3. 1画面で全てのポスターを表示できない場合はスクロールバーが出現し，スクロールできる。</t>
+    <rPh sb="3" eb="4">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="74" eb="77">
+      <t>ハッピョウシャ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <r>
-      <t>1. メニューバーは画面下に常に表示されている</t>
+      <t>1. アプリのアイコンが作成したロゴになっている</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（検討事項２）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. トップページには会議名，マップへのアイコン，リストへのアイコン，Bookmarkリスト, Informationへのアイコンが表示されている
+3. 未実装である機能のアイコンは、そうであることが分かるように表示されている
+4. 未実装である機能のアイコンはタップしても動作しない</t>
+    </r>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>ミジッソウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="149" eb="152">
+      <t>ミジッソウ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>これまで実装したすべての機能を実行し，
+トップページ以外のどの画面でも必ずメニューバーが表示されている</t>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トップページ以外の画面を表示すると、メニューバーが表示され，ビジネスルールに記載したようにアイコンが表示されている。</t>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(備考5)ポスターはWebページに掲載されている順で表示すること。</t>
+    <rPh sb="1" eb="3">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>1. メニューバーはトップページ以外の画面下に常に表示されている</t>
     </r>
     <r>
       <rPr>
@@ -1036,7 +1153,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-2. メニューには「トップページ」「マップ」「リスト」「ブックマーク」のアイコンが含まれている
+2. メニューには「トップページ」「マップ」「リスト」「ブックマーク」「Information」のアイコンが含まれている
 3. 既に実装されている機能のアイコンをタップした場合にはその画面に遷移する
 4. 未実装である機能のアイコンは，そうであることが分かるように表示されている
 5. 未実装である機能のアイコンはタップしても動作しない
@@ -1053,164 +1170,80 @@
       </rPr>
       <t>（備考４）</t>
     </r>
-    <rPh sb="10" eb="12">
+    <rPh sb="16" eb="18">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="12" eb="13">
+    <rPh sb="21" eb="22">
       <t>シタ</t>
     </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="23" eb="24">
       <t>ツネ</t>
     </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
       <t>ビコウ</t>
     </rPh>
-    <rPh sb="70" eb="71">
+    <rPh sb="92" eb="93">
       <t>フク</t>
     </rPh>
-    <rPh sb="80" eb="81">
+    <rPh sb="102" eb="103">
       <t>スデ</t>
     </rPh>
-    <rPh sb="82" eb="84">
+    <rPh sb="104" eb="106">
       <t>ジッソウ</t>
     </rPh>
-    <rPh sb="89" eb="91">
+    <rPh sb="111" eb="113">
       <t>キノウ</t>
     </rPh>
-    <rPh sb="102" eb="104">
+    <rPh sb="124" eb="126">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="108" eb="110">
+    <rPh sb="130" eb="132">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="111" eb="113">
+    <rPh sb="133" eb="135">
       <t>センイ</t>
     </rPh>
-    <rPh sb="119" eb="122">
+    <rPh sb="141" eb="144">
       <t>ミジッソウ</t>
     </rPh>
-    <rPh sb="125" eb="127">
+    <rPh sb="147" eb="149">
       <t>キノウ</t>
     </rPh>
-    <rPh sb="142" eb="143">
+    <rPh sb="164" eb="165">
       <t>ワ</t>
     </rPh>
-    <rPh sb="148" eb="150">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="159" eb="162">
+    <rPh sb="170" eb="172">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="181" eb="184">
       <t>ミジッソウ</t>
     </rPh>
-    <rPh sb="165" eb="167">
+    <rPh sb="187" eb="189">
       <t>キノウ</t>
     </rPh>
-    <rPh sb="179" eb="181">
+    <rPh sb="201" eb="203">
       <t>ドウサ</t>
     </rPh>
-    <rPh sb="188" eb="190">
+    <rPh sb="210" eb="212">
       <t>ゲンザイ</t>
     </rPh>
-    <rPh sb="190" eb="192">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="202" eb="203">
+    <rPh sb="212" eb="214">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="224" eb="225">
       <t>ナニ</t>
     </rPh>
-    <rPh sb="205" eb="206">
+    <rPh sb="227" eb="228">
       <t>ワ</t>
     </rPh>
-    <rPh sb="217" eb="219">
+    <rPh sb="239" eb="241">
       <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Show poster list</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>トップページのリストアイコンをタップすると，ポスター一覧表示画面が表示される。表示方法はビジネスルールに従う。</t>
-    <rPh sb="26" eb="28">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>シタガ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>スクロールして1画面で全部のリストを閲覧することができる。</t>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ゼンブ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1. 全てのポスターのリストを画面遷移なしで見ることができる（スクロールはしても良い）
-2. 各ポスターについて，ID, タイトル，発表者が表示されている
-3. 1画面で全てのポスターを表示できない場合はスクロールバーが出現し，スクロールできる。</t>
-    <rPh sb="3" eb="4">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="66" eb="69">
-      <t>ハッピョウシャ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>シュツゲン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1353,7 +1386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1372,9 +1405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1389,6 +1419,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1409,7 +1448,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1451,7 +1490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1486,7 +1525,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1697,19 +1736,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.625" customWidth="1"/>
-    <col min="5" max="5" width="70.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.875" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="70.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.875" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -1726,7 +1766,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -1736,87 +1776,89 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="162">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="81">
-      <c r="A6" s="3">
+    <row r="6" spans="1:7" ht="94.5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="7"/>
+      <c r="E6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1830,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1854,10 +1896,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40.5">
@@ -1865,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40.5">
@@ -1882,16 +1924,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27">
@@ -1899,17 +1941,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="27">
+    <row r="7" spans="1:5" ht="40.5">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1917,7 +1959,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1942,7 +1984,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1950,7 +1992,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1958,7 +2000,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1966,7 +2008,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1974,7 +2016,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1982,7 +2024,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1990,7 +2032,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
     </row>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="-105" windowWidth="17235" windowHeight="9405"/>
+    <workbookView xWindow="4920" yWindow="-105" windowWidth="17235" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Business Rules" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>限定条件</t>
     <rPh sb="0" eb="2">
@@ -1244,6 +1244,37 @@
     </rPh>
     <rPh sb="239" eb="241">
       <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>詳細情報画面に遷移すると、詳細情報の文字列と戻るボタンが正しい位置に表示される</t>
+    <rPh sb="0" eb="4">
+      <t>ショウサイジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ショウサイジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1386,7 +1417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1396,14 +1427,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1736,20 +1761,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="70.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.875" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="4.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.875" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -1776,88 +1801,88 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="162">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="94.5">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1872,33 +1897,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="4" width="38.25" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="9" customWidth="1"/>
+    <col min="3" max="4" width="38.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="40" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9" style="9"/>
+    <col min="7" max="7" width="9" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1906,16 +1933,16 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1923,16 +1950,16 @@
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1940,14 +1967,14 @@
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1955,10 +1982,12 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1984,7 +2013,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1992,7 +2021,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2000,7 +2029,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2008,7 +2037,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2016,7 +2045,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2024,7 +2053,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2032,7 +2061,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furuya-NPC\say-document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="-105" windowWidth="17235" windowHeight="9405" activeTab="1"/>
+    <workbookView xWindow="4920" yWindow="-100" windowWidth="17240" windowHeight="9400"/>
   </bookViews>
   <sheets>
     <sheet name="Business Rules" sheetId="6" r:id="rId1"/>
     <sheet name="Business flows" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1283,7 +1283,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1382,28 +1382,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1515,7 +1515,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1550,7 +1550,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1761,20 +1761,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="70.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.875" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="9"/>
+    <col min="6" max="6" width="42.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.83203125" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -1800,7 +1800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="162">
+    <row r="3" spans="1:7" ht="149">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="67.5">
+    <row r="4" spans="1:7" ht="65">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="54">
+    <row r="5" spans="1:7" ht="53">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="94.5">
+    <row r="6" spans="1:7" ht="89">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1889,7 +1889,12 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1897,19 +1902,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="9" customWidth="1"/>
-    <col min="3" max="4" width="38.25" style="9" customWidth="1"/>
+    <col min="3" max="4" width="38.1640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="40" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9" style="9"/>
+    <col min="6" max="6" width="8.83203125" style="9"/>
     <col min="7" max="7" width="9" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="9"/>
+    <col min="8" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5">
@@ -1929,7 +1934,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="40.5">
+    <row r="4" spans="1:5" ht="41">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1946,7 +1951,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.5">
+    <row r="5" spans="1:5" ht="41">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1963,7 +1968,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27">
+    <row r="6" spans="1:5" ht="29">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1978,7 +1983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="40.5">
+    <row r="7" spans="1:5" ht="41">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1994,7 +1999,12 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2006,18 +2016,18 @@
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" spans="1:2" ht="23">
       <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27">
+    <row r="2" spans="1:2" ht="29">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2025,7 +2035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27">
+    <row r="3" spans="1:2" ht="29">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2033,7 +2043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27">
+    <row r="4" spans="1:2" ht="29">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2041,7 +2051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="54">
+    <row r="5" spans="1:2" ht="53">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2049,7 +2059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="40.5">
+    <row r="6" spans="1:2" ht="41">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2057,7 +2067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="54">
+    <row r="7" spans="1:2" ht="53">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2068,5 +2078,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furuya-NPC\say-documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="-100" windowWidth="17240" windowHeight="9400"/>
+    <workbookView xWindow="4920" yWindow="-105" windowWidth="10440" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Business Rules" sheetId="6" r:id="rId1"/>
     <sheet name="Business flows" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>限定条件</t>
     <rPh sb="0" eb="2">
@@ -1278,12 +1283,355 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>Zoom map</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>参加者が
+ポスターの配置をよく確認するため
+ポスターMapをZoomする</t>
+    <rPh sb="10" eb="12">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Jump to detil from poster list</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Jump to map from poster list</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>参加者が
+リスト中から見たいポスターの場所をチェックできるように
+ポスターリストからマップ上のポスターの位置へ移動する</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>参加者が
+リストから個別の情報を閲覧できるようにするため
+ポスターリストから詳細情報を表示する</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>ショウサイジョウホウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. ポスターリストの全てのポスターに対して、「詳細」ボタンが付いている
+2. 「詳細」ボタンを押すと、対応するポスターの詳細情報画面に遷移する</t>
+    <rPh sb="11" eb="12">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. ポスターリストの全てのポスターに対して、「これどこ？」ボタンが付いている
+2. 「これどこ？」ボタンを押すと、マップ画面に遷移し、対応するポスターが強調表示され、基本情報が表示される</t>
+    <rPh sb="11" eb="12">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="77" eb="81">
+      <t>キョウチョウヒョウジ</t>
+    </rPh>
+    <rPh sb="84" eb="88">
+      <t>キホンジョウホウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（検討事項３）ズームの方法については要交渉</t>
+    <rPh sb="1" eb="5">
+      <t>ケントウジコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ヨウコウショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Fit different displayのStep1から4までが動作する</t>
+    <rPh sb="33" eb="35">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マップ画面上でピンチアウトをすると、マップが拡大する</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクダイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マップ画面上でピンチインをするとマップが縮小する</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュクショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>1. マップだけがズームされ、他のメニューバーなどはズームしない
+2. ピンチアウトでズームインされ、ピンチインでズームアウトされる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（検討事項３）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. ズームインされた状態でドラッグすると、マップが移動する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（検討事項３）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. ズームしたときに、マップ画面のレイアウトが崩れない</t>
+    </r>
+    <rPh sb="15" eb="16">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="67" eb="71">
+      <t>ケントウジコウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="105" eb="109">
+      <t>ケントウジコウ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（すべてのポスターに対して）対応する「これどこ？」ボタンを押すと、マップ画面に遷移する</t>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マップ画面上で対応するポスターが強調表示されている</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>キョウチョウヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マップ画面上で対応するポスターの基本情報が表示されている</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>キホンジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（すべてのポスターに対して）対応する「詳細」ボタンを押すと、対応するポスターの詳細表示画面に遷移する</t>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1417,7 +1765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1453,6 +1801,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1759,22 +2110,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G6"/>
+  <dimension ref="A2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.125" style="9" customWidth="1"/>
     <col min="5" max="5" width="70.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.83203125" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="9"/>
+    <col min="6" max="6" width="42.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.875" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -1800,7 +2151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="149">
+    <row r="3" spans="1:7" ht="162">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1821,7 +2172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="65">
+    <row r="4" spans="1:7" ht="67.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1842,7 +2193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="53">
+    <row r="5" spans="1:7" ht="54">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1865,7 +2216,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="89">
+    <row r="6" spans="1:7" ht="94.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1885,11 +2236,64 @@
       <c r="G6" s="3" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" ht="54">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.5">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="40.5">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1900,24 +2304,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E7"/>
+  <dimension ref="A3:H7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="9" customWidth="1"/>
-    <col min="3" max="4" width="38.1640625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="38.125" style="9" customWidth="1"/>
     <col min="5" max="5" width="40" style="9" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="9"/>
-    <col min="7" max="7" width="9" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="9"/>
+    <col min="6" max="6" width="19" style="9" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="9" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8" ht="40.5">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1933,8 +2338,17 @@
       <c r="E3" s="10" t="s">
         <v>33</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="41">
+    <row r="4" spans="1:8" ht="108">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1950,8 +2364,17 @@
       <c r="E4" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="41">
+    <row r="5" spans="1:8" ht="54">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1967,8 +2390,17 @@
       <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="29">
+    <row r="6" spans="1:8" ht="40.5">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1982,8 +2414,15 @@
       <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="41">
+    <row r="7" spans="1:8" ht="40.5">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1995,6 +2434,11 @@
       <c r="E7" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2016,18 +2460,18 @@
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23">
+    <row r="1" spans="1:2" ht="18.75">
       <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29">
+    <row r="2" spans="1:2" ht="27">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2035,7 +2479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29">
+    <row r="3" spans="1:2" ht="27">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2043,7 +2487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29">
+    <row r="4" spans="1:2" ht="27">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2051,7 +2495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="53">
+    <row r="5" spans="1:2" ht="54">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2059,7 +2503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="41">
+    <row r="6" spans="1:2" ht="40.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2067,7 +2511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="53">
+    <row r="7" spans="1:2" ht="54">
       <c r="A7">
         <v>6</v>
       </c>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furuya-NPC\say-documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="-105" windowWidth="10440" windowHeight="7875" activeTab="1"/>
+    <workbookView xWindow="4920" yWindow="-100" windowWidth="10440" windowHeight="7880"/>
   </bookViews>
   <sheets>
     <sheet name="Business Rules" sheetId="6" r:id="rId1"/>
     <sheet name="Business flows" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>限定条件</t>
     <rPh sb="0" eb="2">
@@ -1359,44 +1354,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1. ポスターリストの全てのポスターに対して、「詳細」ボタンが付いている
-2. 「詳細」ボタンを押すと、対応するポスターの詳細情報画面に遷移する</t>
-    <rPh sb="11" eb="12">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>1. ポスターリストの全てのポスターに対して、「これどこ？」ボタンが付いている
 2. 「これどこ？」ボタンを押すと、マップ画面に遷移し、対応するポスターが強調表示され、基本情報が表示される</t>
     <rPh sb="11" eb="12">
@@ -1471,6 +1428,105 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>シュクショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（すべてのポスターに対して）対応する「これどこ？」ボタンを押すと、マップ画面に遷移する</t>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マップ画面上で対応するポスターが強調表示されている</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>キョウチョウヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マップ画面上で対応するポスターの基本情報が表示されている</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>キホンジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（すべてのポスターに対して）対応する「詳細」ボタンを押すと、対応するポスターの詳細表示画面に遷移する</t>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ダブルタップでズーム率が元に戻る</t>
+    <rPh sb="10" eb="11">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「これどこ？」ボタンにはマップのアイコンを流用する</t>
+    <rPh sb="21" eb="23">
+      <t>リュウヨウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1522,7 +1578,8 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4. ズームしたときに、マップ画面のレイアウトが崩れない</t>
+      <t>4. ズームしたときに、マップ画面のレイアウトが崩れない
+5. ズーム率を元に戻す機能が存在する</t>
     </r>
     <rPh sb="15" eb="16">
       <t>ホカ</t>
@@ -1545,84 +1602,135 @@
     <rPh sb="136" eb="137">
       <t>クズ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>（すべてのポスターに対して）対応する「これどこ？」ボタンを押すと、マップ画面に遷移する</t>
-    <rPh sb="10" eb="11">
+    <rPh sb="147" eb="148">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. ポスターリストの全てのポスターに対して、「詳細」ボタンが付いている
+2. 「詳細」ボタンを押すと、対応するポスターの詳細情報画面に遷移する
+3. 表示後元のリストの画面に戻る機能がある</t>
+    <rPh sb="11" eb="12">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
       <t>タイ</t>
     </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>ヒョウジゴ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・移動後に元のリストに戻れる機能は次回以降のユーザーストーリーとして用意する
+・リスト上の元の位置に戻る機能は次回以降のユーザーストーリーとして用意する</t>
+    <rPh sb="1" eb="4">
+      <t>イドウゴ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
     <rPh sb="14" eb="16">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>マップ画面上で対応するポスターが強調表示されている</t>
-    <rPh sb="3" eb="6">
-      <t>ガメンジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>キョウチョウヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>マップ画面上で対応するポスターの基本情報が表示されている</t>
-    <rPh sb="3" eb="6">
-      <t>ガメンジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・リスト上の元の位置に戻る機能は次回以降のユーザーストーリーとして用意する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>詳細ボタンは”＞”（マップ上基本情報パネルのアイコンと同じもの）にする</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="21">
       <t>キホンジョウホウ</t>
     </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>（すべてのポスターに対して）対応する「詳細」ボタンを押すと、対応するポスターの詳細表示画面に遷移する</t>
-    <rPh sb="10" eb="11">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>センイ</t>
+    <rPh sb="27" eb="28">
+      <t>オナ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1631,7 +1739,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2112,20 +2220,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="70.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.875" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="9"/>
+    <col min="6" max="6" width="42.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.83203125" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -2151,7 +2259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="162">
+    <row r="3" spans="1:7" ht="149">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2172,7 +2280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="67.5">
+    <row r="4" spans="1:7" ht="65">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2193,7 +2301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="54">
+    <row r="5" spans="1:7" ht="53">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2216,7 +2324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="94.5">
+    <row r="6" spans="1:7" ht="89">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2237,7 +2345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="54">
+    <row r="7" spans="1:7" ht="65">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2249,14 +2357,14 @@
         <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="40.5">
+    <row r="8" spans="1:7" ht="53">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2268,12 +2376,16 @@
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="40.5">
+    <row r="9" spans="1:7" ht="41">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -2285,15 +2397,19 @@
         <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2306,23 +2422,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="9" customWidth="1"/>
-    <col min="3" max="4" width="38.125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="38.1640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="40" style="9" customWidth="1"/>
     <col min="6" max="6" width="19" style="9" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="9" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="9"/>
+    <col min="9" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" ht="40.5">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2348,7 +2464,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="108">
+    <row r="4" spans="1:8" ht="53">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2365,7 +2481,7 @@
         <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>37</v>
@@ -2374,7 +2490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="54">
+    <row r="5" spans="1:8" ht="53">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2391,16 +2507,16 @@
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40.5">
+    <row r="6" spans="1:8" ht="41">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2415,14 +2531,14 @@
         <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="40.5">
+    <row r="7" spans="1:8" ht="41">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2434,9 +2550,11 @@
       <c r="E7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G7" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -2460,18 +2578,18 @@
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" spans="1:2" ht="23">
       <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27">
+    <row r="2" spans="1:2" ht="29">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2479,7 +2597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27">
+    <row r="3" spans="1:2" ht="29">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2487,7 +2605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27">
+    <row r="4" spans="1:2" ht="29">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2495,7 +2613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="54">
+    <row r="5" spans="1:2" ht="53">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2503,7 +2621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="40.5">
+    <row r="6" spans="1:2" ht="41">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2511,7 +2629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="54">
+    <row r="7" spans="1:2" ht="53">
       <c r="A7">
         <v>6</v>
       </c>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furuya-NPC\say-documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="-100" windowWidth="10440" windowHeight="7880"/>
+    <workbookView xWindow="4920" yWindow="-105" windowWidth="10440" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Business Rules" sheetId="6" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
   <si>
     <t>限定条件</t>
     <rPh sb="0" eb="2">
@@ -1734,12 +1739,633 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>利用ログを取得してメモリ上に保存できる</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>利用ログをサーバへ送信する</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ポスターリストからポスターのBookmarkを付ける</t>
+    <rPh sb="23" eb="24">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ブックマークしたポスターの一覧を表示する</t>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Save log</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Send log</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Add bookmark from poster list</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Show bookmark list</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 固有の識別ID（UID）がブラウザ上のLocal Storageに保存されている</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（備考6）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. 利用ログはブラウザ上のLocal Storageに保存される
+3. 利用ログは、keyが「UID_現在のUNIX時刻」、valueが文字列化したJSONとする
+4. 利用ログのvalueに保存するJSONには、保存するデータとタイムスタンプを記録する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（備考7）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5. 利用ログを保存する動作によって、アプリのレスポンスを遅くすることがない
+6. 利用ログは所定の動作のみによって保存される</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（検討事項４）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+7. アプリの初回起動時に、利用ログを保存する旨の確認ダイアログを表示し、同意が得られない場合は利用ログを保存しない</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="118" eb="122">
+      <t>モジレツカ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="212" eb="213">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="230" eb="232">
+      <t>ショテイ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="241" eb="243">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="261" eb="263">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="263" eb="266">
+      <t>キドウジ</t>
+    </rPh>
+    <rPh sb="268" eb="270">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="273" eb="275">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="277" eb="278">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="279" eb="281">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="287" eb="289">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="291" eb="293">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="294" eb="295">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="299" eb="301">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="302" eb="304">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="307" eb="309">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. 各ポスターについて、ブックマークスターが表示されている
+2. 各ポスターのブックマークスターをタップすると、ブックマークをトグルすることができる
+3. ブックマークされている状態では黄色の星、されていない状態では灰色の星を表示する</t>
+    <rPh sb="3" eb="4">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ハイイロ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. 全てのポスターのリストを画面遷移なしで見ることができる（スクロールはしても良い）
+2. 各ポスターについて，ID, セッションID、タイトル，発表者が表示されている
+3. 1画面で全てのポスターを表示できない場合はスクロールバーが出現し，スクロールできる
+4. 各ポスターについて、ブックマークスターがブックマークされた状態（黄色の状態）で表示されている
+5. 各ポスターのブックマークスターをタップすると、ブックマークを解除することができる
+6. ブックマークが解除されたポスターは、再度ブックマークリストを表示したときには表示されない</t>
+    <rPh sb="163" eb="165">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="258" eb="260">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="266" eb="268">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザが所定の動作をする。</t>
+    <rPh sb="4" eb="6">
+      <t>ショテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブラウザのLocal Storageに、動作の情報とタイムスタンプが記録される</t>
+    <rPh sb="20" eb="22">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現在時刻の分の下１桁が0または5になる。</t>
+    <rPh sb="0" eb="4">
+      <t>ゲンザイジコク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シモ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ネットワークに接続されている場合、サーバに利用ログを送信する</t>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ネットワークに接続されていない場合、送信を保留する</t>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>送信されたログは、Local Storageから削除する</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>1. [Save log]のビジネスルール7において同意が得られていない場合は、送信も行わない
+2. 利用ログは、現在時刻の分の下１桁が0または5のときに自動的に送信される
+3. 利用ログは、JSON形式で送信サーバの送信される
+4. 送信はPOSTで行われ、送信サーバ上にPOSTを受け取るphpスクリプトが用意されている
+5. 送信サーバ上では、phpスクリプトによってMySQL上に利用ログが保存される</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（備考8）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6. 送信されたログは、Local Storageから削除する</t>
+    </r>
+    <rPh sb="26" eb="28">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="61">
+      <t>ゲンザイジコク</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>シモ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="237" eb="239">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（備考8）MySQLで保存する形式は別ファイル参照（利用ログの形式.pptx）</t>
+    <rPh sb="11" eb="13">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">（備考6）固有の識別ID（UID）は、ランダムに生成された8桁の16進数とする。生成アルゴリズムは変更できるようにする。
+（備考7）JSONの形式は、別ファイル参照（利用ログの形式.pptx）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（検討事項4）保存する動作やタイミングは要交渉（利用ログの形式.pptx）</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シンスウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="98" eb="102">
+      <t>ケントウジコウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>ヨウコウショウ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1799,6 +2425,13 @@
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1873,7 +2506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1911,6 +2544,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2218,22 +2857,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G9"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.83203125" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="9"/>
+    <col min="1" max="1" width="4.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="72.875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="42.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.875" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -2259,7 +2898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="149">
+    <row r="3" spans="1:7" ht="162">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2280,7 +2919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="65">
+    <row r="4" spans="1:7" ht="67.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2301,7 +2940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="53">
+    <row r="5" spans="1:7" ht="54">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2324,7 +2963,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="89">
+    <row r="6" spans="1:7" ht="94.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2345,7 +2984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="65">
+    <row r="7" spans="1:7" ht="67.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2364,7 +3003,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="53">
+    <row r="8" spans="1:7" ht="54">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2385,7 +3024,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="41">
+    <row r="9" spans="1:7" ht="40.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -2405,11 +3044,83 @@
       <c r="G9" s="3" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="10" spans="1:7" ht="121.5">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="81">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="40.5">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="108">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2420,25 +3131,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H7"/>
+  <dimension ref="A3:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="9" customWidth="1"/>
-    <col min="3" max="4" width="38.1640625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="38.125" style="9" customWidth="1"/>
     <col min="5" max="5" width="40" style="9" customWidth="1"/>
     <col min="6" max="6" width="19" style="9" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="9" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="9"/>
+    <col min="9" max="9" width="15.375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="9" customWidth="1"/>
+    <col min="11" max="11" width="19.25" style="9" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="9" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:12" ht="54">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2463,8 +3178,20 @@
       <c r="H3" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="53">
+    <row r="4" spans="1:12" ht="67.5">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2489,8 +3216,16 @@
       <c r="H4" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="53">
+    <row r="5" spans="1:12" ht="54">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2515,8 +3250,16 @@
       <c r="H5" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="I5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="41">
+    <row r="6" spans="1:12" ht="40.5">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2537,8 +3280,14 @@
         <v>58</v>
       </c>
       <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="41">
+    <row r="7" spans="1:12" ht="40.5">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2557,6 +3306,12 @@
         <v>59</v>
       </c>
       <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2578,18 +3333,18 @@
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23">
+    <row r="1" spans="1:2" ht="18.75">
       <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29">
+    <row r="2" spans="1:2" ht="27">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2597,7 +3352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29">
+    <row r="3" spans="1:2" ht="27">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2605,7 +3360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29">
+    <row r="4" spans="1:2" ht="27">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2613,7 +3368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="53">
+    <row r="5" spans="1:2" ht="54">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2621,7 +3376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="41">
+    <row r="6" spans="1:2" ht="40.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2629,7 +3384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="53">
+    <row r="7" spans="1:2" ht="54">
       <c r="A7">
         <v>6</v>
       </c>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furuya-NPC\say-documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="-105" windowWidth="10440" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560"/>
   </bookViews>
   <sheets>
     <sheet name="Business Rules" sheetId="6" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
   <si>
     <t>限定条件</t>
     <rPh sb="0" eb="2">
@@ -1799,6 +1794,142 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>ユーザが所定の動作をする。</t>
+    <rPh sb="4" eb="6">
+      <t>ショテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブラウザのLocal Storageに、動作の情報とタイムスタンプが記録される</t>
+    <rPh sb="20" eb="22">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>送信されたログは、Local Storageから削除する</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">（備考6）固有の識別ID（UID）は、ランダムに生成された8桁の16進数とする。生成アルゴリズムは変更できるようにする。ここでの「固有」は端末上のブラウザごとに固有であることを指す。
+（備考7）JSONの形式は、別ファイル参照（利用ログの形式.pptx）タイムスタンプはJSON中のタイムスタンプを使用することに統一する
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（検討事項4）保存する動作やタイミングは要交渉（利用ログの形式.pptx）</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シンスウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="162" eb="166">
+      <t>ケントウジコウ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="181" eb="184">
+      <t>ヨウコウショウ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <r>
       <t>1. 固有の識別ID（UID）がブラウザ上のLocal Storageに保存されている</t>
     </r>
@@ -1824,7 +1955,7 @@
       </rPr>
       <t xml:space="preserve">
 2. 利用ログはブラウザ上のLocal Storageに保存される
-3. 利用ログは、keyが「UID_現在のUNIX時刻」、valueが文字列化したJSONとする
+3. 利用ログは、keyが「UID_イベント発生時のタイムスタンプ」、valueが文字列化したJSONとする
 4. 利用ログのvalueに保存するJSONには、保存するデータとタイムスタンプを記録する</t>
     </r>
     <r>
@@ -1848,7 +1979,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-5. 利用ログを保存する動作によって、アプリのレスポンスを遅くすることがない
+5. 利用ログを保存する処理によって、ユーザの使用感に大きな影響を及ばさない。
 6. 利用ログは所定の動作のみによって保存される</t>
     </r>
     <r>
@@ -1901,246 +2032,286 @@
     <rPh sb="86" eb="88">
       <t>リヨウ</t>
     </rPh>
-    <rPh sb="108" eb="110">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="118" eb="122">
+    <rPh sb="105" eb="108">
+      <t>ハッセイジ</t>
+    </rPh>
+    <rPh sb="124" eb="128">
       <t>モジレツカ</t>
     </rPh>
-    <rPh sb="135" eb="137">
+    <rPh sb="141" eb="143">
       <t>リヨウ</t>
     </rPh>
-    <rPh sb="146" eb="148">
+    <rPh sb="152" eb="154">
       <t>ホゾン</t>
     </rPh>
-    <rPh sb="157" eb="159">
+    <rPh sb="163" eb="165">
       <t>ホゾン</t>
     </rPh>
-    <rPh sb="173" eb="175">
+    <rPh sb="179" eb="181">
       <t>キロク</t>
     </rPh>
-    <rPh sb="178" eb="180">
+    <rPh sb="184" eb="186">
       <t>ビコウ</t>
     </rPh>
-    <rPh sb="186" eb="188">
+    <rPh sb="192" eb="194">
       <t>リヨウ</t>
     </rPh>
-    <rPh sb="191" eb="193">
+    <rPh sb="197" eb="199">
       <t>ホゾン</t>
     </rPh>
-    <rPh sb="195" eb="197">
+    <rPh sb="201" eb="203">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="212" eb="215">
+      <t>シヨウカン</t>
+    </rPh>
+    <rPh sb="216" eb="217">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="222" eb="223">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="232" eb="234">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="237" eb="239">
+      <t>ショテイ</t>
+    </rPh>
+    <rPh sb="240" eb="242">
       <t>ドウサ</t>
     </rPh>
-    <rPh sb="212" eb="213">
-      <t>オソ</t>
-    </rPh>
-    <rPh sb="225" eb="227">
+    <rPh sb="248" eb="250">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="268" eb="270">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="270" eb="273">
+      <t>キドウジ</t>
+    </rPh>
+    <rPh sb="275" eb="277">
       <t>リヨウ</t>
     </rPh>
-    <rPh sb="230" eb="232">
-      <t>ショテイ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="241" eb="243">
+    <rPh sb="280" eb="282">
       <t>ホゾン</t>
     </rPh>
-    <rPh sb="261" eb="263">
-      <t>ショカイ</t>
-    </rPh>
-    <rPh sb="263" eb="266">
-      <t>キドウジ</t>
-    </rPh>
-    <rPh sb="268" eb="270">
+    <rPh sb="284" eb="285">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="286" eb="288">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="294" eb="296">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="298" eb="300">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="301" eb="302">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="306" eb="308">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="309" eb="311">
       <t>リヨウ</t>
     </rPh>
-    <rPh sb="273" eb="275">
+    <rPh sb="314" eb="316">
       <t>ホゾン</t>
     </rPh>
-    <rPh sb="277" eb="278">
-      <t>ムネ</t>
-    </rPh>
-    <rPh sb="279" eb="281">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="287" eb="289">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="291" eb="293">
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. 同意の有無は初回時のみとし、同意の可否の変更については現段階では対応せず、次回以降のユーザストーリーにおいて検討する</t>
+    <rPh sb="3" eb="5">
       <t>ドウイ</t>
     </rPh>
-    <rPh sb="294" eb="295">
+    <rPh sb="6" eb="8">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ショカイジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ゲンダンカイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>ジカイイコウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セッション時刻に合わせて送信タイミングを制御するかどうかは次回以降のユーザストーリーにおいて検討する。</t>
+    <rPh sb="12" eb="19">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="29" eb="42">
+      <t>ジカイイコウノ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">（備考8）MySQLで保存する形式は別ファイル参照（利用ログの形式.pptx）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(検討事項5)定期的に送信する必要がある理由は、
+・リアルタイムなログデータから分析結果を得られる（</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>リアルタイムブックマーク数ランキング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>など）
+・localStorageの容量の問題
+・ネットワーク接続の問題
+などがある。
+最後に発生したログの送信タイミングは後々検討する。</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>ブンセキケッカ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
       <t>エ</t>
     </rPh>
-    <rPh sb="299" eb="301">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="302" eb="304">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="307" eb="309">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1. 各ポスターについて、ブックマークスターが表示されている
-2. 各ポスターのブックマークスターをタップすると、ブックマークをトグルすることができる
-3. ブックマークされている状態では黄色の星、されていない状態では灰色の星を表示する</t>
-    <rPh sb="3" eb="4">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>ホシ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ハイイロ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>ホシ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1. 全てのポスターのリストを画面遷移なしで見ることができる（スクロールはしても良い）
-2. 各ポスターについて，ID, セッションID、タイトル，発表者が表示されている
-3. 1画面で全てのポスターを表示できない場合はスクロールバーが出現し，スクロールできる
-4. 各ポスターについて、ブックマークスターがブックマークされた状態（黄色の状態）で表示されている
-5. 各ポスターのブックマークスターをタップすると、ブックマークを解除することができる
-6. ブックマークが解除されたポスターは、再度ブックマークリストを表示したときには表示されない</t>
-    <rPh sb="163" eb="165">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="166" eb="168">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="214" eb="216">
-      <t>カイジョ</t>
-    </rPh>
-    <rPh sb="235" eb="237">
-      <t>カイジョ</t>
-    </rPh>
-    <rPh sb="246" eb="248">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="258" eb="260">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="266" eb="268">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザが所定の動作をする。</t>
-    <rPh sb="4" eb="6">
-      <t>ショテイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ブラウザのLocal Storageに、動作の情報とタイムスタンプが記録される</t>
-    <rPh sb="20" eb="22">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>現在時刻の分の下１桁が0または5になる。</t>
-    <rPh sb="0" eb="4">
-      <t>ゲンザイジコク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>シモ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ケタ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ネットワークに接続されている場合、サーバに利用ログを送信する</t>
-    <rPh sb="7" eb="9">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="102" eb="103">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ネットワークに接続されていない場合、送信を保留する</t>
-    <rPh sb="7" eb="9">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ホリュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>送信されたログは、Local Storageから削除する</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>1. [Save log]のビジネスルール7において同意が得られていない場合は、送信も行わない
-2. 利用ログは、現在時刻の分の下１桁が0または5のときに自動的に送信される
-3. 利用ログは、JSON形式で送信サーバの送信される
+    <rPh sb="170" eb="172">
+      <t>ノチノチ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. [Save log]のビジネスルール7において同意が得られていない場合は、送信も行わない
+2. 利用ログは、最後に送信された時刻から5分以上経過していたらサーバへ送信する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（検討事項5）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. 利用ログは、JSON形式で送信サーバに送信される
 4. 送信はPOSTで行われ、送信サーバ上にPOSTを受け取るphpスクリプトが用意されている
-5. 送信サーバ上では、phpスクリプトによってMySQL上に利用ログが保存される</t>
+5. 送信サーバ上ではDB上に利用ログが保存される</t>
     </r>
     <r>
       <rPr>
@@ -2162,7 +2333,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6. 送信されたログは、Local Storageから削除する</t>
+      <t>6. ログの送信に成功した旨のレスポンスを確認した場合、Local Storage上からログを削除する。送信失敗時はログをそのまま保存しておく。</t>
     </r>
     <rPh sb="26" eb="28">
       <t>ドウイ</t>
@@ -2182,181 +2353,269 @@
     <rPh sb="51" eb="53">
       <t>リヨウ</t>
     </rPh>
-    <rPh sb="57" eb="61">
-      <t>ゲンザイジコク</t>
-    </rPh>
-    <rPh sb="62" eb="63">
+    <rPh sb="57" eb="59">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="70" eb="71">
       <t>フン</t>
     </rPh>
-    <rPh sb="64" eb="65">
-      <t>シモ</t>
+    <rPh sb="71" eb="73">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="91" eb="95">
+      <t>ケントウジコウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="211" eb="213">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="230" eb="232">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="246" eb="247">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="252" eb="254">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="257" eb="259">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="259" eb="261">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="261" eb="262">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="270" eb="272">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. 各ポスターについて、ブックマークスターが表示されている
+2. 各ポスターのブックマークスターをタップすると、ブックマーク状態を切り替えることができる
+3. ブックマークされている状態では黄色の星、されていない状態では灰色の星を表示する</t>
+    <rPh sb="3" eb="4">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジョウタイ</t>
     </rPh>
     <rPh sb="66" eb="67">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="77" eb="80">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ソウシン</t>
-    </rPh>
+      <t>キ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ハイイロ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>端末上の差異からスクロールバーが出ないことがわかっているのでスクロールバーはなくてもよい。</t>
+    <rPh sb="0" eb="3">
+      <t>タンマツジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. 全てのポスターのリストを画面遷移なしで見ることができる（スクロールはしても良い）
+2. 各ポスターについて，ID, セッションID、タイトル，発表者が表示されている
+3. 各ポスターについて、ブックマークスターがブックマークされた状態（黄色の状態）で表示されている
+4. 各ポスターのブックマークスターをタップすると、ブックマークを解除することができる
+5. ブックマークを削除すると削除したときに、そのポスターは一覧から削除される。
+6. ブックマークを削除するときに確認ダイアログを表示し、確認できたら削除する。</t>
     <rPh sb="118" eb="120">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="126" eb="127">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="250" eb="252">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="256" eb="258">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Save logを行う</t>
+    <rPh sb="9" eb="10">
       <t>オコナ</t>
     </rPh>
-    <rPh sb="130" eb="132">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="144" eb="145">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="155" eb="157">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="166" eb="168">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="171" eb="172">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="192" eb="193">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="194" eb="196">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="205" eb="207">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="213" eb="215">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="237" eb="239">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>（備考8）MySQLで保存する形式は別ファイル参照（利用ログの形式.pptx）</t>
-    <rPh sb="11" eb="13">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ケイシキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">（備考6）固有の識別ID（UID）は、ランダムに生成された8桁の16進数とする。生成アルゴリズムは変更できるようにする。
-（備考7）JSONの形式は、別ファイル参照（利用ログの形式.pptx）
-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Save log完了時にビジネスルールに</t>
     </r>
     <r>
       <rPr>
+        <u/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（検討事項4）保存する動作やタイミングは要交渉（利用ログの形式.pptx）</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シキベツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シンスウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="98" eb="102">
-      <t>ケントウジコウ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="117" eb="120">
-      <t>ヨウコウショウ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>ケイシキ</t>
+      <t>記載した送信条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を満たしていればログをサーバへ送信する。</t>
+    </r>
+    <rPh sb="8" eb="11">
+      <t>カンリョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ソウシンジョウケン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ソウシン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2365,7 +2624,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2432,6 +2691,22 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -2859,20 +3134,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="72.875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="42.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.875" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="9"/>
+    <col min="1" max="1" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="72.83203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="42.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.83203125" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -2898,7 +3173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="162">
+    <row r="3" spans="1:7" ht="149">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2919,7 +3194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="67.5">
+    <row r="4" spans="1:7" ht="65">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2940,7 +3215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="54">
+    <row r="5" spans="1:7" ht="41">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2963,7 +3238,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="94.5">
+    <row r="6" spans="1:7" ht="89">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2984,7 +3259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="67.5">
+    <row r="7" spans="1:7" ht="65">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3003,7 +3278,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="54">
+    <row r="8" spans="1:7" ht="53">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3024,7 +3299,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="40.5">
+    <row r="9" spans="1:7" ht="41">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3045,7 +3320,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="121.5">
+    <row r="10" spans="1:7" ht="125">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3057,14 +3332,16 @@
         <v>68</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="81">
+    <row r="11" spans="1:7" ht="113">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3076,14 +3353,16 @@
         <v>69</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="G11" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="40.5">
+    <row r="12" spans="1:7" ht="41">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3095,12 +3374,12 @@
         <v>70</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="108">
+    <row r="13" spans="1:7" ht="89">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3112,15 +3391,17 @@
         <v>71</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3133,27 +3414,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="H1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="9" customWidth="1"/>
-    <col min="3" max="4" width="38.125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="38.1640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="40" style="9" customWidth="1"/>
     <col min="6" max="6" width="19" style="9" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="9" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="9" customWidth="1"/>
-    <col min="11" max="11" width="19.25" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="9" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="8.875" style="9"/>
+    <col min="13" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="54">
+    <row r="3" spans="1:12" ht="29">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -3191,7 +3472,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="67.5">
+    <row r="4" spans="1:12" ht="53">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3217,15 +3498,15 @@
         <v>37</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="54">
+    <row r="5" spans="1:12" ht="65">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -3251,15 +3532,15 @@
         <v>60</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="40.5">
+    <row r="6" spans="1:12" ht="41">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3281,13 +3562,11 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="40.5">
+    <row r="7" spans="1:12" ht="41">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -3308,7 +3587,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -3333,18 +3612,18 @@
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" spans="1:2" ht="23">
       <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27">
+    <row r="2" spans="1:2" ht="29">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3352,7 +3631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27">
+    <row r="3" spans="1:2" ht="29">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3360,7 +3639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27">
+    <row r="4" spans="1:2" ht="29">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3368,7 +3647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="54">
+    <row r="5" spans="1:2" ht="53">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3376,7 +3655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="40.5">
+    <row r="6" spans="1:2" ht="41">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3384,7 +3663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="54">
+    <row r="7" spans="1:2" ht="53">
       <c r="A7">
         <v>6</v>
       </c>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furuya-NPC\say-documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15555"/>
   </bookViews>
   <sheets>
     <sheet name="Business Rules" sheetId="6" r:id="rId1"/>
@@ -1828,109 +1833,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">（備考6）固有の識別ID（UID）は、ランダムに生成された8桁の16進数とする。生成アルゴリズムは変更できるようにする。ここでの「固有」は端末上のブラウザごとに固有であることを指す。
-（備考7）JSONの形式は、別ファイル参照（利用ログの形式.pptx）タイムスタンプはJSON中のタイムスタンプを使用することに統一する
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（検討事項4）保存する動作やタイミングは要交渉（利用ログの形式.pptx）</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シキベツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シンスウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>タンマツ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>トウイツ</t>
-    </rPh>
-    <rPh sb="162" eb="166">
-      <t>ケントウジコウ</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="181" eb="184">
-      <t>ヨウコウショウ</t>
-    </rPh>
-    <rPh sb="185" eb="187">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="190" eb="192">
-      <t>ケイシキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
       <t>1. 固有の識別ID（UID）がブラウザ上のLocal Storageに保存されている</t>
     </r>
     <r>
@@ -2619,12 +2521,109 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">（備考6）固有の識別ID（UID）は、生成時のUNIX時刻をMD5ハッシュ値にしたものとする。ここでの「固有」は端末上のブラウザごとに固有であることを指す。
+（備考7）JSONの形式は、別ファイル参照（利用ログの形式.pptx）タイムスタンプはJSON中のタイムスタンプを使用することに統一する
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（検討事項4）保存する動作やタイミングは要交渉（利用ログの形式.pptx）</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>セイセイジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="149" eb="153">
+      <t>ケントウジコウ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="168" eb="171">
+      <t>ヨウコウショウ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3134,20 +3133,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E9" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="72.83203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="42.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.83203125" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="9"/>
+    <col min="1" max="1" width="4.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="72.875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="42.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.875" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -3173,7 +3172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="149">
+    <row r="3" spans="1:7" ht="162">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3194,7 +3193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="65">
+    <row r="4" spans="1:7" ht="67.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="41">
+    <row r="5" spans="1:7" ht="54">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -3238,7 +3237,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="89">
+    <row r="6" spans="1:7" ht="94.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3259,7 +3258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="65">
+    <row r="7" spans="1:7" ht="67.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3278,7 +3277,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="53">
+    <row r="8" spans="1:7" ht="54">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3299,7 +3298,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="41">
+    <row r="9" spans="1:7" ht="40.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3320,7 +3319,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="125">
+    <row r="10" spans="1:7" ht="135">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3332,16 +3331,16 @@
         <v>68</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="113">
+    <row r="11" spans="1:7" ht="121.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3353,16 +3352,16 @@
         <v>69</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>83</v>
-      </c>
     </row>
-    <row r="12" spans="1:7" ht="41">
+    <row r="12" spans="1:7" ht="40.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3374,12 +3373,12 @@
         <v>70</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="89">
+    <row r="13" spans="1:7" ht="94.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3391,17 +3390,17 @@
         <v>71</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3418,23 +3417,23 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="9" customWidth="1"/>
-    <col min="3" max="4" width="38.1640625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="38.125" style="9" customWidth="1"/>
     <col min="5" max="5" width="40" style="9" customWidth="1"/>
     <col min="6" max="6" width="19" style="9" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="9" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="19.125" style="9" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="13" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="29">
+    <row r="3" spans="1:12" ht="27">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -3472,7 +3471,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="53">
+    <row r="4" spans="1:12" ht="54">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3501,12 +3500,12 @@
         <v>76</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="65">
+    <row r="5" spans="1:12" ht="67.5">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -3535,12 +3534,12 @@
         <v>77</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="41">
+    <row r="6" spans="1:12" ht="40.5">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3566,7 +3565,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="41">
+    <row r="7" spans="1:12" ht="40.5">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -3612,18 +3611,18 @@
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23">
+    <row r="1" spans="1:2" ht="18.75">
       <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29">
+    <row r="2" spans="1:2" ht="27">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3631,7 +3630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29">
+    <row r="3" spans="1:2" ht="27">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3639,7 +3638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29">
+    <row r="4" spans="1:2" ht="27">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3647,7 +3646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="53">
+    <row r="5" spans="1:2" ht="54">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3655,7 +3654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="41">
+    <row r="6" spans="1:2" ht="40.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3663,7 +3662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="53">
+    <row r="7" spans="1:2" ht="54">
       <c r="A7">
         <v>6</v>
       </c>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furuya-NPC\say-documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Business Rules" sheetId="6" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
   <si>
     <t>限定条件</t>
     <rPh sb="0" eb="2">
@@ -2618,12 +2613,160 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>ポスターリストへ遷移する</t>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ポスターに対応するリスト中の行にあるグレーの星マークをタップする</t>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ホシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>星マークの色が変わり、対応するポスターがブックマークとして登録される</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>もう一度星をタップするとブックマークから削除される</t>
+    <rPh sb="2" eb="4">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブックマークとして登録された状態でマップ画面へ遷移するとそのポスターに対応するポスターアイコンにブックマーク登録済みを示す星マークが表示される。</t>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>トウロクズ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録されていないと表マップ上のポスターアイコンに示されない。</t>
+    <rPh sb="13" eb="14">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブックマークリスト画面に遷移する</t>
+    <rPh sb="9" eb="12">
+      <t>ガメンイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>すでにブックマークしたポスターの一覧が表示される</t>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ポスターの一覧の形式はView Poster Listに準ずる</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ポスターに対応する黄色の星マークをタップするとブックマークから削除され、リストから即座に削除される</t>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソクザ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3133,20 +3276,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView topLeftCell="E9" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="72.875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="42.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.875" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="9"/>
+    <col min="1" max="1" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="72.83203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="42.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.83203125" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -3172,7 +3315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="162">
+    <row r="3" spans="1:7" ht="149">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3193,7 +3336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="67.5">
+    <row r="4" spans="1:7" ht="65">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3214,7 +3357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="54">
+    <row r="5" spans="1:7" ht="41">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -3237,7 +3380,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="94.5">
+    <row r="6" spans="1:7" ht="89">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3258,7 +3401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="67.5">
+    <row r="7" spans="1:7" ht="65">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3277,7 +3420,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="54">
+    <row r="8" spans="1:7" ht="53">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3298,7 +3441,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="40.5">
+    <row r="9" spans="1:7" ht="41">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3319,7 +3462,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="135">
+    <row r="10" spans="1:7" ht="125">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3340,7 +3483,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="121.5">
+    <row r="11" spans="1:7" ht="113">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3361,7 +3504,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="40.5">
+    <row r="12" spans="1:7" ht="41">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3378,7 +3521,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="94.5">
+    <row r="13" spans="1:7" ht="89">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3400,7 +3543,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3411,29 +3554,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L7"/>
+  <dimension ref="A3:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="K6" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="9" customWidth="1"/>
-    <col min="3" max="4" width="38.125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="38.1640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="40" style="9" customWidth="1"/>
     <col min="6" max="6" width="19" style="9" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="9" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="19.125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="8.875" style="9"/>
+    <col min="9" max="9" width="15.33203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="28.5" style="9" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" style="9" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="27">
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -3471,7 +3614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="54">
+    <row r="4" spans="1:12" ht="53">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3502,10 +3645,14 @@
       <c r="J4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="67.5">
+    <row r="5" spans="1:12" ht="65">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -3536,10 +3683,14 @@
       <c r="J5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="40.5">
+    <row r="6" spans="1:12" ht="41">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3562,10 +3713,14 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="40.5">
+    <row r="7" spans="1:12" ht="53">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -3588,8 +3743,22 @@
       <c r="J7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="67" customHeight="1">
+      <c r="K8" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="29">
+      <c r="K9" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3611,18 +3780,18 @@
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" spans="1:2" ht="23">
       <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27">
+    <row r="2" spans="1:2" ht="29">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3630,7 +3799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27">
+    <row r="3" spans="1:2" ht="29">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3638,7 +3807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27">
+    <row r="4" spans="1:2" ht="29">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3646,7 +3815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="54">
+    <row r="5" spans="1:2" ht="53">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3654,7 +3823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="40.5">
+    <row r="6" spans="1:2" ht="41">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3662,7 +3831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="54">
+    <row r="7" spans="1:2" ht="53">
       <c r="A7">
         <v>6</v>
       </c>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
   <si>
     <t>限定条件</t>
     <rPh sb="0" eb="2">
@@ -1817,16 +1817,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>送信されたログは、Local Storageから削除する</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <r>
       <t>1. 固有の識別ID（UID）がブラウザ上のLocal Storageに保存されている</t>
     </r>
@@ -2467,56 +2457,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Save logを行う</t>
-    <rPh sb="9" eb="10">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>Save log完了時にビジネスルールに</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>記載した送信条件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>を満たしていればログをサーバへ送信する。</t>
-    </r>
-    <rPh sb="8" eb="11">
-      <t>カンリョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="24" eb="28">
-      <t>ソウシンジョウケン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">（備考6）固有の識別ID（UID）は、生成時のUNIX時刻をMD5ハッシュ値にしたものとする。ここでの「固有」は端末上のブラウザごとに固有であることを指す。
 （備考7）JSONの形式は、別ファイル参照（利用ログの形式.pptx）タイムスタンプはJSON中のタイムスタンプを使用することに統一する
@@ -2761,12 +2701,201 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>初回起動時にログ送信の同意を取る。合意がとれなければログをこれ以降取らない。とれた場合以下のフローに進む。</t>
+    <rPh sb="0" eb="5">
+      <t>ショカイキドウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>同意した時刻から5分たった後の最初のSave logになったらサーバへ送信していなかったログをサーバへ送信することを試みる。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウイジコク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ココロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サーバへ送信し、アクセス成功のレスポンスを受ければ保存完了とみなし、保存していたlocalStorage内の送信済みのログを削除する。</t>
+    <rPh sb="4" eb="6">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ホゾンカンリョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サーバへ送信後、アクセスに失敗した際のレスポンスを受けた場合、保存に失敗したとみなしてそのままログをlocalStorageに残しておく。</t>
+    <rPh sb="4" eb="7">
+      <t>ソウシンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サーバへ送信後、アクセス成功レスポンスを受け取った場合、その瞬間を最後に送信を行った時刻してタイムスタンプを保存しておく</t>
+    <rPh sb="4" eb="7">
+      <t>ソウシンゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>これ以降、最後に送信を行った時刻から5分以上経過してから初めてSave logを行った場合、フロー2,3,4,5の処理を行う。</t>
+    <rPh sb="2" eb="4">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>フンイジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2847,8 +2976,18 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -2915,11 +3054,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2970,8 +3133,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="10">
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3474,13 +3645,13 @@
         <v>68</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="113">
@@ -3495,13 +3666,13 @@
         <v>69</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="41">
@@ -3516,7 +3687,7 @@
         <v>70</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3533,10 +3704,10 @@
         <v>71</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -3556,8 +3727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K6" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -3570,7 +3741,7 @@
     <col min="7" max="7" width="29.5" style="9" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="9" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="37.83203125" style="9" customWidth="1"/>
     <col min="11" max="11" width="28.5" style="9" customWidth="1"/>
     <col min="12" max="12" width="24.6640625" style="9" customWidth="1"/>
     <col min="13" max="16384" width="8.83203125" style="9"/>
@@ -3643,16 +3814,16 @@
         <v>76</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="65">
+    <row r="5" spans="1:12" ht="53">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -3680,14 +3851,14 @@
       <c r="I5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L5" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="41">
@@ -3712,12 +3883,14 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="K6" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="53">
@@ -3740,24 +3913,30 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>78</v>
+      <c r="J7" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="67" customHeight="1">
+      <c r="J8" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="K8" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="29">
+    <row r="9" spans="1:12" ht="41">
+      <c r="J9" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="K9" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -2640,13 +2640,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>登録されていないと表マップ上のポスターアイコンに示されない。</t>
-    <rPh sb="13" eb="14">
-      <t>ジョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ブックマークリスト画面に遷移する</t>
     <rPh sb="9" eb="12">
       <t>ガメンイ</t>
@@ -2887,6 +2880,16 @@
     </rPh>
     <rPh sb="60" eb="61">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録されていないとマップ上のポスターアイコンに表示されない。</t>
+    <rPh sb="12" eb="13">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アラワ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3447,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="E10" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -3727,8 +3730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -3814,13 +3817,13 @@
         <v>76</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>87</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="53">
@@ -3852,13 +3855,13 @@
         <v>77</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>88</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="41">
@@ -3884,13 +3887,13 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>89</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="53">
@@ -3914,18 +3917,18 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>90</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="67" customHeight="1">
       <c r="J8" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>91</v>
@@ -3933,10 +3936,10 @@
     </row>
     <row r="9" spans="1:12" ht="41">
       <c r="J9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" activeTab="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="124">
   <si>
     <t>限定条件</t>
     <rPh sb="0" eb="2">
@@ -2890,6 +2890,363 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ポスターマップ画面へ遷移する</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Keyword search in postermapに準拠する</t>
+    <rPh sb="28" eb="30">
+      <t>ジュンキョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Search posters by all words</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Search posters by all words</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ポスターMapでいろいろな条件で検索する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. ユーザーストーリー"Keyword search in postermap"のルールを満たしている
+2. 検索に該当する条件が、「すべての情報（ポスターID, セッションID, タイトル, 著者, 発表者, 概要, キーワード）のいずれかと検索キーワードが部分一致するポスター」（検討事項1）である。</t>
+    <rPh sb="46" eb="47">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>チョシャ</t>
+    </rPh>
+    <rPh sb="102" eb="105">
+      <t>ハッピョウシャ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="131" eb="135">
+      <t>ブブンイッチ</t>
+    </rPh>
+    <rPh sb="143" eb="147">
+      <t>ケントウジコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(検討事項1)情報の検索で走査する範囲はすべてで良いか</t>
+    <rPh sb="1" eb="3">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Show Session-Table</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セッションテーブルを表示する</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Zoom on Area by Tap</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エリアをタップしてズームする</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. タブバーに「プログラム」というボタンが存在する
+2. プログラム画面はセッション単位でポスター（口頭発表 ）が分けられていて、タイトルバーにあるボタンをタップすることで要素が開閉し、そのセッション中のポスターが展開されたり格納されたりする。
+3. セッションはセッション順（A1,B1,…,F1,A2,B2,… F2,A3,...）で並んでいて、セッション内のポスターは発表順で並んでいる。
+4. セッションタイトルから展開されたポスターのリストは既存のポスターリスト画面の表示に準ずる</t>
+    <rPh sb="22" eb="24">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="51" eb="55">
+      <t>コウトウハッピョウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>カイヘイ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="188" eb="191">
+      <t>ハッピョウジュン</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="227" eb="229">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="237" eb="239">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="240" eb="242">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="243" eb="244">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検討事項1: ポスターリストとはどこが違うのか</t>
+    <rPh sb="0" eb="4">
+      <t>ケントウジコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ズームしている状態から他のエリアに移動することは次回以降のユーザーストーリーにおいて検討する</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ジカイイコウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. ポスターマップ画面の一部を覆うように4つのエリアが表示されている。
+2. エリアは長方形で、4つそれぞれ異なる背景色を持つ。
+3. エリアを表す図形は、透過していてそのままポスターアイコンを見ることができる
+4. エリアをタップするとそのエリアに合わせてズームする。
+5. ズーム前は、ポスターアイコンをタップしても反応しない。エリアにのみ反応する。
+6. ズーム後はポスターアイコンをタップすることができ、ズーム前の状態に戻ることができる。</t>
+    <rPh sb="10" eb="21">
+      <t>ガメンイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>チョウホウケイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ズケイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>ハンノウ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>ハンノウ</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="210" eb="211">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プログラム画面へ遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セッションタイトルを示すバーが並んでいる</t>
+    <rPh sb="10" eb="11">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>バーの横にある"+" ボタンをタップするとそのセッション中のポスターの一覧が展開され、ボタンが”-”になる。</t>
+    <rPh sb="3" eb="4">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>バーの横にある"-" ボタンをタップするとそのセッション中のポスターの一覧が格納され、ボタンが"+”になる。</t>
+    <rPh sb="3" eb="4">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マップ上の半透明な四角いエリアをタップするとそのエリアにあわせてズームする</t>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ハントウメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ズーム後に「戻る」を押すとズーム状態から元に戻る</t>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3057,11 +3414,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3136,16 +3499,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="12">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3448,21 +3813,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G13"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="9" customWidth="1"/>
     <col min="4" max="4" width="47.1640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="72.83203125" style="9" customWidth="1"/>
     <col min="6" max="6" width="42.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="28" style="9" customWidth="1"/>
     <col min="8" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
@@ -3713,6 +4078,63 @@
         <v>84</v>
       </c>
       <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="53">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="101">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="77">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3728,10 +4150,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L9"/>
+  <dimension ref="A3:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="N2" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -3747,10 +4169,13 @@
     <col min="10" max="10" width="37.83203125" style="9" customWidth="1"/>
     <col min="11" max="11" width="28.5" style="9" customWidth="1"/>
     <col min="12" max="12" width="24.6640625" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="13" max="13" width="32.83203125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="36" style="9" customWidth="1"/>
+    <col min="15" max="15" width="29.1640625" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:32">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -3787,8 +4212,34 @@
       <c r="L3" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="M3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="53">
+    <row r="4" spans="1:32" ht="53">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3825,8 +4276,34 @@
       <c r="L4" s="3" t="s">
         <v>92</v>
       </c>
+      <c r="M4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="53">
+    <row r="5" spans="1:32" ht="53">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -3863,8 +4340,32 @@
       <c r="L5" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="41">
+    <row r="6" spans="1:32" ht="41">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3895,8 +4396,32 @@
       <c r="L6" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="53">
+    <row r="7" spans="1:32" ht="53">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -3925,8 +4450,30 @@
       <c r="L7" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="67" customHeight="1">
+    <row r="8" spans="1:32" ht="67" customHeight="1">
       <c r="J8" s="9" t="s">
         <v>100</v>
       </c>
@@ -3934,7 +4481,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="41">
+    <row r="9" spans="1:32" ht="41">
       <c r="J9" s="9" t="s">
         <v>101</v>
       </c>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" activeTab="1"/>
+    <workbookView xWindow="-25580" yWindow="0" windowWidth="25600" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Business Rules" sheetId="6" r:id="rId1"/>
@@ -20,8 +20,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>chiemi</author>
+  </authors>
+  <commentList>
+    <comment ref="G14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>ポスターIDは入れなくて良い</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="127">
   <si>
     <t>限定条件</t>
     <rPh sb="0" eb="2">
@@ -2923,69 +2948,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1. ユーザーストーリー"Keyword search in postermap"のルールを満たしている
-2. 検索に該当する条件が、「すべての情報（ポスターID, セッションID, タイトル, 著者, 発表者, 概要, キーワード）のいずれかと検索キーワードが部分一致するポスター」（検討事項1）である。</t>
-    <rPh sb="46" eb="47">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>チョシャ</t>
-    </rPh>
-    <rPh sb="102" eb="105">
-      <t>ハッピョウシャ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="131" eb="135">
-      <t>ブブンイッチ</t>
-    </rPh>
-    <rPh sb="143" eb="147">
-      <t>ケントウジコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(検討事項1)情報の検索で走査する範囲はすべてで良いか</t>
-    <rPh sb="1" eb="3">
-      <t>ケントウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Show Session-Table</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -3002,83 +2964,6 @@
   </si>
   <si>
     <t>エリアをタップしてズームする</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1. タブバーに「プログラム」というボタンが存在する
-2. プログラム画面はセッション単位でポスター（口頭発表 ）が分けられていて、タイトルバーにあるボタンをタップすることで要素が開閉し、そのセッション中のポスターが展開されたり格納されたりする。
-3. セッションはセッション順（A1,B1,…,F1,A2,B2,… F2,A3,...）で並んでいて、セッション内のポスターは発表順で並んでいる。
-4. セッションタイトルから展開されたポスターのリストは既存のポスターリスト画面の表示に準ずる</t>
-    <rPh sb="22" eb="24">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="51" eb="55">
-      <t>コウトウハッピョウ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>カイヘイ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>テンカイ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="170" eb="171">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="181" eb="182">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="188" eb="191">
-      <t>ハッピョウジュン</t>
-    </rPh>
-    <rPh sb="192" eb="193">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="213" eb="215">
-      <t>テンカイ</t>
-    </rPh>
-    <rPh sb="227" eb="229">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="237" eb="239">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="240" eb="242">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="243" eb="244">
-      <t>ジュン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>検討事項1: ポスターリストとはどこが違うのか</t>
-    <rPh sb="0" eb="4">
-      <t>ケントウジコウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>チガ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -3250,12 +3135,432 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>　　</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>1. DEIMのホームページでは「セッション表」という言葉が使われているので、セッション表のほうが良いかも。
+２．セッションテーブルはあくまでセッション名だけで、それぞれのセッション名をタップすると該当するポスターリストにジャンプするようにしてください。（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>もし開閉式にするのだったらポスターリストを変更すればよいので、わざわざ二つ作る必要はない。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <rPh sb="76" eb="77">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>カイヘイ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">検討事項1: ポスターリストとはどこが違うのか
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>検討事項２：デザイン案を参照（Dropbox:DEIM2015/セッションテーブルデザイン案.pptx）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <rPh sb="0" eb="4">
+      <t>ケントウジコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. ユーザーストーリー"Keyword search in postermap"のルールを満たしている
+2. 検索に該当する条件が、「発表番号, タイトル, 著者, 発表者, 概要, キーワードのいずれかと検索キーワードが部分一致するポスター」（検討事項1）である。
+3. ポスターマップ上で検索するので、ポスターが存在するものだけでよい（口頭発表のみの場合は該当しない）</t>
+    <rPh sb="46" eb="47">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="68" eb="72">
+      <t>ハッピョウバンゴウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>チョシャ</t>
+    </rPh>
+    <rPh sb="84" eb="87">
+      <t>ハッピョウシャ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="112" eb="116">
+      <t>ブブンイッチ</t>
+    </rPh>
+    <rPh sb="124" eb="128">
+      <t>ケントウジコウ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="171" eb="175">
+      <t>コウトウハッピョウ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1日目分だけでよい
+日付切り替え実装後にまた変更する
+「今表示されている日のポスターで該当するもの」に変更</t>
+    <rPh sb="1" eb="3">
+      <t>ニチメ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ジッソウゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>イマヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面上の表記はDEIM2015のページの表記に合わせる。2015のページが確定したら変更することもある。</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>1. タブバーに「プログラム」というボタンが存在する
+2. プログラム画面はセッション単位で発表が分けられていて、タイトルバーにあるボタンをタップすることで要素が開閉し、そのセッション中の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>発表リスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が展開されたり格納されたりする。
+3. セッションはセッション順（A1,B1,…,F1,A2,B2,… F2,A3,...）で並んでいて、</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>セッション内のポスターは発表順で並んでいる。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>セッション表の書き方は、基本的にhttp://db-event.jpn.org/deim2014/?%E3%82%BB%E3%83%83%E3%82%B7%E3%83%A7%E3%83%B3%E8%A1%A8,10 をベースにし、スマートフォンに対応したレイアウトにする。
+4. セッションテーブルは１日目，２日目，３日目の３日分のテーブルがあり，日付をタップすると切り替えられるようにする。（検討事項２）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>セッションタイトルから展開されたポスターのリストは既存のポスターリスト画面の表示に準ずる</t>
+    </r>
+    <rPh sb="22" eb="24">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウトウハッピョウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>カイヘイ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="180" eb="183">
+      <t>ハッピョウジュン</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="314" eb="316">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="342" eb="343">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="343" eb="344">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="346" eb="347">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="347" eb="348">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="350" eb="351">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="351" eb="352">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="354" eb="356">
+      <t>ニチブン</t>
+    </rPh>
+    <rPh sb="365" eb="367">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="374" eb="375">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="376" eb="377">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="388" eb="390">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="390" eb="392">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="409" eb="411">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="423" eb="425">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="433" eb="435">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="436" eb="438">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="439" eb="440">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3346,6 +3651,32 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -3452,7 +3783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3496,6 +3827,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3812,11 +4149,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C16"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -3828,10 +4165,11 @@
     <col min="5" max="5" width="72.83203125" style="9" customWidth="1"/>
     <col min="6" max="6" width="42.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="9"/>
+    <col min="8" max="8" width="42.83203125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3854,7 +4192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="149">
+    <row r="3" spans="1:8" ht="149">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3875,7 +4213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="65">
+    <row r="4" spans="1:8" ht="65">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3896,7 +4234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="41">
+    <row r="5" spans="1:8" ht="41">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -3919,7 +4257,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="89">
+    <row r="6" spans="1:8" ht="113">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3940,7 +4278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="65">
+    <row r="7" spans="1:8" ht="65">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3959,7 +4297,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="53">
+    <row r="8" spans="1:8" ht="53">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3980,7 +4318,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="41">
+    <row r="9" spans="1:8" ht="41">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4001,7 +4339,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="125">
+    <row r="10" spans="1:8" ht="149">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4022,7 +4360,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="113">
+    <row r="11" spans="1:8" ht="161">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4043,7 +4381,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="41">
+    <row r="12" spans="1:8" ht="41">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4060,7 +4398,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="89">
+    <row r="13" spans="1:8" ht="89">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4079,7 +4417,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="53">
+    <row r="14" spans="1:8" ht="65">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4091,48 +4429,56 @@
         <v>107</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>109</v>
+        <v>123</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="101">
+    <row r="15" spans="1:8" ht="137">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="G15" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="77">
+    <row r="16" spans="1:8" ht="77">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="G16" s="3"/>
     </row>
@@ -4140,6 +4486,7 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4152,8 +4499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N2" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="M1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -4216,10 +4563,10 @@
         <v>105</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -4280,7 +4627,7 @@
         <v>104</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>103</v>
@@ -4341,11 +4688,11 @@
         <v>93</v>
       </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
-        <v>119</v>
+      <c r="N5" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -4397,11 +4744,11 @@
         <v>94</v>
       </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="3" t="s">
-        <v>120</v>
+      <c r="N6" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -4451,8 +4798,8 @@
         <v>95</v>
       </c>
       <c r="M7" s="3"/>
-      <c r="N7" s="3" t="s">
-        <v>121</v>
+      <c r="N7" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25580" yWindow="0" windowWidth="25600" windowHeight="17560"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Business Rules" sheetId="6" r:id="rId1"/>
@@ -4152,8 +4152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Altairzym\Documents\say-document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="17560"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="25605" windowHeight="17565"/>
   </bookViews>
   <sheets>
     <sheet name="Business Rules" sheetId="6" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <author>chiemi</author>
   </authors>
   <commentList>
-    <comment ref="G14" authorId="0">
+    <comment ref="G14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2109,6 +2114,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -3196,20 +3202,135 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">検討事項1: ポスターリストとはどこが違うのか
-</t>
-    </r>
+    <t>1. ユーザーストーリー"Keyword search in postermap"のルールを満たしている
+2. 検索に該当する条件が、「発表番号, タイトル, 著者, 発表者, 概要, キーワードのいずれかと検索キーワードが部分一致するポスター」（検討事項1）である。
+3. ポスターマップ上で検索するので、ポスターが存在するものだけでよい（口頭発表のみの場合は該当しない）</t>
+    <rPh sb="46" eb="47">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="68" eb="72">
+      <t>ハッピョウバンゴウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>チョシャ</t>
+    </rPh>
+    <rPh sb="84" eb="87">
+      <t>ハッピョウシャ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="112" eb="116">
+      <t>ブブンイッチ</t>
+    </rPh>
+    <rPh sb="124" eb="128">
+      <t>ケントウジコウ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="171" eb="175">
+      <t>コウトウハッピョウ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1日目分だけでよい
+日付切り替え実装後にまた変更する
+「今表示されている日のポスターで該当するもの」に変更</t>
+    <rPh sb="1" eb="3">
+      <t>ニチメ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ジッソウゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>イマヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面上の表記はDEIM2015のページの表記に合わせる。2015のページが確定したら変更することもある。</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <r>
       <rPr>
+        <strike/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>検討事項２：デザイン案を参照（Dropbox:DEIM2015/セッションテーブルデザイン案.pptx）</t>
+      <t>検討事項1: ポスターリストとはどこが違うのか</t>
     </r>
     <r>
       <rPr>
@@ -3223,152 +3344,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <rPh sb="0" eb="4">
-      <t>ケントウジコウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ケントウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジコウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>アン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>アン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1. ユーザーストーリー"Keyword search in postermap"のルールを満たしている
-2. 検索に該当する条件が、「発表番号, タイトル, 著者, 発表者, 概要, キーワードのいずれかと検索キーワードが部分一致するポスター」（検討事項1）である。
-3. ポスターマップ上で検索するので、ポスターが存在するものだけでよい（口頭発表のみの場合は該当しない）</t>
-    <rPh sb="46" eb="47">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="68" eb="72">
-      <t>ハッピョウバンゴウ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>チョシャ</t>
-    </rPh>
-    <rPh sb="84" eb="87">
-      <t>ハッピョウシャ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="112" eb="116">
-      <t>ブブンイッチ</t>
-    </rPh>
-    <rPh sb="124" eb="128">
-      <t>ケントウジコウ</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="159" eb="161">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="171" eb="175">
-      <t>コウトウハッピョウ</t>
-    </rPh>
-    <rPh sb="178" eb="180">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="181" eb="183">
-      <t>ガイトウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1日目分だけでよい
-日付切り替え実装後にまた変更する
-「今表示されている日のポスターで該当するもの」に変更</t>
-    <rPh sb="1" eb="3">
-      <t>ニチメ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ジッソウゴ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>イマヒョウジ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>画面上の表記はDEIM2015のページの表記に合わせる。2015のページが確定したら変更することもある。</t>
-    <rPh sb="0" eb="3">
-      <t>ガメンジョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>1. タブバーに「プログラム」というボタンが存在する
-2. プログラム画面はセッション単位で発表が分けられていて、タイトルバーにあるボタンをタップすることで要素が開閉し、そのセッション中の</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3378,54 +3353,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>発表リスト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>が展開されたり格納されたりする。
-3. セッションはセッション順（A1,B1,…,F1,A2,B2,… F2,A3,...）で並んでいて、</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>セッション内のポスターは発表順で並んでいる。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>セッション表の書き方は、基本的にhttp://db-event.jpn.org/deim2014/?%E3%82%BB%E3%83%83%E3%82%B7%E3%83%A7%E3%83%B3%E8%A1%A8,10 をベースにし、スマートフォンに対応したレイアウトにする。
-4. セッションテーブルは１日目，２日目，３日目の３日分のテーブルがあり，日付をタップすると切り替えられるようにする。（検討事項２）</t>
+      <t>検討事項２：デザイン案を参照（Dropbox:DEIM2015/セッションテーブルデザイン案.pptx）</t>
     </r>
     <r>
       <rPr>
@@ -3437,19 +3365,48 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-4. </t>
+</t>
+    </r>
+    <rPh sb="0" eb="4">
+      <t>ケントウジコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>1. タブバーに「プログラム」というボタンが存在する
+2. プログラム画面はセッション単位で発表が分けられている。
+3. セッションはセッション順（A1,B1,…,F1,A2,B2,… F2,A3,...）で並んでいて、</t>
     </r>
     <r>
       <rPr>
-        <strike/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>セッションタイトルから展開されたポスターのリストは既存のポスターリスト画面の表示に準ずる</t>
+      <t>セッション表の書き方は、基本的にDEIM２０１４のセッション表をベースにし、スマートフォンに対応したレイアウトにする（検討事項２）。
+4. セッションテーブルは１日目，２日目，３日目の３日分のテーブルがあり，日付をタップすると切り替えられるようにする。（検討事項２）
+５．セッション名をタップすると、発表リストページに遷移し、そのセッションの最初の発表にスクロールされる</t>
     </r>
     <rPh sb="22" eb="24">
       <t>ソンザイ</t>
@@ -3466,92 +3423,74 @@
     <rPh sb="49" eb="50">
       <t>ワ</t>
     </rPh>
-    <rPh sb="78" eb="80">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>カイヘイ</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
+    <rPh sb="72" eb="73">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="195" eb="196">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="200" eb="201">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>ニチブン</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="223" eb="224">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="225" eb="226">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="237" eb="239">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="251" eb="252">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="260" eb="262">
       <t>ハッピョウ</t>
     </rPh>
-    <rPh sb="100" eb="102">
-      <t>テンカイ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="162" eb="163">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="173" eb="174">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="180" eb="183">
-      <t>ハッピョウジュン</t>
-    </rPh>
-    <rPh sb="184" eb="185">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="314" eb="316">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="342" eb="343">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="343" eb="344">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="346" eb="347">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="347" eb="348">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="350" eb="351">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="351" eb="352">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="354" eb="356">
-      <t>ニチブン</t>
-    </rPh>
-    <rPh sb="365" eb="367">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="374" eb="375">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="376" eb="377">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="388" eb="390">
-      <t>ケントウ</t>
-    </rPh>
-    <rPh sb="390" eb="392">
-      <t>ジコウ</t>
-    </rPh>
-    <rPh sb="409" eb="411">
-      <t>テンカイ</t>
-    </rPh>
-    <rPh sb="423" eb="425">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="433" eb="435">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="436" eb="438">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="439" eb="440">
-      <t>ジュン</t>
+    <rPh sb="269" eb="271">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="281" eb="283">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="284" eb="286">
+      <t>ハッピョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3635,6 +3574,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -4152,24 +4092,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="9" customWidth="1"/>
-    <col min="4" max="4" width="47.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="72.83203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="42.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="72.875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="42.125" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" style="9" customWidth="1"/>
-    <col min="8" max="8" width="42.83203125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="9"/>
+    <col min="8" max="8" width="42.875" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4192,7 +4132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="149">
+    <row r="3" spans="1:8" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4213,7 +4153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="65">
+    <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4234,7 +4174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="41">
+    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -4257,7 +4197,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="113">
+    <row r="6" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4278,7 +4218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="65">
+    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4297,7 +4237,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="53">
+    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4318,7 +4258,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="41">
+    <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4339,7 +4279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="149">
+    <row r="10" spans="1:8" ht="162" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4360,7 +4300,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="161">
+    <row r="11" spans="1:8" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4381,7 +4321,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="41">
+    <row r="12" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4398,7 +4338,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="89">
+    <row r="13" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4417,7 +4357,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="65">
+    <row r="14" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4429,17 +4369,17 @@
         <v>107</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="137">
+    <row r="15" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4454,16 +4394,16 @@
         <v>126</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="77">
+    <row r="16" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4503,26 +4443,26 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="9" customWidth="1"/>
-    <col min="3" max="4" width="38.1640625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="38.125" style="9" customWidth="1"/>
     <col min="5" max="5" width="40" style="9" customWidth="1"/>
     <col min="6" max="6" width="19" style="9" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="9" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="37.83203125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="37.875" style="9" customWidth="1"/>
     <col min="11" max="11" width="28.5" style="9" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="24.625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="32.875" style="9" customWidth="1"/>
     <col min="14" max="14" width="36" style="9" customWidth="1"/>
-    <col min="15" max="15" width="29.1640625" style="9" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="9"/>
+    <col min="15" max="15" width="29.125" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -4586,7 +4526,7 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:32" ht="53">
+    <row r="4" spans="1:32" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4650,7 +4590,7 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" ht="53">
+    <row r="5" spans="1:32" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -4712,7 +4652,7 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" ht="41">
+    <row r="6" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -4768,7 +4708,7 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:32" ht="53">
+    <row r="7" spans="1:32" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -4820,7 +4760,7 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:32" ht="67" customHeight="1">
+    <row r="8" spans="1:32" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J8" s="9" t="s">
         <v>100</v>
       </c>
@@ -4828,7 +4768,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="41">
+    <row r="9" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
       <c r="J9" s="9" t="s">
         <v>101</v>
       </c>
@@ -4856,18 +4796,18 @@
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29">
+    <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4875,7 +4815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29">
+    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4883,7 +4823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29">
+    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4891,7 +4831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="53">
+    <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4899,7 +4839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="41">
+    <row r="6" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4907,7 +4847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="53">
+    <row r="7" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Business flows" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4093,7 +4093,7 @@
   <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E14" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4379,7 +4379,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>13</v>
       </c>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Altairzym\Documents\say-document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="25605" windowHeight="17565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31920" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Business Rules" sheetId="6" r:id="rId1"/>
     <sheet name="Business flows" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +26,7 @@
     <author>chiemi</author>
   </authors>
   <commentList>
-    <comment ref="G14" authorId="0" shapeId="0">
+    <comment ref="G14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="131">
   <si>
     <t>限定条件</t>
     <rPh sb="0" eb="2">
@@ -2992,69 +2987,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1. ポスターマップ画面の一部を覆うように4つのエリアが表示されている。
-2. エリアは長方形で、4つそれぞれ異なる背景色を持つ。
-3. エリアを表す図形は、透過していてそのままポスターアイコンを見ることができる
-4. エリアをタップするとそのエリアに合わせてズームする。
-5. ズーム前は、ポスターアイコンをタップしても反応しない。エリアにのみ反応する。
-6. ズーム後はポスターアイコンをタップすることができ、ズーム前の状態に戻ることができる。</t>
-    <rPh sb="10" eb="21">
-      <t>ガメンイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>チョウホウケイ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="58" eb="61">
-      <t>ハイケイショク</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ズケイ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>ハンノウ</t>
-    </rPh>
-    <rPh sb="173" eb="175">
-      <t>ハンノウ</t>
-    </rPh>
-    <rPh sb="185" eb="186">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="210" eb="211">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="212" eb="214">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="215" eb="216">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>プログラム画面へ遷移する</t>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
@@ -3491,6 +3423,132 @@
     </rPh>
     <rPh sb="284" eb="286">
       <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>発表データのダウンロードが出来る</t>
+  </si>
+  <si>
+    <t>Update session data by downloading from server.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検討事項1. いつ最新版の情報をフェッチするか</t>
+    <rPh sb="0" eb="4">
+      <t>ケントウジコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>サイシンバン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. ポスターマップ画面の一部を覆うように4つのエリアが表示されている
+2. エリアは長方形で、4つそれぞれ異なる背景色を持つ
+3. エリアを表す図形は、透過していてそのままポスターアイコンを見ることができる
+4. エリアをタップするとそのエリアに合わせてズームする
+5. ズーム前は、ポスターアイコンをタップしても反応しない。エリアにのみ反応する
+6. ズーム後はポスターアイコンをタップすることができる
+7. ズーム前の状態に戻すことができる</t>
+    <rPh sb="10" eb="21">
+      <t>ガメンイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>チョウホウケイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ズケイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ハンノウ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>ハンノウ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="210" eb="211">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. サーバに最新版のセッションデータを返す機能がある
+2. アプリ側で最新のセッションデータを読み込み、適用させることができる 
+3. ページリロード時にセッションデータの更新があれば更新する(検討事項1)</t>
+    <rPh sb="7" eb="10">
+      <t>サイシンバン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="98" eb="102">
+      <t>ケントウジコウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3685,7 +3743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3722,8 +3780,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3775,19 +3839,24 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="14">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4090,26 +4159,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H16"/>
+  <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="9" customWidth="1"/>
-    <col min="4" max="4" width="47.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="72.875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="42.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" style="9" customWidth="1"/>
-    <col min="8" max="8" width="42.875" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="9"/>
+    <col min="4" max="4" width="47.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="72.83203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="42.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="42.83203125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4132,7 +4201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="162" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="149">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4153,7 +4222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="65">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4174,7 +4243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="41">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -4197,7 +4266,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="89">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4218,7 +4287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="65">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4237,7 +4306,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="53">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4258,7 +4327,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="41">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4279,7 +4348,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="162" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="125">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4300,7 +4369,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="113">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4321,7 +4390,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="41">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4338,7 +4407,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="89">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4357,7 +4426,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="65">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4369,17 +4438,17 @@
         <v>107</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="137.25" customHeight="1">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4391,19 +4460,19 @@
         <v>109</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="H15" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="89">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4415,12 +4484,127 @@
         <v>111</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>112</v>
       </c>
       <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="59" customHeight="1">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>18</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>20</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -4439,30 +4623,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AF9"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="O1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="9" customWidth="1"/>
-    <col min="3" max="4" width="38.125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="38.1640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="40" style="9" customWidth="1"/>
     <col min="6" max="6" width="19" style="9" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="9" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="37.875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="37.83203125" style="9" customWidth="1"/>
     <col min="11" max="11" width="28.5" style="9" customWidth="1"/>
-    <col min="12" max="12" width="24.625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="32.875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="32.83203125" style="9" customWidth="1"/>
     <col min="14" max="14" width="36" style="9" customWidth="1"/>
-    <col min="15" max="15" width="29.125" style="9" customWidth="1"/>
-    <col min="16" max="16384" width="8.875" style="9"/>
+    <col min="15" max="15" width="29.1640625" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -4526,7 +4710,7 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:32" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" ht="53">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4567,7 +4751,7 @@
         <v>104</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>103</v>
@@ -4590,7 +4774,7 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" ht="53">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -4629,10 +4813,10 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -4652,7 +4836,7 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" ht="41">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -4685,10 +4869,10 @@
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -4708,7 +4892,7 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:32" ht="54" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" ht="53">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -4739,7 +4923,7 @@
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -4760,7 +4944,7 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:32" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" ht="67" customHeight="1">
       <c r="J8" s="9" t="s">
         <v>100</v>
       </c>
@@ -4768,7 +4952,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:32" ht="41">
       <c r="J9" s="9" t="s">
         <v>101</v>
       </c>
@@ -4796,18 +4980,18 @@
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="23">
       <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="29">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4815,7 +4999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="29">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4823,7 +5007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="29">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4831,7 +5015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="53">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4839,7 +5023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="41">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4847,7 +5031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="53">
       <c r="A7">
         <v>6</v>
       </c>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31920" windowHeight="17560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560"/>
   </bookViews>
   <sheets>
-    <sheet name="Business Rules" sheetId="6" r:id="rId1"/>
-    <sheet name="Business flows" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="Business Rules" sheetId="1" r:id="rId1"/>
+    <sheet name="Business flows" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Yuji Imagawa - 個人用ビュー" guid="{938A342C-EC02-5241-A23B-8271FF511629}" mergeInterval="0" personalView="1" yWindow="54" windowWidth="1436" windowHeight="824" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +29,7 @@
     <author>chiemi</author>
   </authors>
   <commentList>
-    <comment ref="G14" authorId="0">
+    <comment ref="G14" authorId="0" guid="{9A1DB791-DEEB-B14E-BADD-7FF8F26BF599}">
       <text>
         <r>
           <rPr>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="142">
   <si>
     <t>限定条件</t>
     <rPh sb="0" eb="2">
@@ -2997,48 +3000,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>セッションタイトルを示すバーが並んでいる</t>
-    <rPh sb="10" eb="11">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナラ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>バーの横にある"+" ボタンをタップするとそのセッション中のポスターの一覧が展開され、ボタンが”-”になる。</t>
-    <rPh sb="3" eb="4">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>テンカイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>バーの横にある"-" ボタンをタップするとそのセッション中のポスターの一覧が格納され、ボタンが"+”になる。</t>
-    <rPh sb="3" eb="4">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>マップ上の半透明な四角いエリアをタップするとそのエリアにあわせてズームする</t>
     <rPh sb="3" eb="4">
       <t>ジョウ</t>
@@ -3434,21 +3395,353 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>検討事項1. いつ最新版の情報をフェッチするか</t>
-    <rPh sb="0" eb="4">
-      <t>ケントウジコウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
+    <t>Update session data by downloading from server.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3.サーバへ接続できなかった場合はエラーメッセージを表示する</t>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6.サーバへ接続できなかった場合はエラーメッセージを表示し，ページには[データがありません]というページと[データ読み込み]というボタンを用意する。</t>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8.[データ読み込み]というボタンをタップしたら，サーバへ接続する。→6,7へ</t>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7. サーバへ接続できた場合は，サーバから発表データを取得しローカルストレージに格納した上でページを表示する。</t>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>9. トップページを表示したときに発表データがローカルストレージにない場合は，発表リストページとマップページのアイコンの上にかぶせるように[データ読み込み]ボタンを置く。</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>10. サーバへ接続できなかった場合にはエラーメッセージを表示し9.にもどる</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>11. サーバへ接続できた場合は4を行い，トップページを表示する。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.起動時に発表データがローカルストレージにあるか確認する。ある場合は通常通りトップページを表示する。</t>
+    <rPh sb="2" eb="4">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2.発表データがローカルストレージにない場合は，トップページを表示した後[データ読み込み中]というメッセージを表示し，サーバへ接続する</t>
+    <rPh sb="2" eb="4">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4.サーバへ接続できた場合はサーバから発表データを取得し，ローカルストレージに格納し[データ読み込み中]のメッセージを消す。</t>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5.発表リストページ(またはマップページ)に遷移したときに発表データがない場合は[データ読み込み中]というメッセージを表示し，サーバへ接続する。</t>
+    <rPh sb="2" eb="4">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. サーバに最新版のセッションデータを出す機能がある
+2. アプリ側で最新のセッションデータを読み込み、適用させることができる
+3. サーバに接続できない場合でもページ自体は表示し、ダウンロードのボタンを用意する（備考1）</t>
+    <rPh sb="7" eb="10">
       <t>サイシンバン</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1. ポスターマップ画面の一部を覆うように4つのエリアが表示されている
-2. エリアは長方形で、4つそれぞれ異なる背景色を持つ
+    <rPh sb="20" eb="21">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. トップページの場合はマップアイコン・発表リストの上に. それ以外の各ページの中心に配置する</t>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>↑</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザが任意にデータを更新できるしておく必要はない</t>
+    <rPh sb="4" eb="6">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. ポスターマップ画面の一部を覆うように複数のエリアが表示されている
+2. エリアは長方形でそれぞれ異なる背景色を持つ
 3. エリアを表す図形は、透過していてそのままポスターアイコンを見ることができる
 4. エリアをタップするとそのエリアに合わせてズームする
 5. ズーム前は、ポスターアイコンをタップしても反応しない。エリアにのみ反応する
@@ -3457,98 +3750,59 @@
     <rPh sb="10" eb="21">
       <t>ガメンイ</t>
     </rPh>
+    <rPh sb="21" eb="23">
+      <t>フクスウ</t>
+    </rPh>
     <rPh sb="28" eb="30">
       <t>ヒョウジ</t>
     </rPh>
     <rPh sb="43" eb="46">
       <t>チョウホウケイ</t>
     </rPh>
-    <rPh sb="54" eb="55">
+    <rPh sb="51" eb="52">
       <t>コト</t>
     </rPh>
-    <rPh sb="57" eb="60">
+    <rPh sb="54" eb="57">
       <t>ハイケイショク</t>
     </rPh>
-    <rPh sb="61" eb="62">
+    <rPh sb="58" eb="59">
       <t>モ</t>
     </rPh>
-    <rPh sb="71" eb="72">
+    <rPh sb="68" eb="69">
       <t>アラワ</t>
     </rPh>
-    <rPh sb="73" eb="75">
+    <rPh sb="70" eb="72">
       <t>ズケイ</t>
     </rPh>
-    <rPh sb="77" eb="79">
+    <rPh sb="74" eb="76">
       <t>トウカ</t>
     </rPh>
-    <rPh sb="96" eb="97">
+    <rPh sb="93" eb="94">
       <t>ミ</t>
     </rPh>
-    <rPh sb="124" eb="125">
+    <rPh sb="121" eb="122">
       <t>ア</t>
     </rPh>
-    <rPh sb="140" eb="141">
+    <rPh sb="137" eb="138">
       <t>マエ</t>
     </rPh>
-    <rPh sb="158" eb="160">
+    <rPh sb="155" eb="157">
       <t>ハンノウ</t>
     </rPh>
-    <rPh sb="170" eb="172">
+    <rPh sb="167" eb="169">
       <t>ハンノウ</t>
     </rPh>
-    <rPh sb="181" eb="182">
+    <rPh sb="178" eb="179">
       <t>ゴ</t>
     </rPh>
-    <rPh sb="210" eb="211">
+    <rPh sb="207" eb="208">
       <t>マエ</t>
     </rPh>
-    <rPh sb="212" eb="214">
+    <rPh sb="209" eb="211">
       <t>ジョウタイ</t>
     </rPh>
-    <rPh sb="215" eb="216">
+    <rPh sb="212" eb="213">
       <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1. サーバに最新版のセッションデータを返す機能がある
-2. アプリ側で最新のセッションデータを読み込み、適用させることができる 
-3. ページリロード時にセッションデータの更新があれば更新する(検討事項1)</t>
-    <rPh sb="7" eb="10">
-      <t>サイシンバン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>テキヨウ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="98" eb="102">
-      <t>ケントウジコウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3672,9 +3926,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -3787,7 +4040,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3833,13 +4086,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3859,7 +4109,59 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3870,6 +4172,471 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0409A87D-3866-C243-A0F4-9266163AD8BB}" diskRevisions="1" revisionId="9" version="3">
+  <header guid="{3BD15C7C-501D-F945-A0CD-CF8265B55354}" dateTime="2015-01-07T10:14:27" maxSheetId="4" userName="Yuji Imagawa" r:id="rId1">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0DB819FA-A9CA-F344-B60B-D81241726C56}" dateTime="2015-01-07T14:00:43" maxSheetId="4" userName="Yuji Imagawa" r:id="rId2" minRId="1" maxRId="9">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0409A87D-3866-C243-A0F4-9266163AD8BB}" dateTime="2015-01-07T14:12:22" maxSheetId="4" userName="Yuji Imagawa" r:id="rId3">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="2" sqref="N5" start="0" length="0">
+    <dxf>
+      <font/>
+    </dxf>
+  </rfmt>
+  <rcc rId="1" sId="2" odxf="1" dxf="1">
+    <oc r="N5" t="inlineStr">
+      <is>
+        <t>セッションタイトルを示すバーが並んでいる</t>
+        <rPh sb="10" eb="11">
+          <t>シメ</t>
+        </rPh>
+        <rPh sb="15" eb="16">
+          <t>ナラ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="N5" t="inlineStr">
+      <is>
+        <t>い</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <strike val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="2" sId="2" odxf="1" dxf="1">
+    <oc r="N6" t="inlineStr">
+      <is>
+        <t>バーの横にある"+" ボタンをタップするとそのセッション中のポスターの一覧が展開され、ボタンが”-”になる。</t>
+        <rPh sb="3" eb="4">
+          <t>ヨコ</t>
+        </rPh>
+        <rPh sb="28" eb="29">
+          <t>チュウ</t>
+        </rPh>
+        <rPh sb="35" eb="37">
+          <t>イチラン</t>
+        </rPh>
+        <rPh sb="38" eb="40">
+          <t>テンカイ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="N6" t="inlineStr">
+      <is>
+        <t>い</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <strike val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="3" sId="2" odxf="1" dxf="1">
+    <oc r="N7" t="inlineStr">
+      <is>
+        <t>バーの横にある"-" ボタンをタップするとそのセッション中のポスターの一覧が格納され、ボタンが"+”になる。</t>
+        <rPh sb="3" eb="4">
+          <t>ヨコ</t>
+        </rPh>
+        <rPh sb="28" eb="29">
+          <t>チュウ</t>
+        </rPh>
+        <rPh sb="35" eb="37">
+          <t>イチラン</t>
+        </rPh>
+        <rPh sb="38" eb="40">
+          <t>カクノウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="N7" t="inlineStr">
+      <is>
+        <t>い</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <strike val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="4" sId="2" odxf="1" dxf="1">
+    <nc r="N8" t="inlineStr">
+      <is>
+        <t>い</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="5" sId="1">
+    <oc r="E17" t="inlineStr">
+      <is>
+        <t>1. サーバに最新版のセッションデータを返す機能がある_x000D_2. アプリ側で最新のセッションデータを読み込み、適用させることができる _x000D_3. ページリロード時にセッションデータの更新があれば更新する(検討事項1)</t>
+        <rPh sb="7" eb="10">
+          <t>サイシンバン</t>
+        </rPh>
+        <rPh sb="20" eb="21">
+          <t>カエ</t>
+        </rPh>
+        <rPh sb="22" eb="24">
+          <t>キノウ</t>
+        </rPh>
+        <rPh sb="34" eb="35">
+          <t>ガワ</t>
+        </rPh>
+        <rPh sb="36" eb="38">
+          <t>サイシン</t>
+        </rPh>
+        <rPh sb="48" eb="49">
+          <t>ヨ</t>
+        </rPh>
+        <rPh sb="50" eb="51">
+          <t>コ</t>
+        </rPh>
+        <rPh sb="53" eb="55">
+          <t>テキヨウ</t>
+        </rPh>
+        <rPh sb="76" eb="77">
+          <t>ジ</t>
+        </rPh>
+        <rPh sb="87" eb="89">
+          <t>コウシン</t>
+        </rPh>
+        <rPh sb="93" eb="95">
+          <t>コウシン</t>
+        </rPh>
+        <rPh sb="98" eb="102">
+          <t>ケントウジコウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="E17" t="inlineStr">
+      <is>
+        <t>1. サーバに最新版のセッションデータを出す機能がある_x000D_2. アプリ側で最新のセッションデータを読み込み、適用させることができる_x000D_3. サーバに接続できない場合でもページ自体は表示し、ダウンロードのボタンを用意する（備考1）</t>
+        <rPh sb="7" eb="10">
+          <t>サイシンバン</t>
+        </rPh>
+        <rPh sb="20" eb="21">
+          <t>ダ</t>
+        </rPh>
+        <rPh sb="22" eb="24">
+          <t>キノウ</t>
+        </rPh>
+        <rPh sb="34" eb="35">
+          <t>ガワ</t>
+        </rPh>
+        <rPh sb="36" eb="38">
+          <t>サイシン</t>
+        </rPh>
+        <rPh sb="48" eb="49">
+          <t>ヨ</t>
+        </rPh>
+        <rPh sb="50" eb="51">
+          <t>コ</t>
+        </rPh>
+        <rPh sb="53" eb="55">
+          <t>テキヨウ</t>
+        </rPh>
+        <rPh sb="72" eb="74">
+          <t>セツゾク</t>
+        </rPh>
+        <rPh sb="78" eb="80">
+          <t>バアイ</t>
+        </rPh>
+        <rPh sb="85" eb="87">
+          <t>ジタイ</t>
+        </rPh>
+        <rPh sb="88" eb="90">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="103" eb="105">
+          <t>ヨウイ</t>
+        </rPh>
+        <rPh sb="108" eb="110">
+          <t>ビコウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="6" sId="1">
+    <nc r="H17" t="inlineStr">
+      <is>
+        <t>1. トップページの場合はマップアイコン・発表リストの上に. それ以外の各ページの中心に配置する</t>
+        <rPh sb="10" eb="12">
+          <t>バアイ</t>
+        </rPh>
+        <rPh sb="21" eb="23">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="27" eb="28">
+          <t>↑</t>
+        </rPh>
+        <rPh sb="33" eb="35">
+          <t>イガイ</t>
+        </rPh>
+        <rPh sb="36" eb="37">
+          <t>カク</t>
+        </rPh>
+        <rPh sb="41" eb="43">
+          <t>チュウシン</t>
+        </rPh>
+        <rPh sb="44" eb="46">
+          <t>ハイチ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="7" sId="1">
+    <nc r="F17" t="inlineStr">
+      <is>
+        <t>ユーザが任意にデータを更新できるしておく必要はない</t>
+        <rPh sb="4" eb="6">
+          <t>ニンイ</t>
+        </rPh>
+        <rPh sb="11" eb="13">
+          <t>コウシン</t>
+        </rPh>
+        <rPh sb="20" eb="22">
+          <t>ヒツヨウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="8" sId="1">
+    <oc r="G17" t="inlineStr">
+      <is>
+        <t>検討事項1. いつ最新版の情報をフェッチするか</t>
+        <rPh sb="0" eb="4">
+          <t>ケントウジコウ</t>
+        </rPh>
+        <rPh sb="9" eb="12">
+          <t>サイシンバン</t>
+        </rPh>
+        <rPh sb="13" eb="15">
+          <t>ジョウホウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="G17"/>
+  </rcc>
+  <rcc rId="9" sId="1">
+    <oc r="E16" t="inlineStr">
+      <is>
+        <t>1. ポスターマップ画面の一部を覆うように4つのエリアが表示されている_x000D_2. エリアは長方形で、4つそれぞれ異なる背景色を持つ_x000D_3. エリアを表す図形は、透過していてそのままポスターアイコンを見ることができる_x000D_4. エリアをタップするとそのエリアに合わせてズームする_x000D_5. ズーム前は、ポスターアイコンをタップしても反応しない。エリアにのみ反応する_x000D_6. ズーム後はポスターアイコンをタップすることができる_x000D_7. ズーム前の状態に戻すことができる</t>
+        <rPh sb="10" eb="21">
+          <t>ガメンイ</t>
+        </rPh>
+        <rPh sb="28" eb="30">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="43" eb="46">
+          <t>チョウホウケイ</t>
+        </rPh>
+        <rPh sb="54" eb="55">
+          <t>コト</t>
+        </rPh>
+        <rPh sb="57" eb="60">
+          <t>ハイケイショク</t>
+        </rPh>
+        <rPh sb="61" eb="62">
+          <t>モ</t>
+        </rPh>
+        <rPh sb="71" eb="72">
+          <t>アラワ</t>
+        </rPh>
+        <rPh sb="73" eb="75">
+          <t>ズケイ</t>
+        </rPh>
+        <rPh sb="77" eb="79">
+          <t>トウカ</t>
+        </rPh>
+        <rPh sb="96" eb="97">
+          <t>ミ</t>
+        </rPh>
+        <rPh sb="124" eb="125">
+          <t>ア</t>
+        </rPh>
+        <rPh sb="140" eb="141">
+          <t>マエ</t>
+        </rPh>
+        <rPh sb="158" eb="160">
+          <t>ハンノウ</t>
+        </rPh>
+        <rPh sb="170" eb="172">
+          <t>ハンノウ</t>
+        </rPh>
+        <rPh sb="181" eb="182">
+          <t>ゴ</t>
+        </rPh>
+        <rPh sb="210" eb="211">
+          <t>マエ</t>
+        </rPh>
+        <rPh sb="212" eb="214">
+          <t>ジョウタイ</t>
+        </rPh>
+        <rPh sb="215" eb="216">
+          <t>モド</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="E16" t="inlineStr">
+      <is>
+        <t>1. ポスターマップ画面の一部を覆うように複数のエリアが表示されている_x000D_2. エリアは長方形でそれぞれ異なる背景色を持つ_x000D_3. エリアを表す図形は、透過していてそのままポスターアイコンを見ることができる_x000D_4. エリアをタップするとそのエリアに合わせてズームする_x000D_5. ズーム前は、ポスターアイコンをタップしても反応しない。エリアにのみ反応する_x000D_6. ズーム後はポスターアイコンをタップすることができる_x000D_7. ズーム前の状態に戻すことができる</t>
+        <rPh sb="10" eb="21">
+          <t>ガメンイ</t>
+        </rPh>
+        <rPh sb="21" eb="23">
+          <t>フクスウ</t>
+        </rPh>
+        <rPh sb="28" eb="30">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="43" eb="46">
+          <t>チョウホウケイ</t>
+        </rPh>
+        <rPh sb="51" eb="52">
+          <t>コト</t>
+        </rPh>
+        <rPh sb="54" eb="57">
+          <t>ハイケイショク</t>
+        </rPh>
+        <rPh sb="58" eb="59">
+          <t>モ</t>
+        </rPh>
+        <rPh sb="68" eb="69">
+          <t>アラワ</t>
+        </rPh>
+        <rPh sb="70" eb="72">
+          <t>ズケイ</t>
+        </rPh>
+        <rPh sb="74" eb="76">
+          <t>トウカ</t>
+        </rPh>
+        <rPh sb="93" eb="94">
+          <t>ミ</t>
+        </rPh>
+        <rPh sb="121" eb="122">
+          <t>ア</t>
+        </rPh>
+        <rPh sb="137" eb="138">
+          <t>マエ</t>
+        </rPh>
+        <rPh sb="155" eb="157">
+          <t>ハンノウ</t>
+        </rPh>
+        <rPh sb="167" eb="169">
+          <t>ハンノウ</t>
+        </rPh>
+        <rPh sb="178" eb="179">
+          <t>ゴ</t>
+        </rPh>
+        <rPh sb="207" eb="208">
+          <t>マエ</t>
+        </rPh>
+        <rPh sb="209" eb="211">
+          <t>ジョウタイ</t>
+        </rPh>
+        <rPh sb="212" eb="213">
+          <t>モド</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{938A342C-EC02-5241-A23B-8271FF511629}" action="delete"/>
+  <rcv guid="{938A342C-EC02-5241-A23B-8271FF511629}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{938A342C-EC02-5241-A23B-8271FF511629}" action="delete"/>
+  <rcv guid="{938A342C-EC02-5241-A23B-8271FF511629}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4161,8 +4928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -4438,14 +5205,14 @@
         <v>107</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="137.25" customHeight="1">
@@ -4460,16 +5227,16 @@
         <v>109</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="89">
@@ -4484,33 +5251,36 @@
         <v>111</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>112</v>
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="59" customHeight="1">
+    <row r="17" spans="1:8" ht="59" customHeight="1">
       <c r="A17" s="3">
         <v>17</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -4521,7 +5291,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -4532,7 +5302,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -4543,7 +5313,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="3"/>
       <c r="B21" s="10"/>
       <c r="C21" s="3"/>
@@ -4552,7 +5322,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="3"/>
       <c r="B22" s="10"/>
       <c r="C22" s="3"/>
@@ -4561,7 +5331,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="3"/>
       <c r="B23" s="10"/>
       <c r="C23" s="3"/>
@@ -4570,7 +5340,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="3"/>
       <c r="B24" s="10"/>
       <c r="C24" s="3"/>
@@ -4579,7 +5349,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="3"/>
       <c r="B25" s="10"/>
       <c r="C25" s="3"/>
@@ -4588,7 +5358,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="3"/>
       <c r="B26" s="10"/>
       <c r="C26" s="3"/>
@@ -4597,7 +5367,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="3"/>
       <c r="B27" s="10"/>
       <c r="C27" s="3"/>
@@ -4607,6 +5377,12 @@
       <c r="G27" s="3"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{938A342C-EC02-5241-A23B-8271FF511629}" scale="200" topLeftCell="A14">
+      <selection activeCell="D16" sqref="D16"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4621,10 +5397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AF9"/>
+  <dimension ref="A3:AF14"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="O4" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -4643,10 +5419,11 @@
     <col min="13" max="13" width="32.83203125" style="9" customWidth="1"/>
     <col min="14" max="14" width="36" style="9" customWidth="1"/>
     <col min="15" max="15" width="29.1640625" style="9" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="9"/>
+    <col min="16" max="16" width="38.1640625" style="9" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" ht="29">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -4692,7 +5469,9 @@
       <c r="O3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -4756,7 +5535,9 @@
       <c r="O4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="P4" s="3"/>
+      <c r="P4" s="16" t="s">
+        <v>133</v>
+      </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -4813,12 +5594,14 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="P5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -4868,13 +5651,15 @@
         <v>94</v>
       </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -4922,11 +5707,13 @@
         <v>95</v>
       </c>
       <c r="M7" s="3"/>
-      <c r="N7" s="16" t="s">
-        <v>116</v>
+      <c r="N7" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -4951,16 +5738,56 @@
       <c r="K8" s="9" t="s">
         <v>91</v>
       </c>
+      <c r="N8" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" ht="41">
+    <row r="9" spans="1:32" ht="53">
       <c r="J9" s="9" t="s">
         <v>101</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>102</v>
       </c>
+      <c r="P9" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="41">
+      <c r="P10" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="29">
+      <c r="P11" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="82.5" customHeight="1">
+      <c r="P12" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="29">
+      <c r="P13" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="29">
+      <c r="P14" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{938A342C-EC02-5241-A23B-8271FF511629}" scale="200" topLeftCell="O4">
+      <selection activeCell="P9" sqref="P9"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5040,6 +5867,11 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{938A342C-EC02-5241-A23B-8271FF511629}">
+      <selection sqref="A1:B7"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="25600" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Business Rules" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Yuji Imagawa - 個人用ビュー" guid="{938A342C-EC02-5241-A23B-8271FF511629}" mergeInterval="0" personalView="1" yWindow="54" windowWidth="1436" windowHeight="824" activeSheetId="1"/>
+    <customWorkbookView name="Yuji Imagawa - 個人用ビュー" guid="{938A342C-EC02-5241-A23B-8271FF511629}" mergeInterval="0" personalView="1" yWindow="204" windowWidth="1280" windowHeight="824" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="141">
   <si>
     <t>限定条件</t>
     <rPh sb="0" eb="2">
@@ -3647,10 +3647,6 @@
     <rPh sb="67" eb="69">
       <t>セツゾク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>い</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -4109,59 +4105,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4175,7 +4119,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0409A87D-3866-C243-A0F4-9266163AD8BB}" diskRevisions="1" revisionId="9" version="3">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F217CC38-B7B7-4643-93D6-02B90E8BD624}" diskRevisions="1" revisionId="13" version="4">
   <header guid="{3BD15C7C-501D-F945-A0CD-CF8265B55354}" dateTime="2015-01-07T10:14:27" maxSheetId="4" userName="Yuji Imagawa" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -4191,6 +4135,13 @@
     </sheetIdMap>
   </header>
   <header guid="{0409A87D-3866-C243-A0F4-9266163AD8BB}" dateTime="2015-01-07T14:12:22" maxSheetId="4" userName="Yuji Imagawa" r:id="rId3">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F217CC38-B7B7-4643-93D6-02B90E8BD624}" dateTime="2015-01-09T10:02:07" maxSheetId="4" userName="Yuji Imagawa" r:id="rId4" minRId="10" maxRId="13">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -4630,6 +4581,49 @@
 
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{938A342C-EC02-5241-A23B-8271FF511629}" action="delete"/>
+  <rcv guid="{938A342C-EC02-5241-A23B-8271FF511629}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="10" sId="2">
+    <oc r="N5" t="inlineStr">
+      <is>
+        <t>い</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="N5"/>
+  </rcc>
+  <rcc rId="11" sId="2">
+    <oc r="N6" t="inlineStr">
+      <is>
+        <t>い</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="N6"/>
+  </rcc>
+  <rcc rId="12" sId="2">
+    <oc r="N7" t="inlineStr">
+      <is>
+        <t>い</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="N7"/>
+  </rcc>
+  <rcc rId="13" sId="2">
+    <oc r="N8" t="inlineStr">
+      <is>
+        <t>い</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="N8"/>
+  </rcc>
   <rcv guid="{938A342C-EC02-5241-A23B-8271FF511629}" action="delete"/>
   <rcv guid="{938A342C-EC02-5241-A23B-8271FF511629}" action="add"/>
 </revisions>
@@ -4928,8 +4922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -5251,7 +5245,7 @@
         <v>111</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>112</v>
@@ -5270,14 +5264,14 @@
         <v>123</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5378,8 +5372,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{938A342C-EC02-5241-A23B-8271FF511629}" scale="200" topLeftCell="A14">
-      <selection activeCell="D16" sqref="D16"/>
+    <customSheetView guid="{938A342C-EC02-5241-A23B-8271FF511629}" scale="200" topLeftCell="A15">
+      <selection activeCell="D17" sqref="D17"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
     </customSheetView>
   </customSheetViews>
@@ -5399,8 +5393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AF14"/>
   <sheetViews>
-    <sheetView topLeftCell="O4" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="O11" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -5593,9 +5587,7 @@
         <v>93</v>
       </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="15" t="s">
-        <v>137</v>
-      </c>
+      <c r="N5" s="15"/>
       <c r="O5" s="3" t="s">
         <v>114</v>
       </c>
@@ -5651,9 +5643,7 @@
         <v>94</v>
       </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="15" t="s">
-        <v>137</v>
-      </c>
+      <c r="N6" s="15"/>
       <c r="O6" s="3" t="s">
         <v>115</v>
       </c>
@@ -5707,9 +5697,7 @@
         <v>95</v>
       </c>
       <c r="M7" s="3"/>
-      <c r="N7" s="15" t="s">
-        <v>137</v>
-      </c>
+      <c r="N7" s="15"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
         <v>135</v>
@@ -5738,9 +5726,7 @@
       <c r="K8" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>137</v>
-      </c>
+      <c r="N8" s="15"/>
       <c r="P8" s="16" t="s">
         <v>136</v>
       </c>
@@ -5783,8 +5769,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{938A342C-EC02-5241-A23B-8271FF511629}" scale="200" topLeftCell="O4">
-      <selection activeCell="P9" sqref="P9"/>
+    <customSheetView guid="{938A342C-EC02-5241-A23B-8271FF511629}" scale="200" topLeftCell="O11">
+      <selection activeCell="P14" sqref="P14"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
   </customSheetViews>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Altairzym\Documents\say-document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="25600" windowHeight="17560"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="25605" windowHeight="17565"/>
   </bookViews>
   <sheets>
     <sheet name="Business Rules" sheetId="1" r:id="rId1"/>
     <sheet name="Business flows" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <customWorkbookViews>
+    <customWorkbookView name="Altairzym - 個人用ビュー" guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
     <customWorkbookView name="Yuji Imagawa - 個人用ビュー" guid="{938A342C-EC02-5241-A23B-8271FF511629}" mergeInterval="0" personalView="1" yWindow="204" windowWidth="1280" windowHeight="824" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
@@ -29,7 +35,7 @@
     <author>chiemi</author>
   </authors>
   <commentList>
-    <comment ref="G14" authorId="0" guid="{9A1DB791-DEEB-B14E-BADD-7FF8F26BF599}">
+    <comment ref="G14" authorId="0" guid="{9A1DB791-DEEB-B14E-BADD-7FF8F26BF599}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="156">
   <si>
     <t>限定条件</t>
     <rPh sb="0" eb="2">
@@ -3802,12 +3808,196 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>Search in presenList.</t>
+  </si>
+  <si>
+    <t>Search in presenList.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>発表リストで検索できる</t>
+    <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Change date of Map</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Mapの日付切り替えをする</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. ポスターマップの空白エリアに該当マップの日付が表示される
+2. 一日目ポスターマップ画面の右側の真ん中に左矢印が表示され、矢印をタップすると、二日目のポスターマップ画面に遷移する。
+3. 二日目ポスターマップ画面の左側の真ん中に左矢印が表示され、矢印をタップすると、一日目のポスターマップ画面に遷移する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Search in presenList.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.ポスターマップ画面へ遷移する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2.一日目のポスターマップ画面の右矢印をタップすると二日目のポスターマップ画面に遷移する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3.二日目のポスターマップ画面の左矢印をタップすると一日目のポスターマップ画面に遷移する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.発表リスト画面のタイトルの右の検索アイコンをクリックすると、タイトルで検索バー、矢印、×ボタンが表示される</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2.検索キーワードを入力して、このページの中に同じ文字内容が強調表示される、検索バーの一番右に検索結果が表示される</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3.検索バーの矢印をクリックすると「一個前」と「一個後」の結果に自動的に遷移する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.発表リスト画面のタイトルの右の検索アイコンをクリックすると、タイトルで検索バー、矢印、×ボタンが表示される
+2.検索キーワードを入力して、このページの中に同じ文字内容が強調表示される、検索バーの一番右に検索結果が表示される
+3.検索バーの矢印をクリックすると「一個前」と「一個後」の結果に自動的に遷移する
+4.×ボタンをクリックすると、協調表示を全部消す、検索バー、矢印ボタンと×ボタンが消えて、「発表リスト」を表示する</t>
+    <rPh sb="2" eb="4">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="86" eb="90">
+      <t>キョウチョウヒョウジ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>イッコ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>イッコ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="146" eb="149">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>キョウチョウ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="208" eb="210">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4.×ボタンをクリックすると、協調表示を全部消す、検索バー、矢印ボタンと×ボタンが消えて、「発表リスト」を表示する</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4036,7 +4226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4088,6 +4278,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8" hidden="1"/>
@@ -4119,7 +4312,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F217CC38-B7B7-4643-93D6-02B90E8BD624}" diskRevisions="1" revisionId="13" version="4">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FDE84771-3ECA-42A2-AB18-F6E9A102726E}" diskRevisions="1" revisionId="56" version="26">
   <header guid="{3BD15C7C-501D-F945-A0CD-CF8265B55354}" dateTime="2015-01-07T10:14:27" maxSheetId="4" userName="Yuji Imagawa" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -4148,11 +4341,1162 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
+  <header guid="{778E542C-CF62-4D0B-9E5C-3E9F57326677}" dateTime="2015-01-19T14:16:45" maxSheetId="4" userName="Altairzym" r:id="rId5" minRId="14">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A257EC9E-68EA-404E-9011-5E32CFFB6CF8}" dateTime="2015-01-19T14:18:23" maxSheetId="4" userName="Altairzym" r:id="rId6" minRId="15">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{60196299-F2E6-435F-B577-65767B7E1011}" dateTime="2015-01-19T14:18:30" maxSheetId="4" userName="Altairzym" r:id="rId7" minRId="16">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2B5F5B57-DFB5-4EC8-A228-06605EC3EA18}" dateTime="2015-01-19T14:18:42" maxSheetId="4" userName="Altairzym" r:id="rId8" minRId="17" maxRId="19">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7799B1C1-0E05-4FD8-A3CB-74793C441C43}" dateTime="2015-01-19T14:19:06" maxSheetId="4" userName="Altairzym" r:id="rId9" minRId="20" maxRId="24">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3149D8CC-05A9-487D-8C33-E401EC8C6746}" dateTime="2015-01-19T14:22:01" maxSheetId="4" userName="Altairzym" r:id="rId10" minRId="25" maxRId="29">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7C264F6B-2ED5-4D50-B802-8A57FF32048D}" dateTime="2015-01-19T14:22:32" maxSheetId="4" userName="Altairzym" r:id="rId11" minRId="30">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0F7FC5AD-05E5-42A6-B8F2-4FD13EB3C87E}" dateTime="2015-01-19T14:38:25" maxSheetId="4" userName="Altairzym" r:id="rId12" minRId="31" maxRId="37">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C1CA601D-C42A-4CE0-A7BF-7A88F826D9C3}" dateTime="2015-01-19T14:40:48" maxSheetId="4" userName="Altairzym" r:id="rId13" minRId="38" maxRId="39">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8CFB0BBF-BF99-4D29-B8E9-0F678E3B424A}" dateTime="2015-01-19T14:48:36" maxSheetId="4" userName="Altairzym" r:id="rId14" minRId="40" maxRId="41">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B4C0066E-A615-4441-AA4E-E64B9E839CBB}" dateTime="2015-01-19T14:48:39" maxSheetId="4" userName="Altairzym" r:id="rId15">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{193A453C-215C-4892-AD17-53BA666A1A25}" dateTime="2015-01-19T14:48:57" maxSheetId="4" userName="Altairzym" r:id="rId16" minRId="42">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EA3C4DE3-4B50-4BA3-A65E-725E4AB498C4}" dateTime="2015-01-19T14:51:23" maxSheetId="4" userName="Altairzym" r:id="rId17" minRId="43" maxRId="45">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2C551594-E124-4F08-A180-98A0DB2C379A}" dateTime="2015-01-19T15:03:42" maxSheetId="4" userName="Altairzym" r:id="rId18" minRId="46">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D453F459-9DE6-49D0-88E7-22629876B3B4}" dateTime="2015-01-19T15:04:31" maxSheetId="4" userName="Altairzym" r:id="rId19" minRId="47" maxRId="49">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A62E53E1-C6BD-4F35-A936-63E673D26007}" dateTime="2015-01-19T15:39:16" maxSheetId="4" userName="Altairzym" r:id="rId20" minRId="50">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{420F8530-753C-405F-BC7F-CDFB79E7ADB5}" dateTime="2015-01-19T15:39:33" maxSheetId="4" userName="Altairzym" r:id="rId21" minRId="51">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8776236B-A34D-475D-AB51-612CB1114DB4}" dateTime="2015-01-19T15:40:09" maxSheetId="4" userName="Altairzym" r:id="rId22" minRId="52">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A6EEFD1A-4CD3-484B-A6BF-4F01B49316D7}" dateTime="2015-01-19T15:40:40" maxSheetId="4" userName="Altairzym" r:id="rId23" minRId="53">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2153F4EC-B73E-4A78-BC6C-D242DFDE7F73}" dateTime="2015-01-19T15:40:46" maxSheetId="4" userName="Altairzym" r:id="rId24" minRId="54">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{74785CE7-747A-4E6A-B5C3-B9E69CBCF55A}" dateTime="2015-01-19T15:40:54" maxSheetId="4" userName="Altairzym" r:id="rId25" minRId="55">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FDE84771-3ECA-42A2-AB18-F6E9A102726E}" dateTime="2015-01-19T15:41:10" maxSheetId="4" userName="Altairzym" r:id="rId26" minRId="56">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="25" sId="1">
+    <oc r="E21" t="inlineStr">
+      <is>
+        <t>3. サーバに接続できない場合でもページ自体は表示し、ダウンロードのボタンを用意する（備考1）</t>
+      </is>
+    </oc>
+    <nc r="E21"/>
+  </rcc>
+  <rcc rId="26" sId="1">
+    <oc r="E20" t="inlineStr">
+      <is>
+        <t>2. アプリ側で最新のセッションデータを読み込み、適用させることができる</t>
+      </is>
+    </oc>
+    <nc r="E20"/>
+  </rcc>
+  <rrc rId="27" sId="1" ref="A20:XFD20" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A20:XFD20" start="0" length="0">
+      <dxf>
+        <alignment wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="A20" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="B20" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="C20" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="D20" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="E20" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="F20" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="G20" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="28" sId="1" ref="A20:XFD20" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A20:XFD20" start="0" length="0">
+      <dxf>
+        <alignment wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="A20" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="B20" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="C20" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="D20" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="E20" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="F20" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="G20" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rcc rId="29" sId="1">
+    <oc r="E19" t="inlineStr">
+      <is>
+        <t>1. サーバに最新版のセッションデータを出す機能がある</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="E19" t="inlineStr">
+      <is>
+        <t>1.発表リスト画面のタイトルの下に、検索バーが常に表示される
+2.検索に該当する条件が、「発表番号, タイトル, 著者, 発表者, 概要, キーワードのいずれかと検索キーワードが部分一致するポスター」（検討事項1）である。
+3.</t>
+        <rPh sb="2" eb="4">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="7" eb="9">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="15" eb="16">
+          <t>シタ</t>
+        </rPh>
+        <rPh sb="18" eb="20">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="23" eb="24">
+          <t>ツネ</t>
+        </rPh>
+        <rPh sb="25" eb="27">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="30" sId="1">
+    <oc r="E19" t="inlineStr">
+      <is>
+        <t>1.発表リスト画面のタイトルの下に、検索バーが常に表示される
+2.検索に該当する条件が、「発表番号, タイトル, 著者, 発表者, 概要, キーワードのいずれかと検索キーワードが部分一致するポスター」（検討事項1）である。
+3.</t>
+        <rPh sb="2" eb="4">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="7" eb="9">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="15" eb="16">
+          <t>シタ</t>
+        </rPh>
+        <rPh sb="18" eb="20">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="23" eb="24">
+          <t>ツネ</t>
+        </rPh>
+        <rPh sb="25" eb="27">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="E19" t="inlineStr">
+      <is>
+        <t>1.発表リスト画面のタイトルの下に、検索バーが常に表示される
+2.検索に該当する条件が、「発表番号, タイトル, 著者, 発表者, 概要, キーワードのいずれかと検索キーワードが部分一致する発表」である
+3.</t>
+        <rPh sb="2" eb="4">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="7" eb="9">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="15" eb="16">
+          <t>シタ</t>
+        </rPh>
+        <rPh sb="18" eb="20">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="23" eb="24">
+          <t>ツネ</t>
+        </rPh>
+        <rPh sb="25" eb="27">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="95" eb="97">
+          <t>ハッピョウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="31" sId="1">
+    <oc r="E19" t="inlineStr">
+      <is>
+        <t>1.発表リスト画面のタイトルの下に、検索バーが常に表示される
+2.検索に該当する条件が、「発表番号, タイトル, 著者, 発表者, 概要, キーワードのいずれかと検索キーワードが部分一致する発表」である
+3.</t>
+        <rPh sb="2" eb="4">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="7" eb="9">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="15" eb="16">
+          <t>シタ</t>
+        </rPh>
+        <rPh sb="18" eb="20">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="23" eb="24">
+          <t>ツネ</t>
+        </rPh>
+        <rPh sb="25" eb="27">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="95" eb="97">
+          <t>ハッピョウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="E19" t="inlineStr">
+      <is>
+        <t>1.発表リスト画面のタイトルの下に、検索バーが常に表示される
+2.検索に該当する条件が、「発表番号, タイトル, 著者, 発表者, 概要, キーワードのいずれかと検索キーワードが部分一致する発表」である
+3.検索条件に合う発表だけ発表リストに残る、各発表は「図示」、「詳細情報」と「ブックマーク」機能ができる
+4.検索バーの内容を削除すると、全ての発表が表示される</t>
+        <rPh sb="2" eb="4">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="7" eb="9">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="15" eb="16">
+          <t>シタ</t>
+        </rPh>
+        <rPh sb="18" eb="20">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="23" eb="24">
+          <t>ツネ</t>
+        </rPh>
+        <rPh sb="25" eb="27">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="95" eb="97">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="104" eb="106">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="106" eb="108">
+          <t>ジョウケン</t>
+        </rPh>
+        <rPh sb="109" eb="110">
+          <t>ア</t>
+        </rPh>
+        <rPh sb="111" eb="113">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="115" eb="117">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="121" eb="122">
+          <t>ノコ</t>
+        </rPh>
+        <rPh sb="124" eb="125">
+          <t>カク</t>
+        </rPh>
+        <rPh sb="125" eb="127">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="129" eb="131">
+          <t>ズシ</t>
+        </rPh>
+        <rPh sb="134" eb="138">
+          <t>ショウサイジョウホウ</t>
+        </rPh>
+        <rPh sb="148" eb="150">
+          <t>キノウ</t>
+        </rPh>
+        <rPh sb="157" eb="159">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="162" eb="164">
+          <t>ナイヨウ</t>
+        </rPh>
+        <rPh sb="165" eb="167">
+          <t>サクジョ</t>
+        </rPh>
+        <rPh sb="171" eb="172">
+          <t>スベ</t>
+        </rPh>
+        <rPh sb="174" eb="176">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="177" eb="179">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="32" sId="1">
+    <oc r="C19" t="inlineStr">
+      <is>
+        <t>Search in presenList.</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="C19" t="inlineStr">
+      <is>
+        <t>Search in presenList.</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="33" sId="2" xfDxf="1" dxf="1">
+    <nc r="R3" t="inlineStr">
+      <is>
+        <t>Search in presenList.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="34" sId="2">
+    <nc r="R4" t="inlineStr">
+      <is>
+        <t>1.発表リストに遷移する時、全ての発表が表示されている。画面のタイトルの下、検索バーが常に表示されている。</t>
+        <rPh sb="2" eb="4">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="8" eb="10">
+          <t>センイ</t>
+        </rPh>
+        <rPh sb="12" eb="13">
+          <t>トキ</t>
+        </rPh>
+        <rPh sb="14" eb="15">
+          <t>スベ</t>
+        </rPh>
+        <rPh sb="17" eb="19">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="20" eb="22">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="28" eb="30">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="36" eb="37">
+          <t>シタ</t>
+        </rPh>
+        <rPh sb="38" eb="40">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="43" eb="44">
+          <t>ツネ</t>
+        </rPh>
+        <rPh sb="45" eb="47">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="35" sId="2">
+    <nc r="R5" t="inlineStr">
+      <is>
+        <t>2.検索バーにキーワードを入力して、キーボードの「完了」を押すと、検索処理を行い、条件に合う発表だけが発表リストに残る</t>
+        <rPh sb="2" eb="4">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="13" eb="15">
+          <t>ニュウリョク</t>
+        </rPh>
+        <rPh sb="25" eb="27">
+          <t>カンリョウ</t>
+        </rPh>
+        <rPh sb="29" eb="30">
+          <t>オ</t>
+        </rPh>
+        <rPh sb="33" eb="35">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="35" eb="37">
+          <t>ショリ</t>
+        </rPh>
+        <rPh sb="38" eb="39">
+          <t>オコナ</t>
+        </rPh>
+        <rPh sb="41" eb="43">
+          <t>ジョウケン</t>
+        </rPh>
+        <rPh sb="44" eb="45">
+          <t>ア</t>
+        </rPh>
+        <rPh sb="46" eb="48">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="51" eb="53">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="57" eb="58">
+          <t>ノコ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="36" sId="2">
+    <nc r="R6" t="inlineStr">
+      <is>
+        <t>3.残っている各発表に「図示」、「ブックマーク」と「詳細情報」機能ができる</t>
+        <rPh sb="2" eb="3">
+          <t>ノコ</t>
+        </rPh>
+        <rPh sb="7" eb="8">
+          <t>カク</t>
+        </rPh>
+        <rPh sb="8" eb="10">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="12" eb="14">
+          <t>ズシ</t>
+        </rPh>
+        <rPh sb="26" eb="28">
+          <t>ショウサイ</t>
+        </rPh>
+        <rPh sb="28" eb="30">
+          <t>ジョウホウ</t>
+        </rPh>
+        <rPh sb="31" eb="33">
+          <t>キノウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="37" sId="2">
+    <nc r="R7" t="inlineStr">
+      <is>
+        <t>4.検索バーの内容を削除すると、画面のが再構成し、全ての発表とセッション情報が表示される</t>
+        <rPh sb="2" eb="4">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="7" eb="9">
+          <t>ナイヨウ</t>
+        </rPh>
+        <rPh sb="10" eb="12">
+          <t>サクジョ</t>
+        </rPh>
+        <rPh sb="16" eb="18">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="20" eb="21">
+          <t>サイ</t>
+        </rPh>
+        <rPh sb="21" eb="23">
+          <t>コウセイ</t>
+        </rPh>
+        <rPh sb="25" eb="26">
+          <t>スベ</t>
+        </rPh>
+        <rPh sb="28" eb="30">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="36" eb="38">
+          <t>ジョウホウ</t>
+        </rPh>
+        <rPh sb="39" eb="41">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" action="delete"/>
+  <rcv guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="38" sId="2">
+    <oc r="R5" t="inlineStr">
+      <is>
+        <t>2.検索バーにキーワードを入力して、キーボードの「完了」を押すと、検索処理を行い、条件に合う発表だけが発表リストに残る</t>
+        <rPh sb="2" eb="4">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="13" eb="15">
+          <t>ニュウリョク</t>
+        </rPh>
+        <rPh sb="25" eb="27">
+          <t>カンリョウ</t>
+        </rPh>
+        <rPh sb="29" eb="30">
+          <t>オ</t>
+        </rPh>
+        <rPh sb="33" eb="35">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="35" eb="37">
+          <t>ショリ</t>
+        </rPh>
+        <rPh sb="38" eb="39">
+          <t>オコナ</t>
+        </rPh>
+        <rPh sb="41" eb="43">
+          <t>ジョウケン</t>
+        </rPh>
+        <rPh sb="44" eb="45">
+          <t>ア</t>
+        </rPh>
+        <rPh sb="46" eb="48">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="51" eb="53">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="57" eb="58">
+          <t>ノコ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="R5" t="inlineStr">
+      <is>
+        <t>2.検索バーにキーワードを入力して、キーボードの「完了」を押すと、検索処理を行い、条件に合う発表だけ、発表リスト画面に表示されている</t>
+        <rPh sb="2" eb="4">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="13" eb="15">
+          <t>ニュウリョク</t>
+        </rPh>
+        <rPh sb="25" eb="27">
+          <t>カンリョウ</t>
+        </rPh>
+        <rPh sb="29" eb="30">
+          <t>オ</t>
+        </rPh>
+        <rPh sb="33" eb="35">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="35" eb="37">
+          <t>ショリ</t>
+        </rPh>
+        <rPh sb="38" eb="39">
+          <t>オコナ</t>
+        </rPh>
+        <rPh sb="41" eb="43">
+          <t>ジョウケン</t>
+        </rPh>
+        <rPh sb="44" eb="45">
+          <t>ア</t>
+        </rPh>
+        <rPh sb="46" eb="48">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="51" eb="53">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="56" eb="58">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="59" eb="61">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="39" sId="2">
+    <oc r="R6" t="inlineStr">
+      <is>
+        <t>3.残っている各発表に「図示」、「ブックマーク」と「詳細情報」機能ができる</t>
+        <rPh sb="2" eb="3">
+          <t>ノコ</t>
+        </rPh>
+        <rPh sb="7" eb="8">
+          <t>カク</t>
+        </rPh>
+        <rPh sb="8" eb="10">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="12" eb="14">
+          <t>ズシ</t>
+        </rPh>
+        <rPh sb="26" eb="28">
+          <t>ショウサイ</t>
+        </rPh>
+        <rPh sb="28" eb="30">
+          <t>ジョウホウ</t>
+        </rPh>
+        <rPh sb="31" eb="33">
+          <t>キノウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="R6" t="inlineStr">
+      <is>
+        <t>3.表示されている各発表に「図示」、「ブックマーク」と「詳細情報」機能ができる</t>
+        <rPh sb="2" eb="4">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="9" eb="10">
+          <t>カク</t>
+        </rPh>
+        <rPh sb="10" eb="12">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="14" eb="16">
+          <t>ズシ</t>
+        </rPh>
+        <rPh sb="28" eb="30">
+          <t>ショウサイ</t>
+        </rPh>
+        <rPh sb="30" eb="32">
+          <t>ジョウホウ</t>
+        </rPh>
+        <rPh sb="33" eb="35">
+          <t>キノウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rm rId="40" sheetId="1" source="B18" destination="C18" sourceSheetId="1">
+    <rfmt sheetId="1" sqref="C18" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rcc rId="41" sId="1">
+    <nc r="C18" t="inlineStr">
+      <is>
+        <t>Change date of Map</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" action="delete"/>
+  <rcv guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="C18">
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="42" sId="1">
+    <nc r="D18" t="inlineStr">
+      <is>
+        <t>Mapの日付切り替えをする</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="43" sId="1">
+    <nc r="E18" t="inlineStr">
+      <is>
+        <t>1. ポスターマップの空白エリアに該当マップの日付が表示される
+2. 一日目ポスターマップ画面の右側の真ん中に左矢印が表示され、矢印をタップすると、二日目のポスターマップ画面に遷移する。
+3. 二日目ポスターマップ画面の左側の真ん中に左矢印が表示され、矢印をタップすると、一日目のポスターマップ画面に遷移する。</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="44" sId="1">
+    <oc r="C19" t="inlineStr">
+      <is>
+        <t>Search in presenList.</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="C19" t="inlineStr">
+      <is>
+        <t>Search in presenList.</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="45" sId="2">
+    <nc r="Q3" t="inlineStr">
+      <is>
+        <t>Search in presenList.</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" action="delete"/>
+  <rcv guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="46" sId="2">
+    <nc r="Q4" t="inlineStr">
+      <is>
+        <t>ポスターマップ画面へ遷移する</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" action="delete"/>
+  <rcv guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="47" sId="2">
+    <oc r="Q4" t="inlineStr">
+      <is>
+        <t>ポスターマップ画面へ遷移する</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="Q4" t="inlineStr">
+      <is>
+        <t>1.ポスターマップ画面へ遷移する</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="48" sId="2">
+    <nc r="Q5" t="inlineStr">
+      <is>
+        <t>2.一日目のポスターマップ画面の右矢印をタップすると二日目のポスターマップ画面に遷移する。</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="Q5">
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="49" sId="2">
+    <nc r="Q6" t="inlineStr">
+      <is>
+        <t>3.二日目のポスターマップ画面の左矢印をタップすると一日目のポスターマップ画面に遷移する。</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4579,6 +5923,696 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="50" sId="1">
+    <oc r="E19" t="inlineStr">
+      <is>
+        <t>1.発表リスト画面のタイトルの下に、検索バーが常に表示される
+2.検索に該当する条件が、「発表番号, タイトル, 著者, 発表者, 概要, キーワードのいずれかと検索キーワードが部分一致する発表」である
+3.検索条件に合う発表だけ発表リストに残る、各発表は「図示」、「詳細情報」と「ブックマーク」機能ができる
+4.検索バーの内容を削除すると、全ての発表が表示される</t>
+        <rPh sb="2" eb="4">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="7" eb="9">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="15" eb="16">
+          <t>シタ</t>
+        </rPh>
+        <rPh sb="18" eb="20">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="23" eb="24">
+          <t>ツネ</t>
+        </rPh>
+        <rPh sb="25" eb="27">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="95" eb="97">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="104" eb="106">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="106" eb="108">
+          <t>ジョウケン</t>
+        </rPh>
+        <rPh sb="109" eb="110">
+          <t>ア</t>
+        </rPh>
+        <rPh sb="111" eb="113">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="115" eb="117">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="121" eb="122">
+          <t>ノコ</t>
+        </rPh>
+        <rPh sb="124" eb="125">
+          <t>カク</t>
+        </rPh>
+        <rPh sb="125" eb="127">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="129" eb="131">
+          <t>ズシ</t>
+        </rPh>
+        <rPh sb="134" eb="138">
+          <t>ショウサイジョウホウ</t>
+        </rPh>
+        <rPh sb="148" eb="150">
+          <t>キノウ</t>
+        </rPh>
+        <rPh sb="157" eb="159">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="162" eb="164">
+          <t>ナイヨウ</t>
+        </rPh>
+        <rPh sb="165" eb="167">
+          <t>サクジョ</t>
+        </rPh>
+        <rPh sb="171" eb="172">
+          <t>スベ</t>
+        </rPh>
+        <rPh sb="174" eb="176">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="177" eb="179">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="E19" t="inlineStr">
+      <is>
+        <t>1.発表リスト画面のタイトルの右の検索アイコンをクリックすると、タイトルで検索バー、矢印、×ボタンが表示される
+2.検索キーワードを入力して、このページの中に同じ文字内容が強調表示される、検索バーの一番右に検索結果が表示される
+3.検索バーの右の矢印をクリックすると「一個前」と「一個後」の結果に自動的に遷移する
+4.×ボタンをクリックすると、協調表示を全部消す、検索バー、矢印ボタンと×ボタンが消えて、「発表リスト」を表示する</t>
+        <rPh sb="2" eb="4">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="7" eb="9">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="15" eb="16">
+          <t>ミギ</t>
+        </rPh>
+        <rPh sb="17" eb="19">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="37" eb="39">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="42" eb="44">
+          <t>ヤジルシ</t>
+        </rPh>
+        <rPh sb="50" eb="52">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="58" eb="60">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="66" eb="68">
+          <t>ニュウリョク</t>
+        </rPh>
+        <rPh sb="77" eb="78">
+          <t>ナカ</t>
+        </rPh>
+        <rPh sb="79" eb="80">
+          <t>オナ</t>
+        </rPh>
+        <rPh sb="81" eb="83">
+          <t>モジ</t>
+        </rPh>
+        <rPh sb="83" eb="85">
+          <t>ナイヨウ</t>
+        </rPh>
+        <rPh sb="86" eb="90">
+          <t>キョウチョウヒョウジ</t>
+        </rPh>
+        <rPh sb="94" eb="96">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="99" eb="101">
+          <t>イチバン</t>
+        </rPh>
+        <rPh sb="101" eb="102">
+          <t>ミギ</t>
+        </rPh>
+        <rPh sb="103" eb="105">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="105" eb="107">
+          <t>ケッカ</t>
+        </rPh>
+        <rPh sb="108" eb="110">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="116" eb="118">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="121" eb="122">
+          <t>ミギ</t>
+        </rPh>
+        <rPh sb="123" eb="125">
+          <t>ヤジルシ</t>
+        </rPh>
+        <rPh sb="134" eb="136">
+          <t>イッコ</t>
+        </rPh>
+        <rPh sb="136" eb="137">
+          <t>マエ</t>
+        </rPh>
+        <rPh sb="140" eb="142">
+          <t>イッコ</t>
+        </rPh>
+        <rPh sb="142" eb="143">
+          <t>アト</t>
+        </rPh>
+        <rPh sb="145" eb="147">
+          <t>ケッカ</t>
+        </rPh>
+        <rPh sb="148" eb="151">
+          <t>ジドウテキ</t>
+        </rPh>
+        <rPh sb="152" eb="154">
+          <t>センイ</t>
+        </rPh>
+        <rPh sb="172" eb="174">
+          <t>キョウチョウ</t>
+        </rPh>
+        <rPh sb="174" eb="176">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="177" eb="179">
+          <t>ゼンブ</t>
+        </rPh>
+        <rPh sb="179" eb="180">
+          <t>ケ</t>
+        </rPh>
+        <rPh sb="182" eb="184">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="187" eb="189">
+          <t>ヤジルシ</t>
+        </rPh>
+        <rPh sb="198" eb="199">
+          <t>キ</t>
+        </rPh>
+        <rPh sb="203" eb="205">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="210" eb="212">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" action="delete"/>
+  <rcv guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="51" sId="2">
+    <oc r="R4" t="inlineStr">
+      <is>
+        <t>1.発表リストに遷移する時、全ての発表が表示されている。画面のタイトルの下、検索バーが常に表示されている。</t>
+        <rPh sb="2" eb="4">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="8" eb="10">
+          <t>センイ</t>
+        </rPh>
+        <rPh sb="12" eb="13">
+          <t>トキ</t>
+        </rPh>
+        <rPh sb="14" eb="15">
+          <t>スベ</t>
+        </rPh>
+        <rPh sb="17" eb="19">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="20" eb="22">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="28" eb="30">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="36" eb="37">
+          <t>シタ</t>
+        </rPh>
+        <rPh sb="38" eb="40">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="43" eb="44">
+          <t>ツネ</t>
+        </rPh>
+        <rPh sb="45" eb="47">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="R4" t="inlineStr">
+      <is>
+        <t>1.発表リスト画面のタイトルの右の検索アイコンをクリックすると、タイトルで検索バー、矢印、×ボタンが表示される</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="52" sId="2">
+    <oc r="R5" t="inlineStr">
+      <is>
+        <t>2.検索バーにキーワードを入力して、キーボードの「完了」を押すと、検索処理を行い、条件に合う発表だけ、発表リスト画面に表示されている</t>
+        <rPh sb="2" eb="4">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="13" eb="15">
+          <t>ニュウリョク</t>
+        </rPh>
+        <rPh sb="25" eb="27">
+          <t>カンリョウ</t>
+        </rPh>
+        <rPh sb="29" eb="30">
+          <t>オ</t>
+        </rPh>
+        <rPh sb="33" eb="35">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="35" eb="37">
+          <t>ショリ</t>
+        </rPh>
+        <rPh sb="38" eb="39">
+          <t>オコナ</t>
+        </rPh>
+        <rPh sb="41" eb="43">
+          <t>ジョウケン</t>
+        </rPh>
+        <rPh sb="44" eb="45">
+          <t>ア</t>
+        </rPh>
+        <rPh sb="46" eb="48">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="51" eb="53">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="56" eb="58">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="59" eb="61">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="R5" t="inlineStr">
+      <is>
+        <t>2.検索キーワードを入力して、このページの中に同じ文字内容が強調表示される、検索バーの一番右に検索結果が表示される</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="53" sId="2">
+    <oc r="R6" t="inlineStr">
+      <is>
+        <t>3.表示されている各発表に「図示」、「ブックマーク」と「詳細情報」機能ができる</t>
+        <rPh sb="2" eb="4">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="9" eb="10">
+          <t>カク</t>
+        </rPh>
+        <rPh sb="10" eb="12">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="14" eb="16">
+          <t>ズシ</t>
+        </rPh>
+        <rPh sb="28" eb="30">
+          <t>ショウサイ</t>
+        </rPh>
+        <rPh sb="30" eb="32">
+          <t>ジョウホウ</t>
+        </rPh>
+        <rPh sb="33" eb="35">
+          <t>キノウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="R6" t="inlineStr">
+      <is>
+        <t>3.検索バーの右の矢印をクリックすると「一個前」と「一個後」の結果に自動的に遷移する</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="54" sId="2">
+    <oc r="R6" t="inlineStr">
+      <is>
+        <t>3.検索バーの右の矢印をクリックすると「一個前」と「一個後」の結果に自動的に遷移する</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="R6" t="inlineStr">
+      <is>
+        <t>3.検索バーの矢印をクリックすると「一個前」と「一個後」の結果に自動的に遷移する</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="55" sId="1">
+    <oc r="E19" t="inlineStr">
+      <is>
+        <t>1.発表リスト画面のタイトルの右の検索アイコンをクリックすると、タイトルで検索バー、矢印、×ボタンが表示される
+2.検索キーワードを入力して、このページの中に同じ文字内容が強調表示される、検索バーの一番右に検索結果が表示される
+3.検索バーの右の矢印をクリックすると「一個前」と「一個後」の結果に自動的に遷移する
+4.×ボタンをクリックすると、協調表示を全部消す、検索バー、矢印ボタンと×ボタンが消えて、「発表リスト」を表示する</t>
+        <rPh sb="2" eb="4">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="7" eb="9">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="15" eb="16">
+          <t>ミギ</t>
+        </rPh>
+        <rPh sb="17" eb="19">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="37" eb="39">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="42" eb="44">
+          <t>ヤジルシ</t>
+        </rPh>
+        <rPh sb="50" eb="52">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="58" eb="60">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="66" eb="68">
+          <t>ニュウリョク</t>
+        </rPh>
+        <rPh sb="77" eb="78">
+          <t>ナカ</t>
+        </rPh>
+        <rPh sb="79" eb="80">
+          <t>オナ</t>
+        </rPh>
+        <rPh sb="81" eb="83">
+          <t>モジ</t>
+        </rPh>
+        <rPh sb="83" eb="85">
+          <t>ナイヨウ</t>
+        </rPh>
+        <rPh sb="86" eb="90">
+          <t>キョウチョウヒョウジ</t>
+        </rPh>
+        <rPh sb="94" eb="96">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="99" eb="101">
+          <t>イチバン</t>
+        </rPh>
+        <rPh sb="101" eb="102">
+          <t>ミギ</t>
+        </rPh>
+        <rPh sb="103" eb="105">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="105" eb="107">
+          <t>ケッカ</t>
+        </rPh>
+        <rPh sb="108" eb="110">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="116" eb="118">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="121" eb="122">
+          <t>ミギ</t>
+        </rPh>
+        <rPh sb="123" eb="125">
+          <t>ヤジルシ</t>
+        </rPh>
+        <rPh sb="134" eb="136">
+          <t>イッコ</t>
+        </rPh>
+        <rPh sb="136" eb="137">
+          <t>マエ</t>
+        </rPh>
+        <rPh sb="140" eb="142">
+          <t>イッコ</t>
+        </rPh>
+        <rPh sb="142" eb="143">
+          <t>アト</t>
+        </rPh>
+        <rPh sb="145" eb="147">
+          <t>ケッカ</t>
+        </rPh>
+        <rPh sb="148" eb="151">
+          <t>ジドウテキ</t>
+        </rPh>
+        <rPh sb="152" eb="154">
+          <t>センイ</t>
+        </rPh>
+        <rPh sb="172" eb="174">
+          <t>キョウチョウ</t>
+        </rPh>
+        <rPh sb="174" eb="176">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="177" eb="179">
+          <t>ゼンブ</t>
+        </rPh>
+        <rPh sb="179" eb="180">
+          <t>ケ</t>
+        </rPh>
+        <rPh sb="182" eb="184">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="187" eb="189">
+          <t>ヤジルシ</t>
+        </rPh>
+        <rPh sb="198" eb="199">
+          <t>キ</t>
+        </rPh>
+        <rPh sb="203" eb="205">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="210" eb="212">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="E19" t="inlineStr">
+      <is>
+        <t>1.発表リスト画面のタイトルの右の検索アイコンをクリックすると、タイトルで検索バー、矢印、×ボタンが表示される
+2.検索キーワードを入力して、このページの中に同じ文字内容が強調表示される、検索バーの一番右に検索結果が表示される
+3.検索バーの矢印をクリックすると「一個前」と「一個後」の結果に自動的に遷移する
+4.×ボタンをクリックすると、協調表示を全部消す、検索バー、矢印ボタンと×ボタンが消えて、「発表リスト」を表示する</t>
+        <rPh sb="2" eb="4">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="7" eb="9">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="15" eb="16">
+          <t>ミギ</t>
+        </rPh>
+        <rPh sb="17" eb="19">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="37" eb="39">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="42" eb="44">
+          <t>ヤジルシ</t>
+        </rPh>
+        <rPh sb="50" eb="52">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="58" eb="60">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="66" eb="68">
+          <t>ニュウリョク</t>
+        </rPh>
+        <rPh sb="77" eb="78">
+          <t>ナカ</t>
+        </rPh>
+        <rPh sb="79" eb="80">
+          <t>オナ</t>
+        </rPh>
+        <rPh sb="81" eb="83">
+          <t>モジ</t>
+        </rPh>
+        <rPh sb="83" eb="85">
+          <t>ナイヨウ</t>
+        </rPh>
+        <rPh sb="86" eb="90">
+          <t>キョウチョウヒョウジ</t>
+        </rPh>
+        <rPh sb="94" eb="96">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="99" eb="101">
+          <t>イチバン</t>
+        </rPh>
+        <rPh sb="101" eb="102">
+          <t>ミギ</t>
+        </rPh>
+        <rPh sb="103" eb="105">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="105" eb="107">
+          <t>ケッカ</t>
+        </rPh>
+        <rPh sb="108" eb="110">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="116" eb="118">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="121" eb="123">
+          <t>ヤジルシ</t>
+        </rPh>
+        <rPh sb="132" eb="134">
+          <t>イッコ</t>
+        </rPh>
+        <rPh sb="134" eb="135">
+          <t>マエ</t>
+        </rPh>
+        <rPh sb="138" eb="140">
+          <t>イッコ</t>
+        </rPh>
+        <rPh sb="140" eb="141">
+          <t>アト</t>
+        </rPh>
+        <rPh sb="143" eb="145">
+          <t>ケッカ</t>
+        </rPh>
+        <rPh sb="146" eb="149">
+          <t>ジドウテキ</t>
+        </rPh>
+        <rPh sb="150" eb="152">
+          <t>センイ</t>
+        </rPh>
+        <rPh sb="170" eb="172">
+          <t>キョウチョウ</t>
+        </rPh>
+        <rPh sb="172" eb="174">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="175" eb="177">
+          <t>ゼンブ</t>
+        </rPh>
+        <rPh sb="177" eb="178">
+          <t>ケ</t>
+        </rPh>
+        <rPh sb="180" eb="182">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="185" eb="187">
+          <t>ヤジルシ</t>
+        </rPh>
+        <rPh sb="196" eb="197">
+          <t>キ</t>
+        </rPh>
+        <rPh sb="201" eb="203">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="208" eb="210">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="56" sId="2">
+    <oc r="R7" t="inlineStr">
+      <is>
+        <t>4.検索バーの内容を削除すると、画面のが再構成し、全ての発表とセッション情報が表示される</t>
+        <rPh sb="2" eb="4">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="7" eb="9">
+          <t>ナイヨウ</t>
+        </rPh>
+        <rPh sb="10" eb="12">
+          <t>サクジョ</t>
+        </rPh>
+        <rPh sb="16" eb="18">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="20" eb="21">
+          <t>サイ</t>
+        </rPh>
+        <rPh sb="21" eb="23">
+          <t>コウセイ</t>
+        </rPh>
+        <rPh sb="25" eb="26">
+          <t>スベ</t>
+        </rPh>
+        <rPh sb="28" eb="30">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="36" eb="38">
+          <t>ジョウホウ</t>
+        </rPh>
+        <rPh sb="39" eb="41">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="R7" t="inlineStr">
+      <is>
+        <t>4.×ボタンをクリックすると、協調表示を全部消す、検索バー、矢印ボタンと×ボタンが消えて、「発表リスト」を表示する</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{938A342C-EC02-5241-A23B-8271FF511629}" action="delete"/>
@@ -4629,8 +6663,215 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="14" sId="1">
+    <nc r="C19" t="inlineStr">
+      <is>
+        <t>Search in presenList.</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="15" sId="1">
+    <nc r="D19" t="inlineStr">
+      <is>
+        <t>発表リストで検索する</t>
+        <rPh sb="0" eb="2">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="6" eb="8">
+          <t>ケンサク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="16" sId="1">
+    <oc r="D19" t="inlineStr">
+      <is>
+        <t>発表リストで検索する</t>
+        <rPh sb="0" eb="2">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="6" eb="8">
+          <t>ケンサク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="D19" t="inlineStr">
+      <is>
+        <t>発表リストで検索できる</t>
+        <rPh sb="0" eb="2">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="6" eb="8">
+          <t>ケンサク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="17" sId="1" xfDxf="1" dxf="1">
+    <nc r="E19" t="inlineStr">
+      <is>
+        <t>1. サーバに最新版のセッションデータを出す機能がある</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="18" sId="1" xfDxf="1" dxf="1">
+    <nc r="E20" t="inlineStr">
+      <is>
+        <t>2. アプリ側で最新のセッションデータを読み込み、適用させることができる</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="19" sId="1" xfDxf="1" dxf="1">
+    <nc r="E21" t="inlineStr">
+      <is>
+        <t>3. サーバに接続できない場合でもページ自体は表示し、ダウンロードのボタンを用意する（備考1）</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="20" sId="1">
+    <oc r="E19" t="inlineStr">
+      <is>
+        <t>1. サーバに最新版のセッションデータを出す機能がある</t>
+      </is>
+    </oc>
+    <nc r="E19" t="inlineStr">
+      <is>
+        <t>1. サーバに最新版のセッションデータを出す機能がある</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="21" sId="1" ref="A20:XFD20" action="insertRow"/>
+  <rrc rId="22" sId="1" ref="A20:XFD20" action="insertRow"/>
+  <rm rId="23" sheetId="1" source="E22" destination="E20" sourceSheetId="1">
+    <rfmt sheetId="1" sqref="E20" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rm rId="24" sheetId="1" source="E23" destination="E21" sourceSheetId="1">
+    <rfmt sheetId="1" sqref="E21" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rcv guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" action="delete"/>
+  <rcv guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{FDE84771-3ECA-42A2-AB18-F6E9A102726E}" name="Altairzym" id="-983449525" dateTime="2015-01-19T15:23:10"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4676,7 +6917,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4711,7 +6952,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4922,21 +7163,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="9" customWidth="1"/>
-    <col min="4" max="4" width="47.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="72.83203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="42.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="42.83203125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="9"/>
+    <col min="4" max="4" width="47.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="72.875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="42.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="42.875" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -4962,7 +7203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="149">
+    <row r="3" spans="1:8" ht="162">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4983,7 +7224,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="65">
+    <row r="4" spans="1:8" ht="67.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5004,7 +7245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="41">
+    <row r="5" spans="1:8" ht="54">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -5027,7 +7268,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="89">
+    <row r="6" spans="1:8" ht="94.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -5048,7 +7289,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="65">
+    <row r="7" spans="1:8" ht="67.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -5067,7 +7308,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="53">
+    <row r="8" spans="1:8" ht="54">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -5088,7 +7329,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="41">
+    <row r="9" spans="1:8" ht="40.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -5109,7 +7350,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="125">
+    <row r="10" spans="1:8" ht="135">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -5130,7 +7371,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="113">
+    <row r="11" spans="1:8" ht="121.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -5151,7 +7392,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="41">
+    <row r="12" spans="1:8" ht="40.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -5168,7 +7409,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="89">
+    <row r="13" spans="1:8" ht="94.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -5187,7 +7428,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="65">
+    <row r="14" spans="1:8" ht="67.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -5233,7 +7474,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="89">
+    <row r="16" spans="1:8" ht="94.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -5252,7 +7493,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="59" customHeight="1">
+    <row r="17" spans="1:8" ht="59.1" customHeight="1">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -5274,25 +7515,36 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="67.5">
       <c r="A18" s="3">
         <v>18</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="C18" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="94.5">
       <c r="A19" s="3">
         <v>19</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
@@ -5303,7 +7555,6 @@
       <c r="B20" s="10"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
@@ -5312,7 +7563,6 @@
       <c r="B21" s="10"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
@@ -5372,8 +7622,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" topLeftCell="B16">
+      <selection activeCell="E19" sqref="E19"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+    </customSheetView>
     <customSheetView guid="{938A342C-EC02-5241-A23B-8271FF511629}" scale="200" topLeftCell="A15">
       <selection activeCell="D17" sqref="D17"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
     </customSheetView>
   </customSheetViews>
@@ -5393,31 +7649,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AF14"/>
   <sheetViews>
-    <sheetView topLeftCell="O11" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView topLeftCell="P4" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="9" customWidth="1"/>
-    <col min="3" max="4" width="38.1640625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="38.125" style="9" customWidth="1"/>
     <col min="5" max="5" width="40" style="9" customWidth="1"/>
     <col min="6" max="6" width="19" style="9" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="9" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="37.83203125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="37.875" style="9" customWidth="1"/>
     <col min="11" max="11" width="28.5" style="9" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="24.625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="32.875" style="9" customWidth="1"/>
     <col min="14" max="14" width="36" style="9" customWidth="1"/>
-    <col min="15" max="15" width="29.1640625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="38.1640625" style="9" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="9"/>
+    <col min="15" max="15" width="29.125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="38.125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="26.5" style="9" customWidth="1"/>
+    <col min="18" max="18" width="30.625" style="9" customWidth="1"/>
+    <col min="19" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:32" ht="29">
+    <row r="3" spans="1:32" ht="27">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -5466,8 +7724,12 @@
       <c r="P3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -5483,7 +7745,7 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:32" ht="53">
+    <row r="4" spans="1:32" ht="54">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5532,8 +7794,12 @@
       <c r="P4" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
@@ -5549,7 +7815,7 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" ht="53">
+    <row r="5" spans="1:32" ht="54">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -5594,8 +7860,12 @@
       <c r="P5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="Q5" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
@@ -5611,7 +7881,7 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" ht="41">
+    <row r="6" spans="1:32" ht="40.5">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -5650,8 +7920,12 @@
       <c r="P6" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -5667,7 +7941,7 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:32" ht="53">
+    <row r="7" spans="1:32" ht="54">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -5703,7 +7977,9 @@
         <v>135</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="R7" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -5719,7 +7995,7 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:32" ht="67" customHeight="1">
+    <row r="8" spans="1:32" ht="66.95" customHeight="1">
       <c r="J8" s="9" t="s">
         <v>100</v>
       </c>
@@ -5731,7 +8007,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="53">
+    <row r="9" spans="1:32" ht="54">
       <c r="J9" s="9" t="s">
         <v>101</v>
       </c>
@@ -5742,12 +8018,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="41">
+    <row r="10" spans="1:32" ht="40.5">
       <c r="P10" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="29">
+    <row r="11" spans="1:32" ht="27">
       <c r="P11" s="3" t="s">
         <v>128</v>
       </c>
@@ -5757,20 +8033,26 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="29">
+    <row r="13" spans="1:32" ht="27">
       <c r="P13" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="29">
+    <row r="14" spans="1:32" ht="27">
       <c r="P14" s="3" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" scale="145" topLeftCell="P1">
+      <selection activeCell="Q4" sqref="Q4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
     <customSheetView guid="{938A342C-EC02-5241-A23B-8271FF511629}" scale="200" topLeftCell="O11">
       <selection activeCell="P14" sqref="P14"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
   </customSheetViews>
@@ -5793,18 +8075,18 @@
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23">
+    <row r="1" spans="1:2" ht="18.75">
       <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29">
+    <row r="2" spans="1:2" ht="27">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5812,7 +8094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29">
+    <row r="3" spans="1:2" ht="27">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5820,7 +8102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29">
+    <row r="4" spans="1:2" ht="27">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5828,7 +8110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="53">
+    <row r="5" spans="1:2" ht="54">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5836,7 +8118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="41">
+    <row r="6" spans="1:2" ht="40.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5844,7 +8126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="53">
+    <row r="7" spans="1:2" ht="54">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5854,8 +8136,13 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}">
+      <selection sqref="A1:B7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{938A342C-EC02-5241-A23B-8271FF511629}">
       <selection sqref="A1:B7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="3"/>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -6868,10 +6868,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{FDE84771-3ECA-42A2-AB18-F6E9A102726E}" name="Altairzym" id="-983449525" dateTime="2015-01-19T15:23:10"/>
-</users>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -5,21 +5,22 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Altairzym\Documents\say-document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanshanshan\Documents\say-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="25605" windowHeight="17565"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="25605" windowHeight="17565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Business Rules" sheetId="1" r:id="rId1"/>
     <sheet name="Business flows" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="wanshanshan - 個人用ビュー" guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="2"/>
+    <customWorkbookView name="Yuji Imagawa - 個人用ビュー" guid="{938A342C-EC02-5241-A23B-8271FF511629}" mergeInterval="0" personalView="1" yWindow="204" windowWidth="1280" windowHeight="824" activeSheetId="1"/>
     <customWorkbookView name="Altairzym - 個人用ビュー" guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Yuji Imagawa - 個人用ビュー" guid="{938A342C-EC02-5241-A23B-8271FF511629}" mergeInterval="0" personalView="1" yWindow="204" windowWidth="1280" windowHeight="824" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="159">
   <si>
     <t>限定条件</t>
     <rPh sb="0" eb="2">
@@ -3809,23 +3810,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Search in presenList.</t>
-  </si>
-  <si>
-    <t>Search in presenList.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>発表リストで検索できる</t>
-    <rPh sb="0" eb="2">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Change date of Map</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -3840,10 +3824,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Search in presenList.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>1.ポスターマップ画面へ遷移する</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -3856,140 +3836,177 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1.発表リスト画面のタイトルの右の検索アイコンをクリックすると、タイトルで検索バー、矢印、×ボタンが表示される</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2.検索キーワードを入力して、このページの中に同じ文字内容が強調表示される、検索バーの一番右に検索結果が表示される</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>3.検索バーの矢印をクリックすると「一個前」と「一個後」の結果に自動的に遷移する</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1.発表リスト画面のタイトルの右の検索アイコンをクリックすると、タイトルで検索バー、矢印、×ボタンが表示される
-2.検索キーワードを入力して、このページの中に同じ文字内容が強調表示される、検索バーの一番右に検索結果が表示される
-3.検索バーの矢印をクリックすると「一個前」と「一個後」の結果に自動的に遷移する
-4.×ボタンをクリックすると、協調表示を全部消す、検索バー、矢印ボタンと×ボタンが消えて、「発表リスト」を表示する</t>
+    <t>発表リストで検索の手引を提示する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会場案内図を表示する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Change date of Map</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Show hints of how to search</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>View venue</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>View venue</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. タブバーに「案内図」というボタンが存在する
+2.会場図画面は会場の1F、2Fの地図が表示される。</t>
+    <rPh sb="9" eb="12">
+      <t>アンナイズ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.会場図画面へ遷移する</t>
+    <rPh sb="2" eb="4">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1．リストページの右上に検索アイコンが存在する
+2.検索アイコンをタップすると、検索の手引を記載する吹き出しが出る。
+※3.ブラウザはchromeを推奨する。検索の手引きは端末のブラウザで検索機能を利用する方法となる。</t>
+    <rPh sb="9" eb="11">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>テビ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>テビ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Show hints of how to search　on list</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.発表リストページへ遷移する</t>
     <rPh sb="2" eb="4">
       <t>ハッピョウ</t>
     </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2.右上の検索アイコンをタップすると、ブラウザの検索機能の利用方法を記載する吹き出しが出る。（chromeのみ）</t>
+    <rPh sb="2" eb="4">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
       <t>ケンサク</t>
     </rPh>
-    <rPh sb="37" eb="39">
+    <rPh sb="24" eb="26">
       <t>ケンサク</t>
     </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヤジルシ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="86" eb="90">
-      <t>キョウチョウヒョウジ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>ヤジルシ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>イッコ</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>イッコ</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="146" eb="149">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="170" eb="172">
-      <t>キョウチョウ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>ゼンブ</t>
-    </rPh>
-    <rPh sb="177" eb="178">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="180" eb="182">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="185" eb="187">
-      <t>ヤジルシ</t>
-    </rPh>
-    <rPh sb="196" eb="197">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="201" eb="203">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="208" eb="210">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>4.×ボタンをクリックすると、協調表示を全部消す、検索バー、矢印ボタンと×ボタンが消えて、「発表リスト」を表示する</t>
+    <rPh sb="26" eb="28">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>デ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -4226,7 +4243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4281,6 +4298,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8" hidden="1"/>
@@ -4312,7 +4332,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FDE84771-3ECA-42A2-AB18-F6E9A102726E}" diskRevisions="1" revisionId="56" version="26">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{700CF3CE-100E-4555-AD73-1D5E46AF86A9}" diskRevisions="1" revisionId="82" version="34">
   <header guid="{3BD15C7C-501D-F945-A0CD-CF8265B55354}" dateTime="2015-01-07T10:14:27" maxSheetId="4" userName="Yuji Imagawa" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -4489,6 +4509,62 @@
     </sheetIdMap>
   </header>
   <header guid="{FDE84771-3ECA-42A2-AB18-F6E9A102726E}" dateTime="2015-01-19T15:41:10" maxSheetId="4" userName="Altairzym" r:id="rId26" minRId="56">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{38FF0934-05A6-4782-86B8-C5925807F4AE}" dateTime="2015-01-21T09:44:48" maxSheetId="4" userName="wanshanshan" r:id="rId27" minRId="57" maxRId="60">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BDD5A48E-954E-4BEC-91B0-FAB5E0DBF7CA}" dateTime="2015-01-21T09:45:26" maxSheetId="4" userName="wanshanshan" r:id="rId28" minRId="61" maxRId="65">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{308BB656-BA4B-44A6-8488-725FF82C9558}" dateTime="2015-01-21T10:06:54" maxSheetId="4" userName="wanshanshan" r:id="rId29" minRId="66" maxRId="70">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A5C5F5E0-7A56-422D-9B2A-266046F38924}" dateTime="2015-01-21T10:10:48" maxSheetId="4" userName="wanshanshan" r:id="rId30" minRId="71" maxRId="74">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DE6114B1-4F65-4610-9273-BA94EDD9ADD8}" dateTime="2015-01-21T10:39:30" maxSheetId="4" userName="wanshanshan" r:id="rId31" minRId="75">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AB6C3ADC-3B5F-415E-B123-279CB520EF48}" dateTime="2015-01-21T11:06:53" maxSheetId="4" userName="wanshanshan" r:id="rId32" minRId="76" maxRId="77">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A1FAFF33-7BA7-469C-B16C-029C310E7314}" dateTime="2015-01-21T11:53:16" maxSheetId="4" userName="wanshanshan" r:id="rId33" minRId="78">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{700CF3CE-100E-4555-AD73-1D5E46AF86A9}" dateTime="2015-01-21T12:03:16" maxSheetId="4" userName="wanshanshan" r:id="rId34" minRId="79" maxRId="82">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -6613,10 +6689,565 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="57" sId="1">
+    <oc r="A19">
+      <v>19</v>
+    </oc>
+    <nc r="A19"/>
+  </rcc>
+  <rcc rId="58" sId="1">
+    <oc r="C19" t="inlineStr">
+      <is>
+        <t>Search in presenList.</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="C19"/>
+  </rcc>
+  <rcc rId="59" sId="1">
+    <oc r="D19" t="inlineStr">
+      <is>
+        <t>発表リストで検索できる</t>
+        <rPh sb="0" eb="2">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="6" eb="8">
+          <t>ケンサク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="D19"/>
+  </rcc>
+  <rcc rId="60" sId="1">
+    <oc r="E19" t="inlineStr">
+      <is>
+        <t>1.発表リスト画面のタイトルの右の検索アイコンをクリックすると、タイトルで検索バー、矢印、×ボタンが表示される
+2.検索キーワードを入力して、このページの中に同じ文字内容が強調表示される、検索バーの一番右に検索結果が表示される
+3.検索バーの矢印をクリックすると「一個前」と「一個後」の結果に自動的に遷移する
+4.×ボタンをクリックすると、協調表示を全部消す、検索バー、矢印ボタンと×ボタンが消えて、「発表リスト」を表示する</t>
+        <rPh sb="2" eb="4">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="7" eb="9">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="15" eb="16">
+          <t>ミギ</t>
+        </rPh>
+        <rPh sb="17" eb="19">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="37" eb="39">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="42" eb="44">
+          <t>ヤジルシ</t>
+        </rPh>
+        <rPh sb="50" eb="52">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="58" eb="60">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="66" eb="68">
+          <t>ニュウリョク</t>
+        </rPh>
+        <rPh sb="77" eb="78">
+          <t>ナカ</t>
+        </rPh>
+        <rPh sb="79" eb="80">
+          <t>オナ</t>
+        </rPh>
+        <rPh sb="81" eb="83">
+          <t>モジ</t>
+        </rPh>
+        <rPh sb="83" eb="85">
+          <t>ナイヨウ</t>
+        </rPh>
+        <rPh sb="86" eb="90">
+          <t>キョウチョウヒョウジ</t>
+        </rPh>
+        <rPh sb="94" eb="96">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="99" eb="101">
+          <t>イチバン</t>
+        </rPh>
+        <rPh sb="101" eb="102">
+          <t>ミギ</t>
+        </rPh>
+        <rPh sb="103" eb="105">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="105" eb="107">
+          <t>ケッカ</t>
+        </rPh>
+        <rPh sb="108" eb="110">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="116" eb="118">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="121" eb="123">
+          <t>ヤジルシ</t>
+        </rPh>
+        <rPh sb="132" eb="134">
+          <t>イッコ</t>
+        </rPh>
+        <rPh sb="134" eb="135">
+          <t>マエ</t>
+        </rPh>
+        <rPh sb="138" eb="140">
+          <t>イッコ</t>
+        </rPh>
+        <rPh sb="140" eb="141">
+          <t>アト</t>
+        </rPh>
+        <rPh sb="143" eb="145">
+          <t>ケッカ</t>
+        </rPh>
+        <rPh sb="146" eb="149">
+          <t>ジドウテキ</t>
+        </rPh>
+        <rPh sb="150" eb="152">
+          <t>センイ</t>
+        </rPh>
+        <rPh sb="170" eb="172">
+          <t>キョウチョウ</t>
+        </rPh>
+        <rPh sb="172" eb="174">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="175" eb="177">
+          <t>ゼンブ</t>
+        </rPh>
+        <rPh sb="177" eb="178">
+          <t>ケ</t>
+        </rPh>
+        <rPh sb="180" eb="182">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="185" eb="187">
+          <t>ヤジルシ</t>
+        </rPh>
+        <rPh sb="196" eb="197">
+          <t>キ</t>
+        </rPh>
+        <rPh sb="201" eb="203">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="208" eb="210">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="E19"/>
+  </rcc>
+  <rcv guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="61" sId="2">
+    <oc r="R3" t="inlineStr">
+      <is>
+        <t>Search in presenList.</t>
+      </is>
+    </oc>
+    <nc r="R3"/>
+  </rcc>
+  <rcc rId="62" sId="2">
+    <oc r="R4" t="inlineStr">
+      <is>
+        <t>1.発表リスト画面のタイトルの右の検索アイコンをクリックすると、タイトルで検索バー、矢印、×ボタンが表示される</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="R4"/>
+  </rcc>
+  <rcc rId="63" sId="2">
+    <oc r="R5" t="inlineStr">
+      <is>
+        <t>2.検索キーワードを入力して、このページの中に同じ文字内容が強調表示される、検索バーの一番右に検索結果が表示される</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="R5"/>
+  </rcc>
+  <rcc rId="64" sId="2">
+    <oc r="R6" t="inlineStr">
+      <is>
+        <t>3.検索バーの矢印をクリックすると「一個前」と「一個後」の結果に自動的に遷移する</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="R6"/>
+  </rcc>
+  <rcc rId="65" sId="2">
+    <oc r="R7" t="inlineStr">
+      <is>
+        <t>4.×ボタンをクリックすると、協調表示を全部消す、検索バー、矢印ボタンと×ボタンが消えて、「発表リスト」を表示する</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="R7"/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="66" sId="1">
+    <nc r="A19">
+      <v>19</v>
+    </nc>
+  </rcc>
+  <rcc rId="67" sId="1">
+    <nc r="D19" t="inlineStr">
+      <is>
+        <t>発表リストで検索の手引を提示する</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="68" sId="1">
+    <nc r="D20" t="inlineStr">
+      <is>
+        <t>会場案内図を表示する</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="69" sId="1">
+    <oc r="C18" t="inlineStr">
+      <is>
+        <t>Change date of Map</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="C18" t="inlineStr">
+      <is>
+        <t>Change date of Map</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="70" sId="2">
+    <oc r="Q3" t="inlineStr">
+      <is>
+        <t>Search in presenList.</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="Q3" t="inlineStr">
+      <is>
+        <t>Change date of Map</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{938A342C-EC02-5241-A23B-8271FF511629}" action="delete"/>
   <rcv guid="{938A342C-EC02-5241-A23B-8271FF511629}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="71" sId="1">
+    <nc r="C19" t="inlineStr">
+      <is>
+        <t>Show hints of how to search</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="72" sId="2">
+    <nc r="R3" t="inlineStr">
+      <is>
+        <t>Show hints of how to search</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="73" sId="1">
+    <nc r="C20" t="inlineStr">
+      <is>
+        <t>View venue</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="74" sId="2">
+    <nc r="S3" t="inlineStr">
+      <is>
+        <t>View venue</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}" action="delete"/>
+  <rcv guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="75" sId="1">
+    <nc r="E20" t="inlineStr">
+      <is>
+        <t>1. タブバーに「案内図」というボタンが存在する
+2.会場図画面は会場の1F、2Fの地図が表示される。</t>
+        <rPh sb="9" eb="12">
+          <t>アンナイズ</t>
+        </rPh>
+        <rPh sb="27" eb="29">
+          <t>カイジョウ</t>
+        </rPh>
+        <rPh sb="29" eb="30">
+          <t>ズ</t>
+        </rPh>
+        <rPh sb="30" eb="32">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="33" eb="35">
+          <t>カイジョウ</t>
+        </rPh>
+        <rPh sb="42" eb="44">
+          <t>チズ</t>
+        </rPh>
+        <rPh sb="45" eb="47">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="76" sId="2">
+    <nc r="S4" t="inlineStr">
+      <is>
+        <t>1.会場図画面へ遷移する</t>
+        <rPh sb="2" eb="4">
+          <t>カイジョウ</t>
+        </rPh>
+        <rPh sb="4" eb="5">
+          <t>ズ</t>
+        </rPh>
+        <rPh sb="5" eb="7">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="8" eb="10">
+          <t>センイ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="77" sId="2">
+    <nc r="S5" t="inlineStr">
+      <is>
+        <t>2.会場地図が画面で表示される</t>
+        <rPh sb="2" eb="4">
+          <t>カイジョウ</t>
+        </rPh>
+        <rPh sb="4" eb="6">
+          <t>チズ</t>
+        </rPh>
+        <rPh sb="7" eb="9">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="10" eb="12">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="78" sId="1">
+    <nc r="E19" t="inlineStr">
+      <is>
+        <t>1．リストページの右上に検索アイコンが存在する
+2.検索アイコンをタップすると、検索の手引を記載する吹き出しが出る。
+※3.ブラウザはchromeを推奨する。検索の手引きは端末のブラウザで検索機能を利用する方法となる。</t>
+        <rPh sb="9" eb="11">
+          <t>ミギウエ</t>
+        </rPh>
+        <rPh sb="12" eb="14">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="19" eb="21">
+          <t>ソンザイ</t>
+        </rPh>
+        <rPh sb="26" eb="28">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="40" eb="42">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="43" eb="45">
+          <t>テビ</t>
+        </rPh>
+        <rPh sb="46" eb="48">
+          <t>キサイ</t>
+        </rPh>
+        <rPh sb="50" eb="51">
+          <t>フ</t>
+        </rPh>
+        <rPh sb="52" eb="53">
+          <t>ダ</t>
+        </rPh>
+        <rPh sb="55" eb="56">
+          <t>デ</t>
+        </rPh>
+        <rPh sb="74" eb="76">
+          <t>スイショウ</t>
+        </rPh>
+        <rPh sb="79" eb="81">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="82" eb="84">
+          <t>テビ</t>
+        </rPh>
+        <rPh sb="86" eb="88">
+          <t>タンマツ</t>
+        </rPh>
+        <rPh sb="94" eb="96">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="96" eb="98">
+          <t>キノウ</t>
+        </rPh>
+        <rPh sb="99" eb="101">
+          <t>リヨウ</t>
+        </rPh>
+        <rPh sb="103" eb="105">
+          <t>ホウホウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog34.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="79" sId="2">
+    <oc r="R3" t="inlineStr">
+      <is>
+        <t>Show hints of how to search</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="R3" t="inlineStr">
+      <is>
+        <t>Show hints of how to search　on list</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="80" sId="2">
+    <nc r="R4" t="inlineStr">
+      <is>
+        <t>1.発表リストページへ遷移する</t>
+        <rPh sb="2" eb="4">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="11" eb="13">
+          <t>センイ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="81" sId="2">
+    <oc r="S5" t="inlineStr">
+      <is>
+        <t>2.会場地図が画面で表示される</t>
+        <rPh sb="2" eb="4">
+          <t>カイジョウ</t>
+        </rPh>
+        <rPh sb="4" eb="6">
+          <t>チズ</t>
+        </rPh>
+        <rPh sb="7" eb="9">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="10" eb="12">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="S5"/>
+  </rcc>
+  <rfmt sheetId="2" sqref="R5">
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R5">
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="82" sId="2">
+    <nc r="R5" t="inlineStr">
+      <is>
+        <t>2.右上の検索アイコンをタップすると、ブラウザの検索機能の利用方法を記載する吹き出しが出る。（chromeのみ）</t>
+        <rPh sb="2" eb="4">
+          <t>ミギウエ</t>
+        </rPh>
+        <rPh sb="5" eb="7">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="24" eb="26">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="26" eb="28">
+          <t>キノウ</t>
+        </rPh>
+        <rPh sb="29" eb="31">
+          <t>リヨウ</t>
+        </rPh>
+        <rPh sb="31" eb="33">
+          <t>ホウホウ</t>
+        </rPh>
+        <rPh sb="34" eb="36">
+          <t>キサイ</t>
+        </rPh>
+        <rPh sb="38" eb="39">
+          <t>フ</t>
+        </rPh>
+        <rPh sb="40" eb="41">
+          <t>ダ</t>
+        </rPh>
+        <rPh sb="43" eb="44">
+          <t>デ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -6869,7 +7500,9 @@
 </file>
 
 <file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{700CF3CE-100E-4555-AD73-1D5E46AF86A9}" name="wanshanshan" id="-1104244413" dateTime="2015-01-21T09:44:36"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7161,7 +7794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView topLeftCell="B17" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -7518,41 +8151,48 @@
         <v>18</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="94.5">
+    <row r="19" spans="1:8" ht="62.25" customHeight="1">
       <c r="A19" s="3">
         <v>19</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="84" customHeight="1">
       <c r="A20" s="3">
         <v>20</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
@@ -7620,13 +8260,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" topLeftCell="B16">
-      <selection activeCell="E19" sqref="E19"/>
+    <customSheetView guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}" topLeftCell="A17">
+      <selection activeCell="C20" sqref="C20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
     </customSheetView>
     <customSheetView guid="{938A342C-EC02-5241-A23B-8271FF511629}" scale="200" topLeftCell="A15">
       <selection activeCell="D17" sqref="D17"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+    </customSheetView>
+    <customSheetView guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" topLeftCell="B16">
+      <selection activeCell="E19" sqref="E19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
     </customSheetView>
@@ -7647,8 +8292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AF14"/>
   <sheetViews>
-    <sheetView topLeftCell="P4" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -7670,7 +8315,8 @@
     <col min="16" max="16" width="38.125" style="9" customWidth="1"/>
     <col min="17" max="17" width="26.5" style="9" customWidth="1"/>
     <col min="18" max="18" width="30.625" style="9" customWidth="1"/>
-    <col min="19" max="16384" width="8.875" style="9"/>
+    <col min="19" max="19" width="21.75" style="9" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:32" ht="27">
@@ -7723,12 +8369,14 @@
         <v>125</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="S3" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
@@ -7793,12 +8441,14 @@
         <v>133</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="S4" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -7859,10 +8509,10 @@
         <v>134</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -7919,11 +8569,9 @@
         <v>126</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>153</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -7975,9 +8623,7 @@
         <v>135</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -8043,13 +8689,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" scale="145" topLeftCell="P1">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <customSheetView guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}" scale="145" topLeftCell="Q1">
+      <selection activeCell="S3" sqref="S3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
     <customSheetView guid="{938A342C-EC02-5241-A23B-8271FF511629}" scale="200" topLeftCell="O11">
       <selection activeCell="P14" sqref="P14"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+    <customSheetView guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" scale="145" topLeftCell="P1">
+      <selection activeCell="Q4" sqref="Q4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -8070,7 +8721,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -8134,11 +8785,15 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}">
+    <customSheetView guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}">
+      <selection activeCell="B12" sqref="B12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{938A342C-EC02-5241-A23B-8271FF511629}">
       <selection sqref="A1:B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{938A342C-EC02-5241-A23B-8271FF511629}">
+    <customSheetView guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}">
       <selection sqref="A1:B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>

--- a/UserStoriesAndBusinessRules_Release2.xlsx
+++ b/UserStoriesAndBusinessRules_Release2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="25605" windowHeight="17565" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="25605" windowHeight="17565"/>
   </bookViews>
   <sheets>
     <sheet name="Business Rules" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
   </sheets>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
-    <customWorkbookView name="wanshanshan - 個人用ビュー" guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="2"/>
+    <customWorkbookView name="wanshanshan - 個人用ビュー" guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Altairzym - 個人用ビュー" guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
     <customWorkbookView name="Yuji Imagawa - 個人用ビュー" guid="{938A342C-EC02-5241-A23B-8271FF511629}" mergeInterval="0" personalView="1" yWindow="204" windowWidth="1280" windowHeight="824" activeSheetId="1"/>
-    <customWorkbookView name="Altairzym - 個人用ビュー" guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="169">
   <si>
     <t>限定条件</t>
     <rPh sb="0" eb="2">
@@ -2676,16 +2676,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ブックマークリスト画面に遷移する</t>
-    <rPh sb="9" eb="12">
-      <t>ガメンイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>すでにブックマークしたポスターの一覧が表示される</t>
     <rPh sb="16" eb="18">
       <t>イチラン</t>
@@ -3856,112 +3846,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>View venue</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1. タブバーに「案内図」というボタンが存在する
-2.会場図画面は会場の1F、2Fの地図が表示される。</t>
-    <rPh sb="9" eb="12">
-      <t>アンナイズ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カイジョウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カイジョウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>チズ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1.会場図画面へ遷移する</t>
-    <rPh sb="2" eb="4">
-      <t>カイジョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1．リストページの右上に検索アイコンが存在する
-2.検索アイコンをタップすると、検索の手引を記載する吹き出しが出る。
-※3.ブラウザはchromeを推奨する。検索の手引きは端末のブラウザで検索機能を利用する方法となる。</t>
-    <rPh sb="9" eb="11">
-      <t>ミギウエ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>テビ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>スイショウ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>テビ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>タンマツ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Show hints of how to search　on list</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -4006,6 +3890,203 @@
     </rPh>
     <rPh sb="43" eb="44">
       <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.タブバーの会場図メニューをタップすると，会場図ページへ遷移する</t>
+    <rPh sb="7" eb="9">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2. 遷移したときに，タブバーの会場図メニューが強調されている</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3. セッション表の会場名をタップすると会場図ページへ遷移する</t>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. タブバーに「会場図」というボタンが存在する
+2.会場図画面は会場の1F、2Fの地図が表示される
+3. セッション表の会場名から会場図ページに遷移できる
+4. 会場図ページに遷移したことがログに記録される</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1．リストページの右上に検索アイコンが存在する。検索アイコンの位置は別紙（画面デザイン）を参照。
+2.検索アイコンをタップすると、検索の手引を記載する吹き出しが出る（検討事項1）
+3. 検索アイコンをタップしたことがログに記録される</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※ブラウザはchromeを推奨する。検索の手引きは端末のブラウザで検索機能を利用する方法となる。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検討事項１：検索の手引きの具体的な文面を提案してください。
+検討事項2：ブラウザはchromeを推奨するとしても，他のブラウザでも対応できるような文面にできませんか？</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブックマークリスト画面に遷移する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>toggle poster list and bookmark list</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>発表リストとブックマークリストを切替る</t>
+    <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キリガエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.発表リスト画面の左上に発表リストとブックマークを切替るトグルボタンが存在する
+2.「ＡＬＬ」を選択すると、発表リストの一覧画面が表示される。
+3.「★」を選択すると、ブックマークリストの一覧画面が表示される。</t>
+    <rPh sb="2" eb="4">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キリガエ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>toggle poster list and bookmark list</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.リスト画面に遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2.画面の左上にあるトグルボタンの「ＡＬＬ」を選択すると、発表リスト一覧画面が表示される。</t>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3.「★」を選択すると、ブックマークリスト画面が表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -4014,7 +4095,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4136,6 +4217,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4243,7 +4332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4301,6 +4390,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8" hidden="1"/>
@@ -4332,7 +4427,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{700CF3CE-100E-4555-AD73-1D5E46AF86A9}" diskRevisions="1" revisionId="82" version="34">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{8A9B212C-CC69-4B4C-9071-7F23031EDCF4}" diskRevisions="1" revisionId="98" version="40">
   <header guid="{3BD15C7C-501D-F945-A0CD-CF8265B55354}" dateTime="2015-01-07T10:14:27" maxSheetId="4" userName="Yuji Imagawa" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -4565,6 +4660,48 @@
     </sheetIdMap>
   </header>
   <header guid="{700CF3CE-100E-4555-AD73-1D5E46AF86A9}" dateTime="2015-01-21T12:03:16" maxSheetId="4" userName="wanshanshan" r:id="rId34" minRId="79" maxRId="82">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{400928FC-5D43-4BD0-BC13-2ED8E7D2E8B1}" dateTime="2015-01-22T12:04:58" maxSheetId="4" userName="wanshanshan" r:id="rId35" minRId="83" maxRId="86">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{35907589-5BCF-4C4A-9CD4-373C90022652}" dateTime="2015-01-22T13:16:35" maxSheetId="4" userName="wanshanshan" r:id="rId36" minRId="87" maxRId="90">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E769D19D-C2E7-4BBD-B190-2B47C80E5289}" dateTime="2015-01-22T13:17:16" maxSheetId="4" userName="wanshanshan" r:id="rId37" minRId="91" maxRId="92">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C2736F10-037F-422E-BE1F-5703CAEA60A5}" dateTime="2015-01-22T13:33:26" maxSheetId="4" userName="wanshanshan" r:id="rId38" minRId="93" maxRId="94">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{09047C1E-3E64-4092-89C0-4558E681223E}" dateTime="2015-01-22T13:49:54" maxSheetId="4" userName="wanshanshan" r:id="rId39" minRId="95" maxRId="96">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8A9B212C-CC69-4B4C-9071-7F23031EDCF4}" dateTime="2015-01-22T13:54:13" maxSheetId="4" userName="wanshanshan" r:id="rId40" minRId="97" maxRId="98">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -7251,6 +7388,490 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog35.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="83" sId="2" odxf="1" dxf="1">
+    <oc r="S4" t="inlineStr">
+      <is>
+        <t>1.会場図画面へ遷移する</t>
+        <rPh sb="2" eb="4">
+          <t>カイジョウ</t>
+        </rPh>
+        <rPh sb="4" eb="5">
+          <t>ズ</t>
+        </rPh>
+        <rPh sb="5" eb="7">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="8" eb="10">
+          <t>センイ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="S4" t="inlineStr">
+      <is>
+        <t>1.タブバーの会場図メニューをタップすると，会場図ページへ遷移する</t>
+        <rPh sb="7" eb="9">
+          <t>カイジョウ</t>
+        </rPh>
+        <rPh sb="9" eb="10">
+          <t>ズ</t>
+        </rPh>
+        <rPh sb="22" eb="24">
+          <t>カイジョウ</t>
+        </rPh>
+        <rPh sb="24" eb="25">
+          <t>ズ</t>
+        </rPh>
+        <rPh sb="29" eb="31">
+          <t>センイ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="84" sId="2" odxf="1" dxf="1">
+    <nc r="S5" t="inlineStr">
+      <is>
+        <t>2. 遷移したときに，タブバーの会場図メニューが強調されている</t>
+        <rPh sb="3" eb="5">
+          <t>センイ</t>
+        </rPh>
+        <rPh sb="16" eb="18">
+          <t>カイジョウ</t>
+        </rPh>
+        <rPh sb="18" eb="19">
+          <t>ズ</t>
+        </rPh>
+        <rPh sb="24" eb="26">
+          <t>キョウチョウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="85" sId="2" odxf="1" dxf="1">
+    <nc r="S6" t="inlineStr">
+      <is>
+        <t>3. セッション表の会場名をタップすると会場図ページへ遷移する</t>
+        <rPh sb="8" eb="9">
+          <t>ヒョウ</t>
+        </rPh>
+        <rPh sb="10" eb="12">
+          <t>カイジョウ</t>
+        </rPh>
+        <rPh sb="12" eb="13">
+          <t>メイ</t>
+        </rPh>
+        <rPh sb="20" eb="22">
+          <t>カイジョウ</t>
+        </rPh>
+        <rPh sb="22" eb="23">
+          <t>ズ</t>
+        </rPh>
+        <rPh sb="27" eb="29">
+          <t>センイ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="2" sqref="S3:S6" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="86" sId="1">
+    <oc r="E20" t="inlineStr">
+      <is>
+        <t>1. タブバーに「案内図」というボタンが存在する
+2.会場図画面は会場の1F、2Fの地図が表示される。</t>
+        <rPh sb="9" eb="12">
+          <t>アンナイズ</t>
+        </rPh>
+        <rPh sb="27" eb="29">
+          <t>カイジョウ</t>
+        </rPh>
+        <rPh sb="29" eb="30">
+          <t>ズ</t>
+        </rPh>
+        <rPh sb="30" eb="32">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="33" eb="35">
+          <t>カイジョウ</t>
+        </rPh>
+        <rPh sb="42" eb="44">
+          <t>チズ</t>
+        </rPh>
+        <rPh sb="45" eb="47">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="E20" t="inlineStr">
+      <is>
+        <t>1. タブバーに「会場図」というボタンが存在する
+2.会場図画面は会場の1F、2Fの地図が表示される
+3. セッション表の会場名から会場図ページに遷移できる
+4. 会場図ページに遷移したことがログに記録される</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}" action="delete"/>
+  <rcv guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog36.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="87" sId="1">
+    <oc r="E19" t="inlineStr">
+      <is>
+        <t>1．リストページの右上に検索アイコンが存在する
+2.検索アイコンをタップすると、検索の手引を記載する吹き出しが出る。
+※3.ブラウザはchromeを推奨する。検索の手引きは端末のブラウザで検索機能を利用する方法となる。</t>
+        <rPh sb="9" eb="11">
+          <t>ミギウエ</t>
+        </rPh>
+        <rPh sb="12" eb="14">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="19" eb="21">
+          <t>ソンザイ</t>
+        </rPh>
+        <rPh sb="26" eb="28">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="40" eb="42">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="43" eb="45">
+          <t>テビ</t>
+        </rPh>
+        <rPh sb="46" eb="48">
+          <t>キサイ</t>
+        </rPh>
+        <rPh sb="50" eb="51">
+          <t>フ</t>
+        </rPh>
+        <rPh sb="52" eb="53">
+          <t>ダ</t>
+        </rPh>
+        <rPh sb="55" eb="56">
+          <t>デ</t>
+        </rPh>
+        <rPh sb="74" eb="76">
+          <t>スイショウ</t>
+        </rPh>
+        <rPh sb="79" eb="81">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="82" eb="84">
+          <t>テビ</t>
+        </rPh>
+        <rPh sb="86" eb="88">
+          <t>タンマツ</t>
+        </rPh>
+        <rPh sb="94" eb="96">
+          <t>ケンサク</t>
+        </rPh>
+        <rPh sb="96" eb="98">
+          <t>キノウ</t>
+        </rPh>
+        <rPh sb="99" eb="101">
+          <t>リヨウ</t>
+        </rPh>
+        <rPh sb="103" eb="105">
+          <t>ホウホウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="E19" t="inlineStr">
+      <is>
+        <t>1．リストページの右上に検索アイコンが存在する。検索アイコンの位置は別紙（画面デザイン）を参照。
+2.検索アイコンをタップすると、検索の手引を記載する吹き出しが出る（検討事項1）
+3. 検索アイコンをタップしたことがログに記録される</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="88" sId="1">
+    <nc r="F19" t="inlineStr">
+      <is>
+        <t>※ブラウザはchromeを推奨する。検索の手引きは端末のブラウザで検索機能を利用する方法となる。</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="89" sId="1" odxf="1" dxf="1">
+    <nc r="G19" t="inlineStr">
+      <is>
+        <t>検討事項１：検索の手引きの具体的な文面を提案してください。
+検討事項2：ブラウザはchromeを推奨するとしても，他のブラウザでも対応できるような文面にできませんか？</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="2" sqref="L4" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="90" sId="2" odxf="1" dxf="1">
+    <oc r="L4" t="inlineStr">
+      <is>
+        <t>ブックマークリスト画面に遷移する</t>
+        <rPh sb="9" eb="12">
+          <t>ガメンイ</t>
+        </rPh>
+        <rPh sb="12" eb="14">
+          <t>センイ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="L4" t="inlineStr">
+      <is>
+        <t>ブックマークリスト画面に遷移する</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcv guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}" action="delete"/>
+  <rcv guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog37.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="91" sId="1">
+    <nc r="A21">
+      <v>21</v>
+    </nc>
+  </rcc>
+  <rcc rId="92" sId="1">
+    <nc r="C21" t="inlineStr">
+      <is>
+        <t>toggle poster list and bookmark list</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}" action="delete"/>
+  <rcv guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog38.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="93" sId="1">
+    <nc r="D21" t="inlineStr">
+      <is>
+        <t>発表リストとブックマークリストを切替る</t>
+        <rPh sb="0" eb="2">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="16" eb="18">
+          <t>キリガエ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="E21">
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="E21">
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="E21">
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="E21">
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="E21">
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="94" sId="1">
+    <nc r="E21" t="inlineStr">
+      <is>
+        <t>1.発表リスト画面の左上に発表リストとブックマークを切替るトグルボタンが存在する
+2.「ＡＬＬ」を選択すると、発表リストの一覧画面が表示される。
+3.「★」を選択すると、ブックマークリストの一覧画面が表示される。</t>
+        <rPh sb="2" eb="4">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="7" eb="9">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="10" eb="11">
+          <t>ヒダリ</t>
+        </rPh>
+        <rPh sb="11" eb="12">
+          <t>ウエ</t>
+        </rPh>
+        <rPh sb="13" eb="15">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="26" eb="28">
+          <t>キリガエ</t>
+        </rPh>
+        <rPh sb="36" eb="38">
+          <t>ソンザイ</t>
+        </rPh>
+        <rPh sb="49" eb="51">
+          <t>センタク</t>
+        </rPh>
+        <rPh sb="55" eb="57">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="61" eb="63">
+          <t>イチラン</t>
+        </rPh>
+        <rPh sb="63" eb="65">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="66" eb="68">
+          <t>ヒョウジ</t>
+        </rPh>
+        <rPh sb="79" eb="81">
+          <t>センタク</t>
+        </rPh>
+        <rPh sb="95" eb="97">
+          <t>イチラン</t>
+        </rPh>
+        <rPh sb="97" eb="99">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="100" eb="102">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog39.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="95" sId="2">
+    <nc r="T3" t="inlineStr">
+      <is>
+        <t>toggle poster list and bookmark list</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="96" sId="2">
+    <nc r="T4" t="inlineStr">
+      <is>
+        <t>1.リスト画面に遷移する</t>
+        <rPh sb="5" eb="7">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="8" eb="10">
+          <t>センイ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="10" sId="2">
@@ -7291,6 +7912,51 @@
   </rcc>
   <rcv guid="{938A342C-EC02-5241-A23B-8271FF511629}" action="delete"/>
   <rcv guid="{938A342C-EC02-5241-A23B-8271FF511629}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog40.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="97" sId="2">
+    <nc r="T5" t="inlineStr">
+      <is>
+        <t>2.画面の左上にあるトグルボタンの「ＡＬＬ」を選択すると、発表リスト一覧画面が表示される。</t>
+        <rPh sb="23" eb="25">
+          <t>センタク</t>
+        </rPh>
+        <rPh sb="29" eb="31">
+          <t>ハッピョウ</t>
+        </rPh>
+        <rPh sb="34" eb="36">
+          <t>イチラン</t>
+        </rPh>
+        <rPh sb="36" eb="38">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="39" eb="41">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="98" sId="2">
+    <nc r="T6" t="inlineStr">
+      <is>
+        <t>3.「★」を選択すると、ブックマークリスト画面が表示される。</t>
+        <rPh sb="6" eb="8">
+          <t>センタク</t>
+        </rPh>
+        <rPh sb="21" eb="23">
+          <t>ガメン</t>
+        </rPh>
+        <rPh sb="24" eb="26">
+          <t>ヒョウジ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -7499,9 +8165,9 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{700CF3CE-100E-4555-AD73-1D5E46AF86A9}" name="wanshanshan" id="-1104244413" dateTime="2015-01-21T09:44:36"/>
+  <userInfo guid="{8A9B212C-CC69-4B4C-9071-7F23031EDCF4}" name="wanshanshan" id="-1104231167" dateTime="2015-01-22T12:00:59"/>
 </users>
 </file>
 
@@ -7794,8 +8460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -8065,20 +8731,20 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="E14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="137.25" customHeight="1">
@@ -8087,22 +8753,22 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>121</v>
-      </c>
       <c r="H15" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="94.5">
@@ -8111,16 +8777,16 @@
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="G16" s="3"/>
     </row>
@@ -8130,20 +8796,20 @@
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="67.5">
@@ -8151,13 +8817,13 @@
         <v>18</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -8168,16 +8834,20 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="84" customHeight="1">
       <c r="A20" s="3">
@@ -8185,22 +8855,31 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="3"/>
+    <row r="21" spans="1:8" ht="60" customHeight="1">
+      <c r="A21" s="3">
+        <v>21</v>
+      </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>164</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
@@ -8260,18 +8939,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}" topLeftCell="A17">
-      <selection activeCell="C20" sqref="C20"/>
+    <customSheetView guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}" topLeftCell="A19">
+      <selection activeCell="C21" sqref="C21"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+    </customSheetView>
+    <customSheetView guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" topLeftCell="B16">
+      <selection activeCell="E19" sqref="E19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
     </customSheetView>
     <customSheetView guid="{938A342C-EC02-5241-A23B-8271FF511629}" scale="200" topLeftCell="A15">
       <selection activeCell="D17" sqref="D17"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-    </customSheetView>
-    <customSheetView guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" topLeftCell="B16">
-      <selection activeCell="E19" sqref="E19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
     </customSheetView>
@@ -8292,8 +8971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -8316,10 +8995,11 @@
     <col min="17" max="17" width="26.5" style="9" customWidth="1"/>
     <col min="18" max="18" width="30.625" style="9" customWidth="1"/>
     <col min="19" max="19" width="21.75" style="9" customWidth="1"/>
-    <col min="20" max="16384" width="8.875" style="9"/>
+    <col min="20" max="20" width="32.625" style="9" customWidth="1"/>
+    <col min="21" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:32" ht="27">
+    <row r="3" spans="1:32" ht="67.5">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -8357,27 +9037,29 @@
         <v>75</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T3" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
@@ -8420,36 +9102,38 @@
         <v>76</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>92</v>
+      <c r="L4" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="S4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="T4" s="3"/>
+      <c r="T4" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -8492,30 +9176,34 @@
         <v>77</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>88</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="15"/>
       <c r="O5" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -8552,28 +9240,32 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>89</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="15"/>
       <c r="O6" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="S6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -8608,19 +9300,19 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>90</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -8641,56 +9333,61 @@
     </row>
     <row r="8" spans="1:32" ht="66.95" customHeight="1">
       <c r="J8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>91</v>
       </c>
       <c r="N8" s="15"/>
       <c r="P8" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="54">
       <c r="J9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="P9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="40.5">
       <c r="P10" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="27">
       <c r="P11" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="82.5" customHeight="1">
       <c r="P12" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="27">
       <c r="P13" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="27">
       <c r="P14" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}" scale="145" topLeftCell="Q1">
-      <selection activeCell="S3" sqref="S3"/>
+    <customSheetView guid="{E440C132-E624-40C9-A538-4AF4BD56C73A}" topLeftCell="K1">
+      <selection activeCell="M5" sqref="M5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" scale="145" topLeftCell="P1">
+      <selection activeCell="Q4" sqref="Q4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -8699,15 +9396,10 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}" scale="145" topLeftCell="P1">
-      <selection activeCell="Q4" sqref="Q4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8789,11 +9481,11 @@
       <selection activeCell="B12" sqref="B12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{938A342C-EC02-5241-A23B-8271FF511629}">
+    <customSheetView guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}">
       <selection sqref="A1:B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{DA126021-54B1-4D5D-870C-B30A2DABF113}">
+    <customSheetView guid="{938A342C-EC02-5241-A23B-8271FF511629}">
       <selection sqref="A1:B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
